--- a/Populism Index/data.xlsx
+++ b/Populism Index/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/Working Papers/Paper - An Index of Latin American Populism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1220" documentId="8_{FB72FBC9-BFA1-43D6-AEE1-7E35D9B366DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{62F9D69F-D26F-47A7-9084-122E050AE706}"/>
+  <xr:revisionPtr revIDLastSave="1238" documentId="8_{FB72FBC9-BFA1-43D6-AEE1-7E35D9B366DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{710B167E-F11A-4C09-89C2-F3A7A5002B42}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="45000" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -934,7 +934,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K152" sqref="K152:K154"/>
+      <selection pane="bottomRight" activeCell="F572" sqref="F572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1023,7 @@
         <v>1980</v>
       </c>
       <c r="E2" s="23">
-        <v>-2.4860000000000002</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="F2" s="23">
         <v>0.40300000000000002</v>
@@ -1077,7 +1077,7 @@
         <v>1981</v>
       </c>
       <c r="E3" s="23">
-        <v>-2.4860000000000002</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="F3" s="23">
         <v>0.40300000000000002</v>
@@ -1131,7 +1131,7 @@
         <v>1982</v>
       </c>
       <c r="E4" s="23">
-        <v>-1.1639999999999999</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="F4" s="23">
         <v>0.40300000000000002</v>
@@ -1185,7 +1185,7 @@
         <v>1983</v>
       </c>
       <c r="E5" s="23">
-        <v>-1.111</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="F5" s="23">
         <v>0.58799999999999997</v>
@@ -1239,7 +1239,7 @@
         <v>1984</v>
       </c>
       <c r="E6" s="23">
-        <v>2.1339999999999999</v>
+        <v>3.5190000000000001</v>
       </c>
       <c r="F6" s="23">
         <v>0.75800000000000001</v>
@@ -1293,7 +1293,7 @@
         <v>1985</v>
       </c>
       <c r="E7" s="23">
-        <v>2.1339999999999999</v>
+        <v>3.5190000000000001</v>
       </c>
       <c r="F7" s="23">
         <v>0.75800000000000001</v>
@@ -1347,7 +1347,7 @@
         <v>1986</v>
       </c>
       <c r="E8" s="23">
-        <v>2.14</v>
+        <v>3.5219999999999998</v>
       </c>
       <c r="F8" s="23">
         <v>0.75800000000000001</v>
@@ -1401,7 +1401,7 @@
         <v>1987</v>
       </c>
       <c r="E9" s="23">
-        <v>2.1560000000000001</v>
+        <v>3.5270000000000001</v>
       </c>
       <c r="F9" s="23">
         <v>0.75800000000000001</v>
@@ -1457,7 +1457,7 @@
         <v>1988</v>
       </c>
       <c r="E10" s="23">
-        <v>2.1560000000000001</v>
+        <v>3.5270000000000001</v>
       </c>
       <c r="F10" s="23">
         <v>0.75800000000000001</v>
@@ -1513,7 +1513,7 @@
         <v>1989</v>
       </c>
       <c r="E11" s="23">
-        <v>1.1579999999999999</v>
+        <v>2.8759999999999999</v>
       </c>
       <c r="F11" s="23">
         <v>0.75800000000000001</v>
@@ -1569,7 +1569,7 @@
         <v>1990</v>
       </c>
       <c r="E12" s="23">
-        <v>1.893</v>
+        <v>3.38</v>
       </c>
       <c r="F12" s="23">
         <v>0.57599999999999996</v>
@@ -1625,7 +1625,7 @@
         <v>1991</v>
       </c>
       <c r="E13" s="44">
-        <v>1.893</v>
+        <v>3.38</v>
       </c>
       <c r="F13" s="44">
         <v>0.57599999999999996</v>
@@ -1681,7 +1681,7 @@
         <v>1992</v>
       </c>
       <c r="E14" s="23">
-        <v>1.893</v>
+        <v>3.38</v>
       </c>
       <c r="F14" s="23">
         <v>0.57599999999999996</v>
@@ -1741,7 +1741,7 @@
         <v>1993</v>
       </c>
       <c r="E15" s="23">
-        <v>1.893</v>
+        <v>3.38</v>
       </c>
       <c r="F15" s="23">
         <v>0.57599999999999996</v>
@@ -1801,7 +1801,7 @@
         <v>1994</v>
       </c>
       <c r="E16" s="23">
-        <v>1.893</v>
+        <v>3.38</v>
       </c>
       <c r="F16" s="23">
         <v>0.61</v>
@@ -1859,7 +1859,7 @@
         <v>1995</v>
       </c>
       <c r="E17" s="23">
-        <v>1.893</v>
+        <v>3.38</v>
       </c>
       <c r="F17" s="23">
         <v>0.627</v>
@@ -1919,7 +1919,7 @@
         <v>1996</v>
       </c>
       <c r="E18" s="23">
-        <v>1.548</v>
+        <v>3.1629999999999998</v>
       </c>
       <c r="F18" s="23">
         <v>0.627</v>
@@ -1979,7 +1979,7 @@
         <v>1997</v>
       </c>
       <c r="E19" s="23">
-        <v>1.548</v>
+        <v>3.1629999999999998</v>
       </c>
       <c r="F19" s="23">
         <v>0.627</v>
@@ -2039,7 +2039,7 @@
         <v>1998</v>
       </c>
       <c r="E20" s="23">
-        <v>1.569</v>
+        <v>3.1749999999999998</v>
       </c>
       <c r="F20" s="23">
         <v>0.60499999999999998</v>
@@ -2099,7 +2099,7 @@
         <v>1999</v>
       </c>
       <c r="E21" s="23">
-        <v>1.57</v>
+        <v>3.1749999999999998</v>
       </c>
       <c r="F21" s="23">
         <v>0.58499999999999996</v>
@@ -2159,7 +2159,7 @@
         <v>2000</v>
       </c>
       <c r="E22" s="23">
-        <v>1.8440000000000001</v>
+        <v>3.3519999999999999</v>
       </c>
       <c r="F22" s="23">
         <v>0.71599999999999997</v>
@@ -2219,7 +2219,7 @@
         <v>2001</v>
       </c>
       <c r="E23" s="23">
-        <v>1.748</v>
+        <v>3.2959999999999998</v>
       </c>
       <c r="F23" s="23">
         <v>0.71399999999999997</v>
@@ -2279,7 +2279,7 @@
         <v>2002</v>
       </c>
       <c r="E24" s="23">
-        <v>1.748</v>
+        <v>3.2959999999999998</v>
       </c>
       <c r="F24" s="23">
         <v>0.71799999999999997</v>
@@ -2339,7 +2339,7 @@
         <v>2003</v>
       </c>
       <c r="E25" s="23">
-        <v>0.219</v>
+        <v>2.0089999999999999</v>
       </c>
       <c r="F25" s="23">
         <v>0.70399999999999996</v>
@@ -2399,7 +2399,7 @@
         <v>2004</v>
       </c>
       <c r="E26" s="23">
-        <v>0.56000000000000005</v>
+        <v>2.3420000000000001</v>
       </c>
       <c r="F26" s="23">
         <v>0.70399999999999996</v>
@@ -2459,7 +2459,7 @@
         <v>2005</v>
       </c>
       <c r="E27" s="23">
-        <v>0.92200000000000004</v>
+        <v>2.681</v>
       </c>
       <c r="F27" s="23">
         <v>0.66</v>
@@ -2519,7 +2519,7 @@
         <v>2006</v>
       </c>
       <c r="E28" s="23">
-        <v>0.92200000000000004</v>
+        <v>2.681</v>
       </c>
       <c r="F28" s="23">
         <v>0.70099999999999996</v>
@@ -2579,7 +2579,7 @@
         <v>2007</v>
       </c>
       <c r="E29" s="23">
-        <v>0.92200000000000004</v>
+        <v>2.681</v>
       </c>
       <c r="F29" s="23">
         <v>0.67400000000000004</v>
@@ -2639,7 +2639,7 @@
         <v>2008</v>
       </c>
       <c r="E30" s="23">
-        <v>0.73899999999999999</v>
+        <v>2.52</v>
       </c>
       <c r="F30" s="23">
         <v>0.63800000000000001</v>
@@ -2699,7 +2699,7 @@
         <v>2009</v>
       </c>
       <c r="E31" s="23">
-        <v>0.69099999999999995</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="F31" s="23">
         <v>0.63800000000000001</v>
@@ -2759,7 +2759,7 @@
         <v>2010</v>
       </c>
       <c r="E32" s="23">
-        <v>0.6</v>
+        <v>2.391</v>
       </c>
       <c r="F32" s="23">
         <v>0.57599999999999996</v>
@@ -2819,7 +2819,7 @@
         <v>2011</v>
       </c>
       <c r="E33" s="23">
-        <v>0.6</v>
+        <v>2.391</v>
       </c>
       <c r="F33" s="23">
         <v>0.57599999999999996</v>
@@ -2879,7 +2879,7 @@
         <v>2012</v>
       </c>
       <c r="E34" s="23">
-        <v>0.55700000000000005</v>
+        <v>2.3450000000000002</v>
       </c>
       <c r="F34" s="23">
         <v>0.57599999999999996</v>
@@ -2939,7 +2939,7 @@
         <v>2013</v>
       </c>
       <c r="E35" s="23">
-        <v>0.75700000000000001</v>
+        <v>2.5310000000000001</v>
       </c>
       <c r="F35" s="23">
         <v>0.626</v>
@@ -2999,7 +2999,7 @@
         <v>2014</v>
       </c>
       <c r="E36" s="23">
-        <v>0.82299999999999995</v>
+        <v>2.597</v>
       </c>
       <c r="F36" s="23">
         <v>0.626</v>
@@ -3059,7 +3059,7 @@
         <v>2015</v>
       </c>
       <c r="E37" s="23">
-        <v>0.82299999999999995</v>
+        <v>2.597</v>
       </c>
       <c r="F37" s="23">
         <v>0.63800000000000001</v>
@@ -3117,7 +3117,7 @@
         <v>2016</v>
       </c>
       <c r="E38" s="23">
-        <v>1.5960000000000001</v>
+        <v>3.194</v>
       </c>
       <c r="F38" s="23">
         <v>0.78700000000000003</v>
@@ -3175,7 +3175,7 @@
         <v>2017</v>
       </c>
       <c r="E39" s="23">
-        <v>1.5960000000000001</v>
+        <v>3.194</v>
       </c>
       <c r="F39" s="23">
         <v>0.72499999999999998</v>
@@ -3235,7 +3235,7 @@
         <v>2018</v>
       </c>
       <c r="E40" s="25">
-        <v>1.599</v>
+        <v>3.198</v>
       </c>
       <c r="F40" s="25">
         <v>0.77500000000000002</v>
@@ -3295,7 +3295,7 @@
         <v>1980</v>
       </c>
       <c r="E41" s="23">
-        <v>-2.7709999999999999</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F41" s="23">
         <v>5.0999999999999997E-2</v>
@@ -3351,7 +3351,7 @@
         <v>1981</v>
       </c>
       <c r="E42" s="23">
-        <v>-2.7709999999999999</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F42" s="23">
         <v>6.4000000000000001E-2</v>
@@ -3407,7 +3407,7 @@
         <v>1982</v>
       </c>
       <c r="E43" s="23">
-        <v>4.7E-2</v>
+        <v>1.827</v>
       </c>
       <c r="F43" s="23">
         <v>0.27400000000000002</v>
@@ -3463,7 +3463,7 @@
         <v>1983</v>
       </c>
       <c r="E44" s="23">
-        <v>1.7130000000000001</v>
+        <v>3.2730000000000001</v>
       </c>
       <c r="F44" s="23">
         <v>0.54700000000000004</v>
@@ -3519,7 +3519,7 @@
         <v>1984</v>
       </c>
       <c r="E45" s="23">
-        <v>1.7130000000000001</v>
+        <v>3.2730000000000001</v>
       </c>
       <c r="F45" s="23">
         <v>0.54700000000000004</v>
@@ -3575,7 +3575,7 @@
         <v>1985</v>
       </c>
       <c r="E46" s="23">
-        <v>1.7130000000000001</v>
+        <v>3.2730000000000001</v>
       </c>
       <c r="F46" s="23">
         <v>0.54700000000000004</v>
@@ -3631,7 +3631,7 @@
         <v>1986</v>
       </c>
       <c r="E47" s="23">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F47" s="23">
         <v>0.53400000000000003</v>
@@ -3687,7 +3687,7 @@
         <v>1987</v>
       </c>
       <c r="E48" s="23">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F48" s="23">
         <v>0.53400000000000003</v>
@@ -3743,7 +3743,7 @@
         <v>1988</v>
       </c>
       <c r="E49" s="23">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F49" s="23">
         <v>0.53400000000000003</v>
@@ -3799,7 +3799,7 @@
         <v>1989</v>
       </c>
       <c r="E50" s="23">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F50" s="23">
         <v>0.53400000000000003</v>
@@ -3855,7 +3855,7 @@
         <v>1990</v>
       </c>
       <c r="E51" s="23">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F51" s="23">
         <v>0.53400000000000003</v>
@@ -3911,7 +3911,7 @@
         <v>1991</v>
       </c>
       <c r="E52" s="44">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F52" s="44">
         <v>0.53400000000000003</v>
@@ -3967,7 +3967,7 @@
         <v>1992</v>
       </c>
       <c r="E53" s="23">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F53" s="23">
         <v>0.53400000000000003</v>
@@ -4025,7 +4025,7 @@
         <v>1993</v>
       </c>
       <c r="E54" s="23">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F54" s="23">
         <v>0.53400000000000003</v>
@@ -4085,7 +4085,7 @@
         <v>1994</v>
       </c>
       <c r="E55" s="23">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F55" s="23">
         <v>0.55100000000000005</v>
@@ -4145,7 +4145,7 @@
         <v>1995</v>
       </c>
       <c r="E56" s="23">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F56" s="23">
         <v>0.55100000000000005</v>
@@ -4205,7 +4205,7 @@
         <v>1996</v>
       </c>
       <c r="E57" s="23">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F57" s="23">
         <v>0.55100000000000005</v>
@@ -4265,7 +4265,7 @@
         <v>1997</v>
       </c>
       <c r="E58" s="23">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F58" s="23">
         <v>0.53</v>
@@ -4325,7 +4325,7 @@
         <v>1998</v>
       </c>
       <c r="E59" s="23">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F59" s="23">
         <v>0.53</v>
@@ -4383,7 +4383,7 @@
         <v>1999</v>
       </c>
       <c r="E60" s="23">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F60" s="23">
         <v>0.53</v>
@@ -4443,7 +4443,7 @@
         <v>2000</v>
       </c>
       <c r="E61" s="23">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F61" s="23">
         <v>0.53</v>
@@ -4503,7 +4503,7 @@
         <v>2001</v>
       </c>
       <c r="E62" s="23">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F62" s="23">
         <v>0.53</v>
@@ -4563,7 +4563,7 @@
         <v>2002</v>
       </c>
       <c r="E63" s="23">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F63" s="23">
         <v>0.53</v>
@@ -4623,7 +4623,7 @@
         <v>2003</v>
       </c>
       <c r="E64" s="23">
-        <v>1.25</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="F64" s="23">
         <v>0.52400000000000002</v>
@@ -4681,7 +4681,7 @@
         <v>2004</v>
       </c>
       <c r="E65" s="23">
-        <v>1.3080000000000001</v>
+        <v>2.9929999999999999</v>
       </c>
       <c r="F65" s="23">
         <v>0.497</v>
@@ -4741,7 +4741,7 @@
         <v>2005</v>
       </c>
       <c r="E66" s="23">
-        <v>1.3080000000000001</v>
+        <v>2.9929999999999999</v>
       </c>
       <c r="F66" s="23">
         <v>0.47499999999999998</v>
@@ -4801,7 +4801,7 @@
         <v>2006</v>
       </c>
       <c r="E67" s="23">
-        <v>0.95899999999999996</v>
+        <v>2.7109999999999999</v>
       </c>
       <c r="F67" s="23">
         <v>0.45500000000000002</v>
@@ -4861,7 +4861,7 @@
         <v>2007</v>
       </c>
       <c r="E68" s="23">
-        <v>0.95899999999999996</v>
+        <v>2.7109999999999999</v>
       </c>
       <c r="F68" s="23">
         <v>0.45500000000000002</v>
@@ -4921,7 +4921,7 @@
         <v>2008</v>
       </c>
       <c r="E69" s="23">
-        <v>0.95899999999999996</v>
+        <v>2.7109999999999999</v>
       </c>
       <c r="F69" s="23">
         <v>0.45500000000000002</v>
@@ -4981,7 +4981,7 @@
         <v>2009</v>
       </c>
       <c r="E70" s="23">
-        <v>0.95899999999999996</v>
+        <v>2.7109999999999999</v>
       </c>
       <c r="F70" s="23">
         <v>0.40500000000000003</v>
@@ -5041,7 +5041,7 @@
         <v>2010</v>
       </c>
       <c r="E71" s="23">
-        <v>0.53700000000000003</v>
+        <v>2.3290000000000002</v>
       </c>
       <c r="F71" s="23">
         <v>0.38500000000000001</v>
@@ -5099,7 +5099,7 @@
         <v>2011</v>
       </c>
       <c r="E72" s="23">
-        <v>0.53700000000000003</v>
+        <v>2.3290000000000002</v>
       </c>
       <c r="F72" s="23">
         <v>0.38500000000000001</v>
@@ -5159,7 +5159,7 @@
         <v>2012</v>
       </c>
       <c r="E73" s="23">
-        <v>0.53700000000000003</v>
+        <v>2.3290000000000002</v>
       </c>
       <c r="F73" s="23">
         <v>0.38500000000000001</v>
@@ -5219,7 +5219,7 @@
         <v>2013</v>
       </c>
       <c r="E74" s="23">
-        <v>0.54600000000000004</v>
+        <v>2.339</v>
       </c>
       <c r="F74" s="23">
         <v>0.373</v>
@@ -5279,7 +5279,7 @@
         <v>2014</v>
       </c>
       <c r="E75" s="23">
-        <v>0.46500000000000002</v>
+        <v>2.2559999999999998</v>
       </c>
       <c r="F75" s="23">
         <v>0.373</v>
@@ -5339,7 +5339,7 @@
         <v>2015</v>
       </c>
       <c r="E76" s="23">
-        <v>0.47099999999999997</v>
+        <v>2.2639999999999998</v>
       </c>
       <c r="F76" s="23">
         <v>0.38100000000000001</v>
@@ -5399,7 +5399,7 @@
         <v>2016</v>
       </c>
       <c r="E77" s="23">
-        <v>0.39600000000000002</v>
+        <v>2.1909999999999998</v>
       </c>
       <c r="F77" s="23">
         <v>0.371</v>
@@ -5459,7 +5459,7 @@
         <v>2017</v>
       </c>
       <c r="E78" s="23">
-        <v>0.51600000000000001</v>
+        <v>2.306</v>
       </c>
       <c r="F78" s="23">
         <v>0.40699999999999997</v>
@@ -5519,7 +5519,7 @@
         <v>2018</v>
       </c>
       <c r="E79" s="25">
-        <v>0.17899999999999999</v>
+        <v>1.9690000000000001</v>
       </c>
       <c r="F79" s="25">
         <v>0.373</v>
@@ -5579,7 +5579,7 @@
         <v>1980</v>
       </c>
       <c r="E80" s="23">
-        <v>-1.1399999999999999</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="F80" s="23">
         <v>0.48699999999999999</v>
@@ -5633,7 +5633,7 @@
         <v>1981</v>
       </c>
       <c r="E81" s="23">
-        <v>-1.1399999999999999</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="F81" s="23">
         <v>0.48699999999999999</v>
@@ -5689,7 +5689,7 @@
         <v>1982</v>
       </c>
       <c r="E82" s="23">
-        <v>-1.1399999999999999</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="F82" s="23">
         <v>0.48699999999999999</v>
@@ -5745,7 +5745,7 @@
         <v>1983</v>
       </c>
       <c r="E83" s="23">
-        <v>-1.1399999999999999</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="F83" s="23">
         <v>0.48699999999999999</v>
@@ -5801,7 +5801,7 @@
         <v>1984</v>
       </c>
       <c r="E84" s="23">
-        <v>-1.1399999999999999</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="F84" s="23">
         <v>0.48699999999999999</v>
@@ -5857,7 +5857,7 @@
         <v>1985</v>
       </c>
       <c r="E85" s="23">
-        <v>0.47399999999999998</v>
+        <v>2.2679999999999998</v>
       </c>
       <c r="F85" s="23">
         <v>0.51200000000000001</v>
@@ -5913,7 +5913,7 @@
         <v>1986</v>
       </c>
       <c r="E86" s="23">
-        <v>0.91200000000000003</v>
+        <v>2.673</v>
       </c>
       <c r="F86" s="23">
         <v>0.65</v>
@@ -5969,7 +5969,7 @@
         <v>1987</v>
       </c>
       <c r="E87" s="23">
-        <v>0.91</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="F87" s="23">
         <v>0.65</v>
@@ -6025,7 +6025,7 @@
         <v>1988</v>
       </c>
       <c r="E88" s="23">
-        <v>1.083</v>
+        <v>2.8159999999999998</v>
       </c>
       <c r="F88" s="23">
         <v>0.82399999999999995</v>
@@ -6081,7 +6081,7 @@
         <v>1989</v>
       </c>
       <c r="E89" s="23">
-        <v>1.292</v>
+        <v>2.9769999999999999</v>
       </c>
       <c r="F89" s="23">
         <v>0.85499999999999998</v>
@@ -6139,7 +6139,7 @@
         <v>1990</v>
       </c>
       <c r="E90" s="23">
-        <v>1.292</v>
+        <v>2.9769999999999999</v>
       </c>
       <c r="F90" s="23">
         <v>0.80300000000000005</v>
@@ -6197,7 +6197,7 @@
         <v>1991</v>
       </c>
       <c r="E91" s="44">
-        <v>1.292</v>
+        <v>2.9769999999999999</v>
       </c>
       <c r="F91" s="44">
         <v>0.80300000000000005</v>
@@ -6253,7 +6253,7 @@
         <v>1992</v>
       </c>
       <c r="E92" s="23">
-        <v>1.8580000000000001</v>
+        <v>3.363</v>
       </c>
       <c r="F92" s="23">
         <v>0.80300000000000005</v>
@@ -6313,7 +6313,7 @@
         <v>1993</v>
       </c>
       <c r="E93" s="23">
-        <v>1.8580000000000001</v>
+        <v>3.363</v>
       </c>
       <c r="F93" s="23">
         <v>0.80300000000000005</v>
@@ -6373,7 +6373,7 @@
         <v>1994</v>
       </c>
       <c r="E94" s="23">
-        <v>1.8580000000000001</v>
+        <v>3.363</v>
       </c>
       <c r="F94" s="23">
         <v>0.80300000000000005</v>
@@ -6431,7 +6431,7 @@
         <v>1995</v>
       </c>
       <c r="E95" s="23">
-        <v>2.06</v>
+        <v>3.4780000000000002</v>
       </c>
       <c r="F95" s="23">
         <v>0.80300000000000005</v>
@@ -6491,7 +6491,7 @@
         <v>1996</v>
       </c>
       <c r="E96" s="23">
-        <v>2.06</v>
+        <v>3.4780000000000002</v>
       </c>
       <c r="F96" s="23">
         <v>0.80300000000000005</v>
@@ -6551,7 +6551,7 @@
         <v>1997</v>
       </c>
       <c r="E97" s="23">
-        <v>2.06</v>
+        <v>3.4780000000000002</v>
       </c>
       <c r="F97" s="23">
         <v>0.80300000000000005</v>
@@ -6611,7 +6611,7 @@
         <v>1998</v>
       </c>
       <c r="E98" s="23">
-        <v>2.06</v>
+        <v>3.4780000000000002</v>
       </c>
       <c r="F98" s="23">
         <v>0.80300000000000005</v>
@@ -6671,7 +6671,7 @@
         <v>1999</v>
       </c>
       <c r="E99" s="23">
-        <v>2.06</v>
+        <v>3.4780000000000002</v>
       </c>
       <c r="F99" s="23">
         <v>0.80300000000000005</v>
@@ -6731,7 +6731,7 @@
         <v>2000</v>
       </c>
       <c r="E100" s="23">
-        <v>2.06</v>
+        <v>3.4780000000000002</v>
       </c>
       <c r="F100" s="23">
         <v>0.80300000000000005</v>
@@ -6789,7 +6789,7 @@
         <v>2001</v>
       </c>
       <c r="E101" s="23">
-        <v>2.06</v>
+        <v>3.4780000000000002</v>
       </c>
       <c r="F101" s="23">
         <v>0.80300000000000005</v>
@@ -6849,7 +6849,7 @@
         <v>2002</v>
       </c>
       <c r="E102" s="23">
-        <v>1.742</v>
+        <v>3.2879999999999998</v>
       </c>
       <c r="F102" s="23">
         <v>0.80300000000000005</v>
@@ -6909,7 +6909,7 @@
         <v>2003</v>
       </c>
       <c r="E103" s="23">
-        <v>1.742</v>
+        <v>3.2879999999999998</v>
       </c>
       <c r="F103" s="23">
         <v>0.80300000000000005</v>
@@ -6969,7 +6969,7 @@
         <v>2004</v>
       </c>
       <c r="E104" s="23">
-        <v>1.742</v>
+        <v>3.2879999999999998</v>
       </c>
       <c r="F104" s="23">
         <v>0.80300000000000005</v>
@@ -7029,7 +7029,7 @@
         <v>2005</v>
       </c>
       <c r="E105" s="23">
-        <v>2.2770000000000001</v>
+        <v>3.5870000000000002</v>
       </c>
       <c r="F105" s="23">
         <v>0.89400000000000002</v>
@@ -7089,7 +7089,7 @@
         <v>2006</v>
       </c>
       <c r="E106" s="23">
-        <v>2.2770000000000001</v>
+        <v>3.5870000000000002</v>
       </c>
       <c r="F106" s="23">
         <v>0.89400000000000002</v>
@@ -7149,7 +7149,7 @@
         <v>2007</v>
       </c>
       <c r="E107" s="23">
-        <v>2.2909999999999999</v>
+        <v>3.5920000000000001</v>
       </c>
       <c r="F107" s="23">
         <v>0.89400000000000002</v>
@@ -7209,7 +7209,7 @@
         <v>2008</v>
       </c>
       <c r="E108" s="23">
-        <v>2.2909999999999999</v>
+        <v>3.5920000000000001</v>
       </c>
       <c r="F108" s="23">
         <v>0.89400000000000002</v>
@@ -7269,7 +7269,7 @@
         <v>2009</v>
       </c>
       <c r="E109" s="23">
-        <v>2.2909999999999999</v>
+        <v>3.5920000000000001</v>
       </c>
       <c r="F109" s="23">
         <v>0.89400000000000002</v>
@@ -7329,7 +7329,7 @@
         <v>2010</v>
       </c>
       <c r="E110" s="23">
-        <v>2.492</v>
+        <v>3.681</v>
       </c>
       <c r="F110" s="23">
         <v>0.89400000000000002</v>
@@ -7387,7 +7387,7 @@
         <v>2011</v>
       </c>
       <c r="E111" s="23">
-        <v>2.492</v>
+        <v>3.681</v>
       </c>
       <c r="F111" s="23">
         <v>0.89400000000000002</v>
@@ -7447,7 +7447,7 @@
         <v>2012</v>
       </c>
       <c r="E112" s="23">
-        <v>2.3690000000000002</v>
+        <v>3.6269999999999998</v>
       </c>
       <c r="F112" s="23">
         <v>0.90700000000000003</v>
@@ -7507,7 +7507,7 @@
         <v>2013</v>
       </c>
       <c r="E113" s="23">
-        <v>3.222</v>
+        <v>3.895</v>
       </c>
       <c r="F113" s="23">
         <v>0.91400000000000003</v>
@@ -7567,7 +7567,7 @@
         <v>2014</v>
       </c>
       <c r="E114" s="23">
-        <v>2.887</v>
+        <v>3.8180000000000001</v>
       </c>
       <c r="F114" s="23">
         <v>0.90400000000000003</v>
@@ -7627,7 +7627,7 @@
         <v>2015</v>
       </c>
       <c r="E115" s="23">
-        <v>2.887</v>
+        <v>3.8180000000000001</v>
       </c>
       <c r="F115" s="23">
         <v>0.91500000000000004</v>
@@ -7687,7 +7687,7 @@
         <v>2016</v>
       </c>
       <c r="E116" s="23">
-        <v>1.161</v>
+        <v>2.88</v>
       </c>
       <c r="F116" s="23">
         <v>0.91400000000000003</v>
@@ -7747,7 +7747,7 @@
         <v>2017</v>
       </c>
       <c r="E117" s="23">
-        <v>0.81299999999999994</v>
+        <v>2.5870000000000002</v>
       </c>
       <c r="F117" s="23">
         <v>0.86599999999999999</v>
@@ -7807,7 +7807,7 @@
         <v>2018</v>
       </c>
       <c r="E118" s="25">
-        <v>0.65100000000000002</v>
+        <v>2.4380000000000002</v>
       </c>
       <c r="F118" s="25">
         <v>0.82299999999999995</v>
@@ -7867,7 +7867,7 @@
         <v>1980</v>
       </c>
       <c r="E119" s="23">
-        <v>-2.3620000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F119" s="23">
         <v>0.29799999999999999</v>
@@ -7923,7 +7923,7 @@
         <v>1981</v>
       </c>
       <c r="E120" s="23">
-        <v>-2.3620000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F120" s="23">
         <v>0.31900000000000001</v>
@@ -7979,7 +7979,7 @@
         <v>1982</v>
       </c>
       <c r="E121" s="23">
-        <v>-2.3620000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F121" s="23">
         <v>0.31900000000000001</v>
@@ -8035,7 +8035,7 @@
         <v>1983</v>
       </c>
       <c r="E122" s="23">
-        <v>-2.3620000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F122" s="23">
         <v>0.31900000000000001</v>
@@ -8091,7 +8091,7 @@
         <v>1984</v>
       </c>
       <c r="E123" s="23">
-        <v>-2.3620000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F123" s="23">
         <v>0.31900000000000001</v>
@@ -8147,7 +8147,7 @@
         <v>1985</v>
       </c>
       <c r="E124" s="23">
-        <v>-2.3620000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F124" s="23">
         <v>0.30599999999999999</v>
@@ -8201,7 +8201,7 @@
         <v>1986</v>
       </c>
       <c r="E125" s="23">
-        <v>-2.3620000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F125" s="23">
         <v>0.30599999999999999</v>
@@ -8257,7 +8257,7 @@
         <v>1987</v>
       </c>
       <c r="E126" s="23">
-        <v>-2.3620000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F126" s="23">
         <v>0.30599999999999999</v>
@@ -8311,7 +8311,7 @@
         <v>1988</v>
       </c>
       <c r="E127" s="23">
-        <v>-2.3620000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F127" s="23">
         <v>0.30599999999999999</v>
@@ -8367,7 +8367,7 @@
         <v>1989</v>
       </c>
       <c r="E128" s="23">
-        <v>-0.80900000000000005</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="F128" s="23">
         <v>0.317</v>
@@ -8423,7 +8423,7 @@
         <v>1990</v>
       </c>
       <c r="E129" s="23">
-        <v>2.3090000000000002</v>
+        <v>3.6030000000000002</v>
       </c>
       <c r="F129" s="23">
         <v>0.78800000000000003</v>
@@ -8479,7 +8479,7 @@
         <v>1991</v>
       </c>
       <c r="E130" s="44">
-        <v>2.3090000000000002</v>
+        <v>3.6030000000000002</v>
       </c>
       <c r="F130" s="44">
         <v>0.94399999999999995</v>
@@ -8535,7 +8535,7 @@
         <v>1992</v>
       </c>
       <c r="E131" s="23">
-        <v>2.3090000000000002</v>
+        <v>3.6030000000000002</v>
       </c>
       <c r="F131" s="23">
         <v>0.94399999999999995</v>
@@ -8595,7 +8595,7 @@
         <v>1993</v>
       </c>
       <c r="E132" s="23">
-        <v>2.3090000000000002</v>
+        <v>3.6030000000000002</v>
       </c>
       <c r="F132" s="23">
         <v>0.94399999999999995</v>
@@ -8655,7 +8655,7 @@
         <v>1994</v>
       </c>
       <c r="E133" s="23">
-        <v>2.6</v>
+        <v>3.722</v>
       </c>
       <c r="F133" s="23">
         <v>0.94399999999999995</v>
@@ -8715,7 +8715,7 @@
         <v>1995</v>
       </c>
       <c r="E134" s="23">
-        <v>2.6</v>
+        <v>3.722</v>
       </c>
       <c r="F134" s="23">
         <v>0.94399999999999995</v>
@@ -8775,7 +8775,7 @@
         <v>1996</v>
       </c>
       <c r="E135" s="23">
-        <v>2.6</v>
+        <v>3.722</v>
       </c>
       <c r="F135" s="23">
         <v>0.94399999999999995</v>
@@ -8835,7 +8835,7 @@
         <v>1997</v>
       </c>
       <c r="E136" s="23">
-        <v>2.6</v>
+        <v>3.722</v>
       </c>
       <c r="F136" s="23">
         <v>0.94399999999999995</v>
@@ -8895,7 +8895,7 @@
         <v>1998</v>
       </c>
       <c r="E137" s="23">
-        <v>2.6</v>
+        <v>3.722</v>
       </c>
       <c r="F137" s="23">
         <v>0.94399999999999995</v>
@@ -8955,7 +8955,7 @@
         <v>1999</v>
       </c>
       <c r="E138" s="23">
-        <v>2.6</v>
+        <v>3.722</v>
       </c>
       <c r="F138" s="23">
         <v>0.94399999999999995</v>
@@ -9015,7 +9015,7 @@
         <v>2000</v>
       </c>
       <c r="E139" s="23">
-        <v>2.6</v>
+        <v>3.722</v>
       </c>
       <c r="F139" s="23">
         <v>0.94399999999999995</v>
@@ -9075,7 +9075,7 @@
         <v>2001</v>
       </c>
       <c r="E140" s="23">
-        <v>2.6</v>
+        <v>3.722</v>
       </c>
       <c r="F140" s="23">
         <v>0.94399999999999995</v>
@@ -9135,7 +9135,7 @@
         <v>2002</v>
       </c>
       <c r="E141" s="23">
-        <v>2.5830000000000002</v>
+        <v>3.7160000000000002</v>
       </c>
       <c r="F141" s="23">
         <v>0.94399999999999995</v>
@@ -9195,7 +9195,7 @@
         <v>2003</v>
       </c>
       <c r="E142" s="23">
-        <v>2.5830000000000002</v>
+        <v>3.7160000000000002</v>
       </c>
       <c r="F142" s="23">
         <v>0.94399999999999995</v>
@@ -9255,7 +9255,7 @@
         <v>2004</v>
       </c>
       <c r="E143" s="23">
-        <v>2.5830000000000002</v>
+        <v>3.7160000000000002</v>
       </c>
       <c r="F143" s="23">
         <v>0.94399999999999995</v>
@@ -9315,7 +9315,7 @@
         <v>2005</v>
       </c>
       <c r="E144" s="23">
-        <v>2.5830000000000002</v>
+        <v>3.7160000000000002</v>
       </c>
       <c r="F144" s="23">
         <v>0.94399999999999995</v>
@@ -9375,7 +9375,7 @@
         <v>2006</v>
       </c>
       <c r="E145" s="23">
-        <v>2.7519999999999998</v>
+        <v>3.7770000000000001</v>
       </c>
       <c r="F145" s="23">
         <v>0.94399999999999995</v>
@@ -9435,7 +9435,7 @@
         <v>2007</v>
       </c>
       <c r="E146" s="23">
-        <v>2.7519999999999998</v>
+        <v>3.7770000000000001</v>
       </c>
       <c r="F146" s="23">
         <v>0.93400000000000005</v>
@@ -9495,7 +9495,7 @@
         <v>2008</v>
       </c>
       <c r="E147" s="23">
-        <v>2.7519999999999998</v>
+        <v>3.7770000000000001</v>
       </c>
       <c r="F147" s="23">
         <v>0.93500000000000005</v>
@@ -9555,7 +9555,7 @@
         <v>2009</v>
       </c>
       <c r="E148" s="23">
-        <v>2.7519999999999998</v>
+        <v>3.7770000000000001</v>
       </c>
       <c r="F148" s="23">
         <v>0.92400000000000004</v>
@@ -9615,7 +9615,7 @@
         <v>2010</v>
       </c>
       <c r="E149" s="23">
-        <v>2.7519999999999998</v>
+        <v>3.7770000000000001</v>
       </c>
       <c r="F149" s="23">
         <v>0.94199999999999995</v>
@@ -9675,7 +9675,7 @@
         <v>2011</v>
       </c>
       <c r="E150" s="23">
-        <v>2.7519999999999998</v>
+        <v>3.7770000000000001</v>
       </c>
       <c r="F150" s="23">
         <v>0.95499999999999996</v>
@@ -9735,7 +9735,7 @@
         <v>2012</v>
       </c>
       <c r="E151" s="23">
-        <v>2.7519999999999998</v>
+        <v>3.7770000000000001</v>
       </c>
       <c r="F151" s="23">
         <v>0.95499999999999996</v>
@@ -9795,7 +9795,7 @@
         <v>2013</v>
       </c>
       <c r="E152" s="23">
-        <v>2.8050000000000002</v>
+        <v>3.7949999999999999</v>
       </c>
       <c r="F152" s="23">
         <v>0.96399999999999997</v>
@@ -9855,7 +9855,7 @@
         <v>2014</v>
       </c>
       <c r="E153" s="23">
-        <v>2.8140000000000001</v>
+        <v>3.7949999999999999</v>
       </c>
       <c r="F153" s="23">
         <v>0.96899999999999997</v>
@@ -9913,7 +9913,7 @@
         <v>2015</v>
       </c>
       <c r="E154" s="23">
-        <v>2.4140000000000001</v>
+        <v>3.6469999999999998</v>
       </c>
       <c r="F154" s="23">
         <v>0.96199999999999997</v>
@@ -9973,7 +9973,7 @@
         <v>2016</v>
       </c>
       <c r="E155" s="23">
-        <v>2.4140000000000001</v>
+        <v>3.6469999999999998</v>
       </c>
       <c r="F155" s="23">
         <v>0.96499999999999997</v>
@@ -10033,7 +10033,7 @@
         <v>2017</v>
       </c>
       <c r="E156" s="23">
-        <v>2.39</v>
+        <v>3.6349999999999998</v>
       </c>
       <c r="F156" s="23">
         <v>0.96</v>
@@ -10093,7 +10093,7 @@
         <v>2018</v>
       </c>
       <c r="E157" s="25">
-        <v>2.6789999999999998</v>
+        <v>3.7509999999999999</v>
       </c>
       <c r="F157" s="25">
         <v>0.871</v>
@@ -10153,7 +10153,7 @@
         <v>1980</v>
       </c>
       <c r="E158" s="23">
-        <v>0.42299999999999999</v>
+        <v>2.2189999999999999</v>
       </c>
       <c r="F158" s="23">
         <v>0.61399999999999999</v>
@@ -10209,7 +10209,7 @@
         <v>1981</v>
       </c>
       <c r="E159" s="23">
-        <v>0.42299999999999999</v>
+        <v>2.2189999999999999</v>
       </c>
       <c r="F159" s="23">
         <v>0.61399999999999999</v>
@@ -10265,7 +10265,7 @@
         <v>1982</v>
       </c>
       <c r="E160" s="23">
-        <v>0.42299999999999999</v>
+        <v>2.2189999999999999</v>
       </c>
       <c r="F160" s="23">
         <v>0.6</v>
@@ -10321,7 +10321,7 @@
         <v>1983</v>
       </c>
       <c r="E161" s="23">
-        <v>1.7390000000000001</v>
+        <v>3.2879999999999998</v>
       </c>
       <c r="F161" s="23">
         <v>0.61899999999999999</v>
@@ -10377,7 +10377,7 @@
         <v>1984</v>
       </c>
       <c r="E162" s="23">
-        <v>1.7390000000000001</v>
+        <v>3.2879999999999998</v>
       </c>
       <c r="F162" s="23">
         <v>0.61899999999999999</v>
@@ -10433,7 +10433,7 @@
         <v>1985</v>
       </c>
       <c r="E163" s="23">
-        <v>1.7390000000000001</v>
+        <v>3.2879999999999998</v>
       </c>
       <c r="F163" s="23">
         <v>0.61899999999999999</v>
@@ -10489,7 +10489,7 @@
         <v>1986</v>
       </c>
       <c r="E164" s="23">
-        <v>1.7390000000000001</v>
+        <v>3.2879999999999998</v>
       </c>
       <c r="F164" s="23">
         <v>0.61899999999999999</v>
@@ -10545,7 +10545,7 @@
         <v>1987</v>
       </c>
       <c r="E165" s="23">
-        <v>1.7390000000000001</v>
+        <v>3.2879999999999998</v>
       </c>
       <c r="F165" s="23">
         <v>0.61899999999999999</v>
@@ -10601,7 +10601,7 @@
         <v>1988</v>
       </c>
       <c r="E166" s="23">
-        <v>1.7390000000000001</v>
+        <v>3.2879999999999998</v>
       </c>
       <c r="F166" s="23">
         <v>0.61899999999999999</v>
@@ -10655,7 +10655,7 @@
         <v>1989</v>
       </c>
       <c r="E167" s="23">
-        <v>1.7390000000000001</v>
+        <v>3.2879999999999998</v>
       </c>
       <c r="F167" s="23">
         <v>0.63700000000000001</v>
@@ -10709,7 +10709,7 @@
         <v>1990</v>
       </c>
       <c r="E168" s="23">
-        <v>1.482</v>
+        <v>3.11</v>
       </c>
       <c r="F168" s="23">
         <v>0.60899999999999999</v>
@@ -10763,7 +10763,7 @@
         <v>1991</v>
       </c>
       <c r="E169" s="44">
-        <v>1.482</v>
+        <v>3.11</v>
       </c>
       <c r="F169" s="44">
         <v>0.84199999999999997</v>
@@ -10821,7 +10821,7 @@
         <v>1992</v>
       </c>
       <c r="E170" s="23">
-        <v>1.482</v>
+        <v>3.11</v>
       </c>
       <c r="F170" s="23">
         <v>0.83399999999999996</v>
@@ -10881,7 +10881,7 @@
         <v>1993</v>
       </c>
       <c r="E171" s="23">
-        <v>1.482</v>
+        <v>3.11</v>
       </c>
       <c r="F171" s="23">
         <v>0.86899999999999999</v>
@@ -10939,7 +10939,7 @@
         <v>1994</v>
       </c>
       <c r="E172" s="23">
-        <v>1.482</v>
+        <v>3.11</v>
       </c>
       <c r="F172" s="23">
         <v>0.86899999999999999</v>
@@ -10999,7 +10999,7 @@
         <v>1995</v>
       </c>
       <c r="E173" s="23">
-        <v>1.603</v>
+        <v>3.2010000000000001</v>
       </c>
       <c r="F173" s="23">
         <v>0.86899999999999999</v>
@@ -11059,7 +11059,7 @@
         <v>1996</v>
       </c>
       <c r="E174" s="23">
-        <v>1.603</v>
+        <v>3.2010000000000001</v>
       </c>
       <c r="F174" s="23">
         <v>0.86899999999999999</v>
@@ -11119,7 +11119,7 @@
         <v>1997</v>
       </c>
       <c r="E175" s="23">
-        <v>1.603</v>
+        <v>3.2010000000000001</v>
       </c>
       <c r="F175" s="23">
         <v>0.86899999999999999</v>
@@ -11179,7 +11179,7 @@
         <v>1998</v>
       </c>
       <c r="E176" s="23">
-        <v>1.603</v>
+        <v>3.2010000000000001</v>
       </c>
       <c r="F176" s="23">
         <v>0.86899999999999999</v>
@@ -11239,7 +11239,7 @@
         <v>1999</v>
       </c>
       <c r="E177" s="23">
-        <v>1.4950000000000001</v>
+        <v>3.13</v>
       </c>
       <c r="F177" s="23">
         <v>0.86899999999999999</v>
@@ -11299,7 +11299,7 @@
         <v>2000</v>
       </c>
       <c r="E178" s="23">
-        <v>1.4950000000000001</v>
+        <v>3.13</v>
       </c>
       <c r="F178" s="23">
         <v>0.86899999999999999</v>
@@ -11359,7 +11359,7 @@
         <v>2001</v>
       </c>
       <c r="E179" s="23">
-        <v>1.4690000000000001</v>
+        <v>3.109</v>
       </c>
       <c r="F179" s="23">
         <v>0.86899999999999999</v>
@@ -11419,7 +11419,7 @@
         <v>2002</v>
       </c>
       <c r="E180" s="23">
-        <v>1.1659999999999999</v>
+        <v>2.8860000000000001</v>
       </c>
       <c r="F180" s="23">
         <v>0.86899999999999999</v>
@@ -11479,7 +11479,7 @@
         <v>2003</v>
       </c>
       <c r="E181" s="23">
-        <v>0.28599999999999998</v>
+        <v>2.077</v>
       </c>
       <c r="F181" s="23">
         <v>0.86899999999999999</v>
@@ -11539,7 +11539,7 @@
         <v>2004</v>
       </c>
       <c r="E182" s="23">
-        <v>0.52300000000000002</v>
+        <v>2.3220000000000001</v>
       </c>
       <c r="F182" s="23">
         <v>0.86899999999999999</v>
@@ -11599,7 +11599,7 @@
         <v>2005</v>
       </c>
       <c r="E183" s="23">
-        <v>0.77800000000000002</v>
+        <v>2.552</v>
       </c>
       <c r="F183" s="23">
         <v>0.85199999999999998</v>
@@ -11659,7 +11659,7 @@
         <v>2006</v>
       </c>
       <c r="E184" s="23">
-        <v>0.77800000000000002</v>
+        <v>2.552</v>
       </c>
       <c r="F184" s="23">
         <v>0.85199999999999998</v>
@@ -11717,7 +11717,7 @@
         <v>2007</v>
       </c>
       <c r="E185" s="23">
-        <v>0.77400000000000002</v>
+        <v>2.5489999999999999</v>
       </c>
       <c r="F185" s="23">
         <v>0.85199999999999998</v>
@@ -11777,7 +11777,7 @@
         <v>2008</v>
       </c>
       <c r="E186" s="23">
-        <v>0.78</v>
+        <v>2.5539999999999998</v>
       </c>
       <c r="F186" s="23">
         <v>0.85199999999999998</v>
@@ -11837,7 +11837,7 @@
         <v>2009</v>
       </c>
       <c r="E187" s="23">
-        <v>0.78</v>
+        <v>2.5539999999999998</v>
       </c>
       <c r="F187" s="23">
         <v>0.85</v>
@@ -11897,7 +11897,7 @@
         <v>2010</v>
       </c>
       <c r="E188" s="23">
-        <v>0.875</v>
+        <v>2.6360000000000001</v>
       </c>
       <c r="F188" s="23">
         <v>0.85</v>
@@ -11957,7 +11957,7 @@
         <v>2011</v>
       </c>
       <c r="E189" s="23">
-        <v>1.6819999999999999</v>
+        <v>3.2530000000000001</v>
       </c>
       <c r="F189" s="23">
         <v>0.871</v>
@@ -12017,7 +12017,7 @@
         <v>2012</v>
       </c>
       <c r="E190" s="23">
-        <v>1.744</v>
+        <v>3.2919999999999998</v>
       </c>
       <c r="F190" s="23">
         <v>0.874</v>
@@ -12077,7 +12077,7 @@
         <v>2013</v>
       </c>
       <c r="E191" s="23">
-        <v>1.72</v>
+        <v>3.2759999999999998</v>
       </c>
       <c r="F191" s="23">
         <v>0.86399999999999999</v>
@@ -12137,7 +12137,7 @@
         <v>2014</v>
       </c>
       <c r="E192" s="23">
-        <v>1.7210000000000001</v>
+        <v>3.2730000000000001</v>
       </c>
       <c r="F192" s="23">
         <v>0.85899999999999999</v>
@@ -12197,7 +12197,7 @@
         <v>2015</v>
       </c>
       <c r="E193" s="23">
-        <v>1.6919999999999999</v>
+        <v>3.258</v>
       </c>
       <c r="F193" s="23">
         <v>0.86199999999999999</v>
@@ -12257,7 +12257,7 @@
         <v>2016</v>
       </c>
       <c r="E194" s="23">
-        <v>1.302</v>
+        <v>2.9849999999999999</v>
       </c>
       <c r="F194" s="23">
         <v>0.86099999999999999</v>
@@ -12317,7 +12317,7 @@
         <v>2017</v>
       </c>
       <c r="E195" s="23">
-        <v>1.742</v>
+        <v>3.2869999999999999</v>
       </c>
       <c r="F195" s="23">
         <v>0.85499999999999998</v>
@@ -12377,7 +12377,7 @@
         <v>2018</v>
       </c>
       <c r="E196" s="25">
-        <v>1.24</v>
+        <v>2.9359999999999999</v>
       </c>
       <c r="F196" s="25">
         <v>0.83799999999999997</v>
@@ -12437,7 +12437,7 @@
         <v>1980</v>
       </c>
       <c r="E197" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F197" s="23">
         <v>0.93200000000000005</v>
@@ -12491,7 +12491,7 @@
         <v>1981</v>
       </c>
       <c r="E198" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F198" s="23">
         <v>0.93200000000000005</v>
@@ -12545,7 +12545,7 @@
         <v>1982</v>
       </c>
       <c r="E199" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F199" s="23">
         <v>0.92</v>
@@ -12599,7 +12599,7 @@
         <v>1983</v>
       </c>
       <c r="E200" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F200" s="23">
         <v>0.92</v>
@@ -12653,7 +12653,7 @@
         <v>1984</v>
       </c>
       <c r="E201" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F201" s="23">
         <v>0.92</v>
@@ -12707,7 +12707,7 @@
         <v>1985</v>
       </c>
       <c r="E202" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F202" s="23">
         <v>0.92</v>
@@ -12761,7 +12761,7 @@
         <v>1986</v>
       </c>
       <c r="E203" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F203" s="23">
         <v>0.92</v>
@@ -12815,7 +12815,7 @@
         <v>1987</v>
       </c>
       <c r="E204" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F204" s="23">
         <v>0.96</v>
@@ -12869,7 +12869,7 @@
         <v>1988</v>
       </c>
       <c r="E205" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F205" s="23">
         <v>0.96</v>
@@ -12923,7 +12923,7 @@
         <v>1989</v>
       </c>
       <c r="E206" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F206" s="23">
         <v>0.95299999999999996</v>
@@ -12977,7 +12977,7 @@
         <v>1990</v>
       </c>
       <c r="E207" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F207" s="23">
         <v>0.95299999999999996</v>
@@ -13033,7 +13033,7 @@
         <v>1991</v>
       </c>
       <c r="E208" s="44">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F208" s="44">
         <v>0.95299999999999996</v>
@@ -13089,7 +13089,7 @@
         <v>1992</v>
       </c>
       <c r="E209" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F209" s="23">
         <v>0.95299999999999996</v>
@@ -13147,7 +13147,7 @@
         <v>1993</v>
       </c>
       <c r="E210" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F210" s="23">
         <v>0.95299999999999996</v>
@@ -13205,7 +13205,7 @@
         <v>1994</v>
       </c>
       <c r="E211" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F211" s="23">
         <v>0.95299999999999996</v>
@@ -13263,7 +13263,7 @@
         <v>1995</v>
       </c>
       <c r="E212" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F212" s="23">
         <v>0.95299999999999996</v>
@@ -13323,7 +13323,7 @@
         <v>1996</v>
       </c>
       <c r="E213" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F213" s="23">
         <v>0.95299999999999996</v>
@@ -13383,7 +13383,7 @@
         <v>1997</v>
       </c>
       <c r="E214" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F214" s="23">
         <v>0.92700000000000005</v>
@@ -13443,7 +13443,7 @@
         <v>1998</v>
       </c>
       <c r="E215" s="23">
-        <v>2.1080000000000001</v>
+        <v>3.504</v>
       </c>
       <c r="F215" s="23">
         <v>0.94799999999999995</v>
@@ -13503,7 +13503,7 @@
         <v>1999</v>
       </c>
       <c r="E216" s="23">
-        <v>2.3490000000000002</v>
+        <v>3.621</v>
       </c>
       <c r="F216" s="23">
         <v>0.94799999999999995</v>
@@ -13563,7 +13563,7 @@
         <v>2000</v>
       </c>
       <c r="E217" s="23">
-        <v>2.3490000000000002</v>
+        <v>3.621</v>
       </c>
       <c r="F217" s="23">
         <v>0.94799999999999995</v>
@@ -13623,7 +13623,7 @@
         <v>2001</v>
       </c>
       <c r="E218" s="23">
-        <v>2.3490000000000002</v>
+        <v>3.621</v>
       </c>
       <c r="F218" s="23">
         <v>0.94799999999999995</v>
@@ -13683,7 +13683,7 @@
         <v>2002</v>
       </c>
       <c r="E219" s="23">
-        <v>2.3490000000000002</v>
+        <v>3.621</v>
       </c>
       <c r="F219" s="23">
         <v>0.94799999999999995</v>
@@ -13743,7 +13743,7 @@
         <v>2003</v>
       </c>
       <c r="E220" s="23">
-        <v>2.3490000000000002</v>
+        <v>3.621</v>
       </c>
       <c r="F220" s="23">
         <v>0.94799999999999995</v>
@@ -13803,7 +13803,7 @@
         <v>2004</v>
       </c>
       <c r="E221" s="23">
-        <v>2.3490000000000002</v>
+        <v>3.621</v>
       </c>
       <c r="F221" s="23">
         <v>0.94799999999999995</v>
@@ -13863,7 +13863,7 @@
         <v>2005</v>
       </c>
       <c r="E222" s="23">
-        <v>2.3490000000000002</v>
+        <v>3.621</v>
       </c>
       <c r="F222" s="23">
         <v>0.94799999999999995</v>
@@ -13923,7 +13923,7 @@
         <v>2006</v>
       </c>
       <c r="E223" s="23">
-        <v>2.3490000000000002</v>
+        <v>3.621</v>
       </c>
       <c r="F223" s="23">
         <v>0.94199999999999995</v>
@@ -13983,7 +13983,7 @@
         <v>2007</v>
       </c>
       <c r="E224" s="23">
-        <v>2.3490000000000002</v>
+        <v>3.621</v>
       </c>
       <c r="F224" s="23">
         <v>0.94199999999999995</v>
@@ -14043,7 +14043,7 @@
         <v>2008</v>
       </c>
       <c r="E225" s="23">
-        <v>2.3490000000000002</v>
+        <v>3.621</v>
       </c>
       <c r="F225" s="23">
         <v>0.94199999999999995</v>
@@ -14103,7 +14103,7 @@
         <v>2009</v>
       </c>
       <c r="E226" s="23">
-        <v>2.3490000000000002</v>
+        <v>3.621</v>
       </c>
       <c r="F226" s="23">
         <v>0.95299999999999996</v>
@@ -14163,7 +14163,7 @@
         <v>2010</v>
       </c>
       <c r="E227" s="23">
-        <v>2.3490000000000002</v>
+        <v>3.621</v>
       </c>
       <c r="F227" s="23">
         <v>0.95299999999999996</v>
@@ -14223,7 +14223,7 @@
         <v>2011</v>
       </c>
       <c r="E228" s="23">
-        <v>2.3490000000000002</v>
+        <v>3.621</v>
       </c>
       <c r="F228" s="23">
         <v>0.95299999999999996</v>
@@ -14283,7 +14283,7 @@
         <v>2012</v>
       </c>
       <c r="E229" s="23">
-        <v>2.1160000000000001</v>
+        <v>3.508</v>
       </c>
       <c r="F229" s="23">
         <v>0.95299999999999996</v>
@@ -14343,7 +14343,7 @@
         <v>2013</v>
       </c>
       <c r="E230" s="23">
-        <v>2.2429999999999999</v>
+        <v>3.5710000000000002</v>
       </c>
       <c r="F230" s="23">
         <v>0.94399999999999995</v>
@@ -14403,7 +14403,7 @@
         <v>2014</v>
       </c>
       <c r="E231" s="23">
-        <v>1.8160000000000001</v>
+        <v>3.3359999999999999</v>
       </c>
       <c r="F231" s="23">
         <v>0.94399999999999995</v>
@@ -14463,7 +14463,7 @@
         <v>2015</v>
       </c>
       <c r="E232" s="23">
-        <v>1.7629999999999999</v>
+        <v>3.3039999999999998</v>
       </c>
       <c r="F232" s="23">
         <v>0.94599999999999995</v>
@@ -14521,7 +14521,7 @@
         <v>2016</v>
       </c>
       <c r="E233" s="23">
-        <v>2.1150000000000002</v>
+        <v>3.51</v>
       </c>
       <c r="F233" s="23">
         <v>0.94699999999999995</v>
@@ -14581,7 +14581,7 @@
         <v>2017</v>
       </c>
       <c r="E234" s="23">
-        <v>1.9670000000000001</v>
+        <v>3.4289999999999998</v>
       </c>
       <c r="F234" s="23">
         <v>0.95399999999999996</v>
@@ -14639,7 +14639,7 @@
         <v>2018</v>
       </c>
       <c r="E235" s="25">
-        <v>1.9670000000000001</v>
+        <v>3.4289999999999998</v>
       </c>
       <c r="F235" s="25">
         <v>0.93799999999999994</v>
@@ -14699,7 +14699,7 @@
         <v>1980</v>
       </c>
       <c r="E236" s="23">
-        <v>1.875</v>
+        <v>3.3759999999999999</v>
       </c>
       <c r="F236" s="23">
         <v>0.38500000000000001</v>
@@ -14753,7 +14753,7 @@
         <v>1981</v>
       </c>
       <c r="E237" s="23">
-        <v>1.875</v>
+        <v>3.3759999999999999</v>
       </c>
       <c r="F237" s="23">
         <v>0.38500000000000001</v>
@@ -14807,7 +14807,7 @@
         <v>1982</v>
       </c>
       <c r="E238" s="23">
-        <v>1.875</v>
+        <v>3.3759999999999999</v>
       </c>
       <c r="F238" s="23">
         <v>0.40500000000000003</v>
@@ -14861,7 +14861,7 @@
         <v>1983</v>
       </c>
       <c r="E239" s="23">
-        <v>1.875</v>
+        <v>3.3759999999999999</v>
       </c>
       <c r="F239" s="23">
         <v>0.40500000000000003</v>
@@ -14915,7 +14915,7 @@
         <v>1984</v>
       </c>
       <c r="E240" s="23">
-        <v>1.903</v>
+        <v>3.3849999999999998</v>
       </c>
       <c r="F240" s="23">
         <v>0.40500000000000003</v>
@@ -14969,7 +14969,7 @@
         <v>1985</v>
       </c>
       <c r="E241" s="23">
-        <v>1.903</v>
+        <v>3.3849999999999998</v>
       </c>
       <c r="F241" s="23">
         <v>0.38300000000000001</v>
@@ -15023,7 +15023,7 @@
         <v>1986</v>
       </c>
       <c r="E242" s="23">
-        <v>1.903</v>
+        <v>3.3849999999999998</v>
       </c>
       <c r="F242" s="23">
         <v>0.38300000000000001</v>
@@ -15077,7 +15077,7 @@
         <v>1987</v>
       </c>
       <c r="E243" s="23">
-        <v>1.903</v>
+        <v>3.3849999999999998</v>
       </c>
       <c r="F243" s="23">
         <v>0.38300000000000001</v>
@@ -15133,7 +15133,7 @@
         <v>1988</v>
       </c>
       <c r="E244" s="23">
-        <v>1.903</v>
+        <v>3.3849999999999998</v>
       </c>
       <c r="F244" s="23">
         <v>0.38300000000000001</v>
@@ -15189,7 +15189,7 @@
         <v>1989</v>
       </c>
       <c r="E245" s="23">
-        <v>0.97699999999999998</v>
+        <v>2.7269999999999999</v>
       </c>
       <c r="F245" s="23">
         <v>0.41299999999999998</v>
@@ -15245,7 +15245,7 @@
         <v>1990</v>
       </c>
       <c r="E246" s="23">
-        <v>0.97699999999999998</v>
+        <v>2.7269999999999999</v>
       </c>
       <c r="F246" s="23">
         <v>0.41299999999999998</v>
@@ -15301,7 +15301,7 @@
         <v>1991</v>
       </c>
       <c r="E247" s="44">
-        <v>0.97699999999999998</v>
+        <v>2.7269999999999999</v>
       </c>
       <c r="F247" s="44">
         <v>0.41299999999999998</v>
@@ -15357,7 +15357,7 @@
         <v>1992</v>
       </c>
       <c r="E248" s="23">
-        <v>0.97699999999999998</v>
+        <v>2.7269999999999999</v>
       </c>
       <c r="F248" s="23">
         <v>0.41299999999999998</v>
@@ -15415,7 +15415,7 @@
         <v>1993</v>
       </c>
       <c r="E249" s="23">
-        <v>0.44800000000000001</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="F249" s="23">
         <v>0.34300000000000003</v>
@@ -15475,7 +15475,7 @@
         <v>1994</v>
       </c>
       <c r="E250" s="23">
-        <v>0.44800000000000001</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="F250" s="23">
         <v>0.34300000000000003</v>
@@ -15535,7 +15535,7 @@
         <v>1995</v>
       </c>
       <c r="E251" s="23">
-        <v>0.44800000000000001</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="F251" s="23">
         <v>0.34300000000000003</v>
@@ -15595,7 +15595,7 @@
         <v>1996</v>
       </c>
       <c r="E252" s="23">
-        <v>0.44800000000000001</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="F252" s="23">
         <v>0.32900000000000001</v>
@@ -15655,7 +15655,7 @@
         <v>1997</v>
       </c>
       <c r="E253" s="23">
-        <v>0.44800000000000001</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="F253" s="23">
         <v>0.42799999999999999</v>
@@ -15715,7 +15715,7 @@
         <v>1998</v>
       </c>
       <c r="E254" s="23">
-        <v>0.44800000000000001</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="F254" s="23">
         <v>0.42799999999999999</v>
@@ -15775,7 +15775,7 @@
         <v>1999</v>
       </c>
       <c r="E255" s="23">
-        <v>0.44800000000000001</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="F255" s="23">
         <v>0.376</v>
@@ -15835,7 +15835,7 @@
         <v>2000</v>
       </c>
       <c r="E256" s="23">
-        <v>0.44800000000000001</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="F256" s="23">
         <v>0.34499999999999997</v>
@@ -15895,7 +15895,7 @@
         <v>2001</v>
       </c>
       <c r="E257" s="23">
-        <v>0.44800000000000001</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="F257" s="23">
         <v>0.34499999999999997</v>
@@ -15955,7 +15955,7 @@
         <v>2002</v>
       </c>
       <c r="E258" s="23">
-        <v>0.44800000000000001</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="F258" s="23">
         <v>0.34499999999999997</v>
@@ -16013,7 +16013,7 @@
         <v>2003</v>
       </c>
       <c r="E259" s="23">
-        <v>0.44800000000000001</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="F259" s="23">
         <v>0.33400000000000002</v>
@@ -16073,7 +16073,7 @@
         <v>2004</v>
       </c>
       <c r="E260" s="23">
-        <v>0.44800000000000001</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="F260" s="23">
         <v>0.32800000000000001</v>
@@ -16133,7 +16133,7 @@
         <v>2005</v>
       </c>
       <c r="E261" s="23">
-        <v>0.44800000000000001</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="F261" s="23">
         <v>0.33900000000000002</v>
@@ -16193,7 +16193,7 @@
         <v>2006</v>
       </c>
       <c r="E262" s="23">
-        <v>0.80900000000000005</v>
+        <v>2.58</v>
       </c>
       <c r="F262" s="23">
         <v>0.40400000000000003</v>
@@ -16253,7 +16253,7 @@
         <v>2007</v>
       </c>
       <c r="E263" s="23">
-        <v>1.1339999999999999</v>
+        <v>2.847</v>
       </c>
       <c r="F263" s="23">
         <v>0.40699999999999997</v>
@@ -16313,7 +16313,7 @@
         <v>2008</v>
       </c>
       <c r="E264" s="23">
-        <v>0.97299999999999998</v>
+        <v>2.7240000000000002</v>
       </c>
       <c r="F264" s="23">
         <v>0.23400000000000001</v>
@@ -16373,7 +16373,7 @@
         <v>2009</v>
       </c>
       <c r="E265" s="23">
-        <v>1.7310000000000001</v>
+        <v>3.28</v>
       </c>
       <c r="F265" s="23">
         <v>0.21299999999999999</v>
@@ -16433,7 +16433,7 @@
         <v>2010</v>
       </c>
       <c r="E266" s="23">
-        <v>1.3140000000000001</v>
+        <v>2.99</v>
       </c>
       <c r="F266" s="23">
         <v>0.22700000000000001</v>
@@ -16493,7 +16493,7 @@
         <v>2011</v>
       </c>
       <c r="E267" s="23">
-        <v>1.3140000000000001</v>
+        <v>2.99</v>
       </c>
       <c r="F267" s="23">
         <v>0.22700000000000001</v>
@@ -16553,7 +16553,7 @@
         <v>2012</v>
       </c>
       <c r="E268" s="23">
-        <v>1.3140000000000001</v>
+        <v>2.99</v>
       </c>
       <c r="F268" s="23">
         <v>0.22700000000000001</v>
@@ -16613,7 +16613,7 @@
         <v>2013</v>
       </c>
       <c r="E269" s="23">
-        <v>-5.0000000000000001E-3</v>
+        <v>1.7709999999999999</v>
       </c>
       <c r="F269" s="23">
         <v>0.20799999999999999</v>
@@ -16671,7 +16671,7 @@
         <v>2014</v>
       </c>
       <c r="E270" s="23">
-        <v>-5.0000000000000001E-3</v>
+        <v>1.7709999999999999</v>
       </c>
       <c r="F270" s="23">
         <v>0.20799999999999999</v>
@@ -16731,7 +16731,7 @@
         <v>2015</v>
       </c>
       <c r="E271" s="23">
-        <v>-5.0000000000000001E-3</v>
+        <v>1.7709999999999999</v>
       </c>
       <c r="F271" s="23">
         <v>0.20799999999999999</v>
@@ -16791,7 +16791,7 @@
         <v>2016</v>
       </c>
       <c r="E272" s="23">
-        <v>-5.0000000000000001E-3</v>
+        <v>1.7709999999999999</v>
       </c>
       <c r="F272" s="23">
         <v>0.20799999999999999</v>
@@ -16851,7 +16851,7 @@
         <v>2017</v>
       </c>
       <c r="E273" s="23">
-        <v>-0.41399999999999998</v>
+        <v>1.347</v>
       </c>
       <c r="F273" s="23">
         <v>0.38500000000000001</v>
@@ -16911,7 +16911,7 @@
         <v>2018</v>
       </c>
       <c r="E274" s="25">
-        <v>2.165</v>
+        <v>3.532</v>
       </c>
       <c r="F274" s="25">
         <v>0.60599999999999998</v>
@@ -16971,7 +16971,7 @@
         <v>1980</v>
       </c>
       <c r="E275" s="23">
-        <v>-1.802</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="F275" s="23">
         <v>0.371</v>
@@ -17027,7 +17027,7 @@
         <v>1981</v>
       </c>
       <c r="E276" s="23">
-        <v>-1.802</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="F276" s="23">
         <v>0.371</v>
@@ -17081,7 +17081,7 @@
         <v>1982</v>
       </c>
       <c r="E277" s="23">
-        <v>-1.802</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="F277" s="23">
         <v>0.371</v>
@@ -17135,7 +17135,7 @@
         <v>1983</v>
       </c>
       <c r="E278" s="23">
-        <v>-1</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="F278" s="23">
         <v>0.318</v>
@@ -17189,7 +17189,7 @@
         <v>1984</v>
       </c>
       <c r="E279" s="23">
-        <v>-1</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="F279" s="23">
         <v>0.33600000000000002</v>
@@ -17243,7 +17243,7 @@
         <v>1985</v>
       </c>
       <c r="E280" s="23">
-        <v>-0.83199999999999996</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="F280" s="23">
         <v>0.33600000000000002</v>
@@ -17299,7 +17299,7 @@
         <v>1986</v>
       </c>
       <c r="E281" s="23">
-        <v>-0.83199999999999996</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="F281" s="23">
         <v>0.33600000000000002</v>
@@ -17355,7 +17355,7 @@
         <v>1987</v>
       </c>
       <c r="E282" s="23">
-        <v>-0.83199999999999996</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="F282" s="23">
         <v>0.33600000000000002</v>
@@ -17409,7 +17409,7 @@
         <v>1988</v>
       </c>
       <c r="E283" s="23">
-        <v>-0.83199999999999996</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="F283" s="23">
         <v>0.33600000000000002</v>
@@ -17465,7 +17465,7 @@
         <v>1989</v>
       </c>
       <c r="E284" s="23">
-        <v>-0.83199999999999996</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="F284" s="23">
         <v>0.34699999999999998</v>
@@ -17521,7 +17521,7 @@
         <v>1990</v>
       </c>
       <c r="E285" s="23">
-        <v>-0.83199999999999996</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="F285" s="23">
         <v>0.34699999999999998</v>
@@ -17577,7 +17577,7 @@
         <v>1991</v>
       </c>
       <c r="E286" s="44">
-        <v>-0.83199999999999996</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="F286" s="44">
         <v>0.35699999999999998</v>
@@ -17633,7 +17633,7 @@
         <v>1992</v>
       </c>
       <c r="E287" s="23">
-        <v>-0.497</v>
+        <v>1.262</v>
       </c>
       <c r="F287" s="23">
         <v>0.45300000000000001</v>
@@ -17691,7 +17691,7 @@
         <v>1993</v>
       </c>
       <c r="E288" s="23">
-        <v>0.92300000000000004</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F288" s="23">
         <v>0.46400000000000002</v>
@@ -17749,7 +17749,7 @@
         <v>1994</v>
       </c>
       <c r="E289" s="23">
-        <v>0.92300000000000004</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F289" s="23">
         <v>0.42099999999999999</v>
@@ -17807,7 +17807,7 @@
         <v>1995</v>
       </c>
       <c r="E290" s="23">
-        <v>0.92300000000000004</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F290" s="23">
         <v>0.42099999999999999</v>
@@ -17867,7 +17867,7 @@
         <v>1996</v>
       </c>
       <c r="E291" s="23">
-        <v>0.92300000000000004</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F291" s="23">
         <v>0.42099999999999999</v>
@@ -17927,7 +17927,7 @@
         <v>1997</v>
       </c>
       <c r="E292" s="23">
-        <v>0.92300000000000004</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F292" s="23">
         <v>0.42099999999999999</v>
@@ -17987,7 +17987,7 @@
         <v>1998</v>
       </c>
       <c r="E293" s="23">
-        <v>0.92300000000000004</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F293" s="23">
         <v>0.51500000000000001</v>
@@ -18047,7 +18047,7 @@
         <v>1999</v>
       </c>
       <c r="E294" s="23">
-        <v>0.92300000000000004</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F294" s="23">
         <v>0.51500000000000001</v>
@@ -18107,7 +18107,7 @@
         <v>2000</v>
       </c>
       <c r="E295" s="23">
-        <v>0.92300000000000004</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F295" s="23">
         <v>0.56599999999999995</v>
@@ -18167,7 +18167,7 @@
         <v>2001</v>
       </c>
       <c r="E296" s="23">
-        <v>0.92300000000000004</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F296" s="23">
         <v>0.56599999999999995</v>
@@ -18227,7 +18227,7 @@
         <v>2002</v>
       </c>
       <c r="E297" s="23">
-        <v>0.92300000000000004</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F297" s="23">
         <v>0.55200000000000005</v>
@@ -18287,7 +18287,7 @@
         <v>2003</v>
       </c>
       <c r="E298" s="23">
-        <v>0.92300000000000004</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F298" s="23">
         <v>0.60799999999999998</v>
@@ -18347,7 +18347,7 @@
         <v>2004</v>
       </c>
       <c r="E299" s="23">
-        <v>0.92300000000000004</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F299" s="23">
         <v>0.60799999999999998</v>
@@ -18407,7 +18407,7 @@
         <v>2005</v>
       </c>
       <c r="E300" s="23">
-        <v>0.92300000000000004</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F300" s="23">
         <v>0.60799999999999998</v>
@@ -18467,7 +18467,7 @@
         <v>2006</v>
       </c>
       <c r="E301" s="23">
-        <v>0.92300000000000004</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F301" s="23">
         <v>0.59399999999999997</v>
@@ -18527,7 +18527,7 @@
         <v>2007</v>
       </c>
       <c r="E302" s="23">
-        <v>0.92300000000000004</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F302" s="23">
         <v>0.59399999999999997</v>
@@ -18587,7 +18587,7 @@
         <v>2008</v>
       </c>
       <c r="E303" s="23">
-        <v>0.92300000000000004</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F303" s="23">
         <v>0.60299999999999998</v>
@@ -18647,7 +18647,7 @@
         <v>2009</v>
       </c>
       <c r="E304" s="23">
-        <v>0.92300000000000004</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F304" s="23">
         <v>0.65400000000000003</v>
@@ -18707,7 +18707,7 @@
         <v>2010</v>
       </c>
       <c r="E305" s="23">
-        <v>1.4850000000000001</v>
+        <v>3.1230000000000002</v>
       </c>
       <c r="F305" s="23">
         <v>0.67</v>
@@ -18767,7 +18767,7 @@
         <v>2011</v>
       </c>
       <c r="E306" s="23">
-        <v>1.4850000000000001</v>
+        <v>3.1230000000000002</v>
       </c>
       <c r="F306" s="23">
         <v>0.67</v>
@@ -18827,7 +18827,7 @@
         <v>2012</v>
       </c>
       <c r="E307" s="23">
-        <v>1.4850000000000001</v>
+        <v>3.1230000000000002</v>
       </c>
       <c r="F307" s="23">
         <v>0.70899999999999996</v>
@@ -18887,7 +18887,7 @@
         <v>2013</v>
       </c>
       <c r="E308" s="23">
-        <v>1.5920000000000001</v>
+        <v>3.1890000000000001</v>
       </c>
       <c r="F308" s="23">
         <v>0.71299999999999997</v>
@@ -18947,7 +18947,7 @@
         <v>2014</v>
       </c>
       <c r="E309" s="23">
-        <v>1.5920000000000001</v>
+        <v>3.1890000000000001</v>
       </c>
       <c r="F309" s="23">
         <v>0.71299999999999997</v>
@@ -19007,7 +19007,7 @@
         <v>2015</v>
       </c>
       <c r="E310" s="23">
-        <v>1.5920000000000001</v>
+        <v>3.1890000000000001</v>
       </c>
       <c r="F310" s="23">
         <v>0.71299999999999997</v>
@@ -19067,7 +19067,7 @@
         <v>2016</v>
       </c>
       <c r="E311" s="23">
-        <v>1.5920000000000001</v>
+        <v>3.1890000000000001</v>
       </c>
       <c r="F311" s="23">
         <v>0.71199999999999997</v>
@@ -19125,7 +19125,7 @@
         <v>2017</v>
       </c>
       <c r="E312" s="23">
-        <v>1.58</v>
+        <v>3.1890000000000001</v>
       </c>
       <c r="F312" s="23">
         <v>0.72899999999999998</v>
@@ -19185,7 +19185,7 @@
         <v>2018</v>
       </c>
       <c r="E313" s="25">
-        <v>1.6779999999999999</v>
+        <v>3.2509999999999999</v>
       </c>
       <c r="F313" s="25">
         <v>0.63400000000000001</v>
@@ -19245,7 +19245,7 @@
         <v>1980</v>
       </c>
       <c r="E314" s="23">
-        <v>-1.371</v>
+        <v>0.51</v>
       </c>
       <c r="F314" s="23">
         <v>0.46600000000000003</v>
@@ -19299,7 +19299,7 @@
         <v>1981</v>
       </c>
       <c r="E315" s="23">
-        <v>-1.371</v>
+        <v>0.51</v>
       </c>
       <c r="F315" s="23">
         <v>0.42099999999999999</v>
@@ -19355,7 +19355,7 @@
         <v>1982</v>
       </c>
       <c r="E316" s="23">
-        <v>-1.371</v>
+        <v>0.51</v>
       </c>
       <c r="F316" s="23">
         <v>0.42399999999999999</v>
@@ -19411,7 +19411,7 @@
         <v>1983</v>
       </c>
       <c r="E317" s="23">
-        <v>-1.371</v>
+        <v>0.51</v>
       </c>
       <c r="F317" s="23">
         <v>0.48799999999999999</v>
@@ -19465,7 +19465,7 @@
         <v>1984</v>
       </c>
       <c r="E318" s="23">
-        <v>-1.1279999999999999</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="F318" s="23">
         <v>0.46899999999999997</v>
@@ -19519,7 +19519,7 @@
         <v>1985</v>
       </c>
       <c r="E319" s="23">
-        <v>-0.36399999999999999</v>
+        <v>1.4019999999999999</v>
       </c>
       <c r="F319" s="23">
         <v>0.57599999999999996</v>
@@ -19573,7 +19573,7 @@
         <v>1986</v>
       </c>
       <c r="E320" s="23">
-        <v>2.5999999999999999E-2</v>
+        <v>1.81</v>
       </c>
       <c r="F320" s="23">
         <v>0.53300000000000003</v>
@@ -19627,7 +19627,7 @@
         <v>1987</v>
       </c>
       <c r="E321" s="23">
-        <v>2.5999999999999999E-2</v>
+        <v>1.81</v>
       </c>
       <c r="F321" s="23">
         <v>0.53300000000000003</v>
@@ -19683,7 +19683,7 @@
         <v>1988</v>
       </c>
       <c r="E322" s="23">
-        <v>2.5999999999999999E-2</v>
+        <v>1.81</v>
       </c>
       <c r="F322" s="23">
         <v>0.53300000000000003</v>
@@ -19737,7 +19737,7 @@
         <v>1989</v>
       </c>
       <c r="E323" s="23">
-        <v>2.5999999999999999E-2</v>
+        <v>1.81</v>
       </c>
       <c r="F323" s="23">
         <v>0.53300000000000003</v>
@@ -19793,7 +19793,7 @@
         <v>1990</v>
       </c>
       <c r="E324" s="23">
-        <v>2.5999999999999999E-2</v>
+        <v>1.81</v>
       </c>
       <c r="F324" s="23">
         <v>0.53300000000000003</v>
@@ -19847,7 +19847,7 @@
         <v>1991</v>
       </c>
       <c r="E325" s="44">
-        <v>2.5999999999999999E-2</v>
+        <v>1.81</v>
       </c>
       <c r="F325" s="44">
         <v>0.53300000000000003</v>
@@ -19901,7 +19901,7 @@
         <v>1992</v>
       </c>
       <c r="E326" s="23">
-        <v>2.5999999999999999E-2</v>
+        <v>1.81</v>
       </c>
       <c r="F326" s="23">
         <v>0.53300000000000003</v>
@@ -19957,7 +19957,7 @@
         <v>1993</v>
       </c>
       <c r="E327" s="23">
-        <v>2.5999999999999999E-2</v>
+        <v>1.81</v>
       </c>
       <c r="F327" s="23">
         <v>0.53300000000000003</v>
@@ -20013,7 +20013,7 @@
         <v>1994</v>
       </c>
       <c r="E328" s="23">
-        <v>0.23799999999999999</v>
+        <v>2.0289999999999999</v>
       </c>
       <c r="F328" s="23">
         <v>0.53300000000000003</v>
@@ -20069,7 +20069,7 @@
         <v>1995</v>
       </c>
       <c r="E329" s="23">
-        <v>0.61899999999999999</v>
+        <v>2.4119999999999999</v>
       </c>
       <c r="F329" s="23">
         <v>0.56599999999999995</v>
@@ -20127,7 +20127,7 @@
         <v>1996</v>
       </c>
       <c r="E330" s="23">
-        <v>0.82499999999999996</v>
+        <v>2.593</v>
       </c>
       <c r="F330" s="23">
         <v>0.56599999999999995</v>
@@ -20183,7 +20183,7 @@
         <v>1997</v>
       </c>
       <c r="E331" s="23">
-        <v>0.82499999999999996</v>
+        <v>2.593</v>
       </c>
       <c r="F331" s="23">
         <v>0.55100000000000005</v>
@@ -20241,7 +20241,7 @@
         <v>1998</v>
       </c>
       <c r="E332" s="23">
-        <v>0.82499999999999996</v>
+        <v>2.593</v>
       </c>
       <c r="F332" s="23">
         <v>0.52200000000000002</v>
@@ -20299,7 +20299,7 @@
         <v>1999</v>
       </c>
       <c r="E333" s="23">
-        <v>0.82499999999999996</v>
+        <v>2.593</v>
       </c>
       <c r="F333" s="23">
         <v>0.54100000000000004</v>
@@ -20357,7 +20357,7 @@
         <v>2000</v>
       </c>
       <c r="E334" s="23">
-        <v>0.82499999999999996</v>
+        <v>2.593</v>
       </c>
       <c r="F334" s="23">
         <v>0.56399999999999995</v>
@@ -20415,7 +20415,7 @@
         <v>2001</v>
       </c>
       <c r="E335" s="23">
-        <v>0.82499999999999996</v>
+        <v>2.593</v>
       </c>
       <c r="F335" s="23">
         <v>0.56399999999999995</v>
@@ -20473,7 +20473,7 @@
         <v>2002</v>
       </c>
       <c r="E336" s="23">
-        <v>0.82499999999999996</v>
+        <v>2.593</v>
       </c>
       <c r="F336" s="23">
         <v>0.56399999999999995</v>
@@ -20531,7 +20531,7 @@
         <v>2003</v>
       </c>
       <c r="E337" s="23">
-        <v>0.82499999999999996</v>
+        <v>2.593</v>
       </c>
       <c r="F337" s="23">
         <v>0.56399999999999995</v>
@@ -20591,7 +20591,7 @@
         <v>2004</v>
       </c>
       <c r="E338" s="23">
-        <v>0.82499999999999996</v>
+        <v>2.593</v>
       </c>
       <c r="F338" s="23">
         <v>0.56399999999999995</v>
@@ -20651,7 +20651,7 @@
         <v>2005</v>
       </c>
       <c r="E339" s="23">
-        <v>0.82499999999999996</v>
+        <v>2.593</v>
       </c>
       <c r="F339" s="23">
         <v>0.56399999999999995</v>
@@ -20709,7 +20709,7 @@
         <v>2006</v>
       </c>
       <c r="E340" s="23">
-        <v>0.82499999999999996</v>
+        <v>2.593</v>
       </c>
       <c r="F340" s="23">
         <v>0.54200000000000004</v>
@@ -20769,7 +20769,7 @@
         <v>2007</v>
       </c>
       <c r="E341" s="23">
-        <v>0.747</v>
+        <v>2.5219999999999998</v>
       </c>
       <c r="F341" s="23">
         <v>0.54200000000000004</v>
@@ -20827,7 +20827,7 @@
         <v>2008</v>
       </c>
       <c r="E342" s="23">
-        <v>0.84499999999999997</v>
+        <v>2.6120000000000001</v>
       </c>
       <c r="F342" s="23">
         <v>0.54200000000000004</v>
@@ -20885,7 +20885,7 @@
         <v>2009</v>
       </c>
       <c r="E343" s="23">
-        <v>0.84499999999999997</v>
+        <v>2.6120000000000001</v>
       </c>
       <c r="F343" s="23">
         <v>0.54200000000000004</v>
@@ -20943,7 +20943,7 @@
         <v>2010</v>
       </c>
       <c r="E344" s="23">
-        <v>0.84499999999999997</v>
+        <v>2.6120000000000001</v>
       </c>
       <c r="F344" s="23">
         <v>0.58299999999999996</v>
@@ -21003,7 +21003,7 @@
         <v>2011</v>
       </c>
       <c r="E345" s="23">
-        <v>0.84499999999999997</v>
+        <v>2.6120000000000001</v>
       </c>
       <c r="F345" s="23">
         <v>0.55600000000000005</v>
@@ -21063,7 +21063,7 @@
         <v>2012</v>
       </c>
       <c r="E346" s="23">
-        <v>0.84499999999999997</v>
+        <v>2.6120000000000001</v>
       </c>
       <c r="F346" s="23">
         <v>0.58499999999999996</v>
@@ -21123,7 +21123,7 @@
         <v>2013</v>
       </c>
       <c r="E347" s="23">
-        <v>0.78700000000000003</v>
+        <v>2.5609999999999999</v>
       </c>
       <c r="F347" s="23">
         <v>0.66100000000000003</v>
@@ -21183,7 +21183,7 @@
         <v>2014</v>
       </c>
       <c r="E348" s="23">
-        <v>0.78700000000000003</v>
+        <v>2.5609999999999999</v>
       </c>
       <c r="F348" s="23">
         <v>0.67700000000000005</v>
@@ -21243,7 +21243,7 @@
         <v>2015</v>
       </c>
       <c r="E349" s="23">
-        <v>0.91800000000000004</v>
+        <v>2.6760000000000002</v>
       </c>
       <c r="F349" s="23">
         <v>0.753</v>
@@ -21303,7 +21303,7 @@
         <v>2016</v>
       </c>
       <c r="E350" s="23">
-        <v>0.91800000000000004</v>
+        <v>2.6760000000000002</v>
       </c>
       <c r="F350" s="23">
         <v>0.753</v>
@@ -21361,7 +21361,7 @@
         <v>2017</v>
       </c>
       <c r="E351" s="23">
-        <v>0.79600000000000004</v>
+        <v>2.5710000000000002</v>
       </c>
       <c r="F351" s="23">
         <v>0.79300000000000004</v>
@@ -21419,7 +21419,7 @@
         <v>2018</v>
       </c>
       <c r="E352" s="25">
-        <v>0.66500000000000004</v>
+        <v>2.4510000000000001</v>
       </c>
       <c r="F352" s="25">
         <v>0.72399999999999998</v>
@@ -21475,7 +21475,7 @@
         <v>1980</v>
       </c>
       <c r="E353" s="23">
-        <v>0.01</v>
+        <v>1.788</v>
       </c>
       <c r="F353" s="23">
         <v>0.26500000000000001</v>
@@ -21529,7 +21529,7 @@
         <v>1981</v>
       </c>
       <c r="E354" s="23">
-        <v>0.01</v>
+        <v>1.788</v>
       </c>
       <c r="F354" s="23">
         <v>0.26500000000000001</v>
@@ -21583,7 +21583,7 @@
         <v>1982</v>
       </c>
       <c r="E355" s="23">
-        <v>0.01</v>
+        <v>1.788</v>
       </c>
       <c r="F355" s="23">
         <v>0.24099999999999999</v>
@@ -21637,7 +21637,7 @@
         <v>1983</v>
       </c>
       <c r="E356" s="23">
-        <v>0.01</v>
+        <v>1.788</v>
       </c>
       <c r="F356" s="23">
         <v>0.24099999999999999</v>
@@ -21691,7 +21691,7 @@
         <v>1984</v>
       </c>
       <c r="E357" s="23">
-        <v>0.01</v>
+        <v>1.788</v>
       </c>
       <c r="F357" s="23">
         <v>0.24099999999999999</v>
@@ -21745,7 +21745,7 @@
         <v>1985</v>
       </c>
       <c r="E358" s="23">
-        <v>0.01</v>
+        <v>1.788</v>
       </c>
       <c r="F358" s="23">
         <v>0.24099999999999999</v>
@@ -21799,7 +21799,7 @@
         <v>1986</v>
       </c>
       <c r="E359" s="23">
-        <v>0.01</v>
+        <v>1.788</v>
       </c>
       <c r="F359" s="23">
         <v>0.24099999999999999</v>
@@ -21853,7 +21853,7 @@
         <v>1987</v>
       </c>
       <c r="E360" s="23">
-        <v>0.01</v>
+        <v>1.788</v>
       </c>
       <c r="F360" s="23">
         <v>0.24099999999999999</v>
@@ -21907,7 +21907,7 @@
         <v>1988</v>
       </c>
       <c r="E361" s="23">
-        <v>0.01</v>
+        <v>1.788</v>
       </c>
       <c r="F361" s="23">
         <v>0.26900000000000002</v>
@@ -21963,7 +21963,7 @@
         <v>1989</v>
       </c>
       <c r="E362" s="23">
-        <v>2.1000000000000001E-2</v>
+        <v>1.8009999999999999</v>
       </c>
       <c r="F362" s="23">
         <v>0.32600000000000001</v>
@@ -22017,7 +22017,7 @@
         <v>1990</v>
       </c>
       <c r="E363" s="23">
-        <v>0.186</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="F363" s="23">
         <v>0.39400000000000002</v>
@@ -22071,7 +22071,7 @@
         <v>1991</v>
       </c>
       <c r="E364" s="44">
-        <v>0.186</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="F364" s="44">
         <v>0.39400000000000002</v>
@@ -22129,7 +22129,7 @@
         <v>1992</v>
       </c>
       <c r="E365" s="23">
-        <v>0.186</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="F365" s="23">
         <v>0.39400000000000002</v>
@@ -22187,7 +22187,7 @@
         <v>1993</v>
       </c>
       <c r="E366" s="23">
-        <v>0.186</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="F366" s="23">
         <v>0.39400000000000002</v>
@@ -22245,7 +22245,7 @@
         <v>1994</v>
       </c>
       <c r="E367" s="23">
-        <v>0.186</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="F367" s="23">
         <v>0.497</v>
@@ -22303,7 +22303,7 @@
         <v>1995</v>
       </c>
       <c r="E368" s="23">
-        <v>0.186</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="F368" s="23">
         <v>0.56200000000000006</v>
@@ -22363,7 +22363,7 @@
         <v>1996</v>
       </c>
       <c r="E369" s="23">
-        <v>0.186</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="F369" s="23">
         <v>0.56200000000000006</v>
@@ -22423,7 +22423,7 @@
         <v>1997</v>
       </c>
       <c r="E370" s="23">
-        <v>0.186</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="F370" s="23">
         <v>0.56200000000000006</v>
@@ -22483,7 +22483,7 @@
         <v>1998</v>
       </c>
       <c r="E371" s="23">
-        <v>0.186</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="F371" s="23">
         <v>0.56200000000000006</v>
@@ -22543,7 +22543,7 @@
         <v>1999</v>
       </c>
       <c r="E372" s="23">
-        <v>0.186</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="F372" s="23">
         <v>0.56200000000000006</v>
@@ -22603,7 +22603,7 @@
         <v>2000</v>
       </c>
       <c r="E373" s="23">
-        <v>0.69</v>
+        <v>2.476</v>
       </c>
       <c r="F373" s="23">
         <v>0.75</v>
@@ -22663,7 +22663,7 @@
         <v>2001</v>
       </c>
       <c r="E374" s="23">
-        <v>0.69</v>
+        <v>2.476</v>
       </c>
       <c r="F374" s="23">
         <v>0.75</v>
@@ -22723,7 +22723,7 @@
         <v>2002</v>
       </c>
       <c r="E375" s="23">
-        <v>0.69</v>
+        <v>2.476</v>
       </c>
       <c r="F375" s="23">
         <v>0.75</v>
@@ -22783,7 +22783,7 @@
         <v>2003</v>
       </c>
       <c r="E376" s="23">
-        <v>0.69</v>
+        <v>2.476</v>
       </c>
       <c r="F376" s="23">
         <v>0.75</v>
@@ -22843,7 +22843,7 @@
         <v>2004</v>
       </c>
       <c r="E377" s="23">
-        <v>0.69</v>
+        <v>2.476</v>
       </c>
       <c r="F377" s="23">
         <v>0.75</v>
@@ -22903,7 +22903,7 @@
         <v>2005</v>
       </c>
       <c r="E378" s="23">
-        <v>0.69</v>
+        <v>2.476</v>
       </c>
       <c r="F378" s="23">
         <v>0.75</v>
@@ -22963,7 +22963,7 @@
         <v>2006</v>
       </c>
       <c r="E379" s="23">
-        <v>0.69</v>
+        <v>2.476</v>
       </c>
       <c r="F379" s="23">
         <v>0.75</v>
@@ -23023,7 +23023,7 @@
         <v>2007</v>
       </c>
       <c r="E380" s="23">
-        <v>0.47299999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F380" s="23">
         <v>0.73399999999999999</v>
@@ -23083,7 +23083,7 @@
         <v>2008</v>
       </c>
       <c r="E381" s="23">
-        <v>0.47299999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F381" s="23">
         <v>0.73399999999999999</v>
@@ -23143,7 +23143,7 @@
         <v>2009</v>
       </c>
       <c r="E382" s="23">
-        <v>0.47299999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F382" s="23">
         <v>0.73399999999999999</v>
@@ -23203,7 +23203,7 @@
         <v>2010</v>
       </c>
       <c r="E383" s="23">
-        <v>0.47299999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F383" s="23">
         <v>0.77100000000000002</v>
@@ -23263,7 +23263,7 @@
         <v>2011</v>
       </c>
       <c r="E384" s="23">
-        <v>0.436</v>
+        <v>2.226</v>
       </c>
       <c r="F384" s="23">
         <v>0.77100000000000002</v>
@@ -23323,7 +23323,7 @@
         <v>2012</v>
       </c>
       <c r="E385" s="23">
-        <v>0.47</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="F385" s="23">
         <v>0.76600000000000001</v>
@@ -23383,7 +23383,7 @@
         <v>2013</v>
       </c>
       <c r="E386" s="23">
-        <v>0.94499999999999995</v>
+        <v>2.7040000000000002</v>
       </c>
       <c r="F386" s="23">
         <v>0.72599999999999998</v>
@@ -23443,7 +23443,7 @@
         <v>2014</v>
       </c>
       <c r="E387" s="23">
-        <v>0.81699999999999995</v>
+        <v>2.5870000000000002</v>
       </c>
       <c r="F387" s="23">
         <v>0.72599999999999998</v>
@@ -23503,7 +23503,7 @@
         <v>2015</v>
       </c>
       <c r="E388" s="23">
-        <v>1.052</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="F388" s="23">
         <v>0.75900000000000001</v>
@@ -23563,7 +23563,7 @@
         <v>2016</v>
       </c>
       <c r="E389" s="23">
-        <v>1.052</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="F389" s="23">
         <v>0.73499999999999999</v>
@@ -23623,7 +23623,7 @@
         <v>2017</v>
       </c>
       <c r="E390" s="23">
-        <v>0.70499999999999996</v>
+        <v>2.4860000000000002</v>
       </c>
       <c r="F390" s="23">
         <v>0.69799999999999995</v>
@@ -23683,7 +23683,7 @@
         <v>2018</v>
       </c>
       <c r="E391" s="25">
-        <v>1.1970000000000001</v>
+        <v>2.9020000000000001</v>
       </c>
       <c r="F391" s="25">
         <v>0.71399999999999997</v>
@@ -23743,7 +23743,7 @@
         <v>1980</v>
       </c>
       <c r="E392" s="23">
-        <v>-0.83599999999999997</v>
+        <v>0.93</v>
       </c>
       <c r="F392" s="23">
         <v>0.245</v>
@@ -23797,7 +23797,7 @@
         <v>1981</v>
       </c>
       <c r="E393" s="23">
-        <v>-0.83599999999999997</v>
+        <v>0.93</v>
       </c>
       <c r="F393" s="23">
         <v>0.245</v>
@@ -23851,7 +23851,7 @@
         <v>1982</v>
       </c>
       <c r="E394" s="23">
-        <v>-1.7709999999999999</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="F394" s="23">
         <v>0.245</v>
@@ -23905,7 +23905,7 @@
         <v>1983</v>
       </c>
       <c r="E395" s="23">
-        <v>-1.7709999999999999</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="F395" s="23">
         <v>0.245</v>
@@ -23959,7 +23959,7 @@
         <v>1984</v>
       </c>
       <c r="E396" s="23">
-        <v>-1.7709999999999999</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="F396" s="23">
         <v>0.28799999999999998</v>
@@ -24013,7 +24013,7 @@
         <v>1985</v>
       </c>
       <c r="E397" s="23">
-        <v>-1.7629999999999999</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="F397" s="23">
         <v>0.28799999999999998</v>
@@ -24069,7 +24069,7 @@
         <v>1986</v>
       </c>
       <c r="E398" s="23">
-        <v>-1.7629999999999999</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="F398" s="23">
         <v>0.28799999999999998</v>
@@ -24125,7 +24125,7 @@
         <v>1987</v>
       </c>
       <c r="E399" s="23">
-        <v>-1.7629999999999999</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="F399" s="23">
         <v>0.23899999999999999</v>
@@ -24181,7 +24181,7 @@
         <v>1988</v>
       </c>
       <c r="E400" s="23">
-        <v>-0.82499999999999996</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="F400" s="23">
         <v>0.23899999999999999</v>
@@ -24237,7 +24237,7 @@
         <v>1989</v>
       </c>
       <c r="E401" s="23">
-        <v>-0.82499999999999996</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="F401" s="23">
         <v>0.23899999999999999</v>
@@ -24293,7 +24293,7 @@
         <v>1990</v>
       </c>
       <c r="E402" s="23">
-        <v>1.8089999999999999</v>
+        <v>3.3330000000000002</v>
       </c>
       <c r="F402" s="23">
         <v>0.47299999999999998</v>
@@ -24347,7 +24347,7 @@
         <v>1991</v>
       </c>
       <c r="E403" s="44">
-        <v>1.8089999999999999</v>
+        <v>3.3330000000000002</v>
       </c>
       <c r="F403" s="44">
         <v>0.48199999999999998</v>
@@ -24401,7 +24401,7 @@
         <v>1992</v>
       </c>
       <c r="E404" s="23">
-        <v>1.8089999999999999</v>
+        <v>3.3330000000000002</v>
       </c>
       <c r="F404" s="23">
         <v>0.48199999999999998</v>
@@ -24457,7 +24457,7 @@
         <v>1993</v>
       </c>
       <c r="E405" s="23">
-        <v>1.8089999999999999</v>
+        <v>3.3330000000000002</v>
       </c>
       <c r="F405" s="23">
         <v>0.48199999999999998</v>
@@ -24513,7 +24513,7 @@
         <v>1994</v>
       </c>
       <c r="E406" s="23">
-        <v>2.0339999999999998</v>
+        <v>3.4580000000000002</v>
       </c>
       <c r="F406" s="23">
         <v>0.48199999999999998</v>
@@ -24569,7 +24569,7 @@
         <v>1995</v>
       </c>
       <c r="E407" s="23">
-        <v>2.0339999999999998</v>
+        <v>3.4580000000000002</v>
       </c>
       <c r="F407" s="23">
         <v>0.48</v>
@@ -24627,7 +24627,7 @@
         <v>1996</v>
       </c>
       <c r="E408" s="23">
-        <v>2.0339999999999998</v>
+        <v>3.4580000000000002</v>
       </c>
       <c r="F408" s="23">
         <v>0.39</v>
@@ -24685,7 +24685,7 @@
         <v>1997</v>
       </c>
       <c r="E409" s="23">
-        <v>1.498</v>
+        <v>3.1280000000000001</v>
       </c>
       <c r="F409" s="23">
         <v>0.307</v>
@@ -24743,7 +24743,7 @@
         <v>1998</v>
       </c>
       <c r="E410" s="23">
-        <v>1.498</v>
+        <v>3.1280000000000001</v>
       </c>
       <c r="F410" s="23">
         <v>0.307</v>
@@ -24801,7 +24801,7 @@
         <v>1999</v>
       </c>
       <c r="E411" s="23">
-        <v>1.498</v>
+        <v>3.1280000000000001</v>
       </c>
       <c r="F411" s="23">
         <v>0.307</v>
@@ -24859,7 +24859,7 @@
         <v>2000</v>
       </c>
       <c r="E412" s="23">
-        <v>1.498</v>
+        <v>3.1280000000000001</v>
       </c>
       <c r="F412" s="23">
         <v>0.32100000000000001</v>
@@ -24917,7 +24917,7 @@
         <v>2001</v>
       </c>
       <c r="E413" s="23">
-        <v>1.498</v>
+        <v>3.1280000000000001</v>
       </c>
       <c r="F413" s="23">
         <v>0.33200000000000002</v>
@@ -24975,7 +24975,7 @@
         <v>2002</v>
       </c>
       <c r="E414" s="23">
-        <v>2.024</v>
+        <v>3.4609999999999999</v>
       </c>
       <c r="F414" s="23">
         <v>0.33200000000000002</v>
@@ -25033,7 +25033,7 @@
         <v>2003</v>
       </c>
       <c r="E415" s="23">
-        <v>2.024</v>
+        <v>3.4609999999999999</v>
       </c>
       <c r="F415" s="23">
         <v>0.33200000000000002</v>
@@ -25093,7 +25093,7 @@
         <v>2004</v>
       </c>
       <c r="E416" s="23">
-        <v>2.024</v>
+        <v>3.4609999999999999</v>
       </c>
       <c r="F416" s="23">
         <v>0.33200000000000002</v>
@@ -25153,7 +25153,7 @@
         <v>2005</v>
       </c>
       <c r="E417" s="23">
-        <v>2.024</v>
+        <v>3.4609999999999999</v>
       </c>
       <c r="F417" s="23">
         <v>0.33200000000000002</v>
@@ -25213,7 +25213,7 @@
         <v>2006</v>
       </c>
       <c r="E418" s="23">
-        <v>1.8240000000000001</v>
+        <v>3.3450000000000002</v>
       </c>
       <c r="F418" s="23">
         <v>0.19700000000000001</v>
@@ -25273,7 +25273,7 @@
         <v>2007</v>
       </c>
       <c r="E419" s="23">
-        <v>0.57099999999999995</v>
+        <v>2.3610000000000002</v>
       </c>
       <c r="F419" s="23">
         <v>9.9000000000000005E-2</v>
@@ -25333,7 +25333,7 @@
         <v>2008</v>
       </c>
       <c r="E420" s="23">
-        <v>7.1999999999999995E-2</v>
+        <v>1.8540000000000001</v>
       </c>
       <c r="F420" s="23">
         <v>7.4999999999999997E-2</v>
@@ -25393,7 +25393,7 @@
         <v>2009</v>
       </c>
       <c r="E421" s="23">
-        <v>7.1999999999999995E-2</v>
+        <v>1.8540000000000001</v>
       </c>
       <c r="F421" s="23">
         <v>7.0999999999999994E-2</v>
@@ -25453,7 +25453,7 @@
         <v>2010</v>
       </c>
       <c r="E422" s="23">
-        <v>-5.1999999999999998E-2</v>
+        <v>1.728</v>
       </c>
       <c r="F422" s="23">
         <v>0.06</v>
@@ -25513,7 +25513,7 @@
         <v>2011</v>
       </c>
       <c r="E423" s="23">
-        <v>-5.1999999999999998E-2</v>
+        <v>1.728</v>
       </c>
       <c r="F423" s="23">
         <v>0.06</v>
@@ -25571,7 +25571,7 @@
         <v>2012</v>
       </c>
       <c r="E424" s="23">
-        <v>-5.1999999999999998E-2</v>
+        <v>1.728</v>
       </c>
       <c r="F424" s="23">
         <v>6.7000000000000004E-2</v>
@@ -25631,7 +25631,7 @@
         <v>2013</v>
       </c>
       <c r="E425" s="23">
-        <v>0.16600000000000001</v>
+        <v>1.952</v>
       </c>
       <c r="F425" s="23">
         <v>5.5E-2</v>
@@ -25691,7 +25691,7 @@
         <v>2014</v>
       </c>
       <c r="E426" s="23">
-        <v>0.16600000000000001</v>
+        <v>1.952</v>
       </c>
       <c r="F426" s="23">
         <v>5.5E-2</v>
@@ -25751,7 +25751,7 @@
         <v>2015</v>
       </c>
       <c r="E427" s="23">
-        <v>0.16600000000000001</v>
+        <v>1.952</v>
       </c>
       <c r="F427" s="23">
         <v>5.5E-2</v>
@@ -25809,7 +25809,7 @@
         <v>2016</v>
       </c>
       <c r="E428" s="23">
-        <v>0.16600000000000001</v>
+        <v>1.952</v>
       </c>
       <c r="F428" s="23">
         <v>5.8999999999999997E-2</v>
@@ -25867,7 +25867,7 @@
         <v>2017</v>
       </c>
       <c r="E429" s="23">
-        <v>-0.15</v>
+        <v>1.623</v>
       </c>
       <c r="F429" s="23">
         <v>3.3000000000000002E-2</v>
@@ -25925,7 +25925,7 @@
         <v>2018</v>
       </c>
       <c r="E430" s="25">
-        <v>-1.448</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="F430" s="25">
         <v>0.02</v>
@@ -25983,7 +25983,7 @@
         <v>1980</v>
       </c>
       <c r="E431" s="23">
-        <v>-2.3690000000000002</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="F431" s="23">
         <v>0.29199999999999998</v>
@@ -26037,7 +26037,7 @@
         <v>1981</v>
       </c>
       <c r="E432" s="23">
-        <v>-2.3690000000000002</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="F432" s="23">
         <v>0.30399999999999999</v>
@@ -26091,7 +26091,7 @@
         <v>1982</v>
       </c>
       <c r="E433" s="23">
-        <v>-2.3690000000000002</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="F433" s="23">
         <v>0.30399999999999999</v>
@@ -26147,7 +26147,7 @@
         <v>1983</v>
       </c>
       <c r="E434" s="23">
-        <v>-2.3690000000000002</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="F434" s="23">
         <v>0.30399999999999999</v>
@@ -26203,7 +26203,7 @@
         <v>1984</v>
       </c>
       <c r="E435" s="23">
-        <v>-2.3690000000000002</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="F435" s="23">
         <v>0.27</v>
@@ -26259,7 +26259,7 @@
         <v>1985</v>
       </c>
       <c r="E436" s="23">
-        <v>-2.3690000000000002</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="F436" s="23">
         <v>0.27</v>
@@ -26315,7 +26315,7 @@
         <v>1986</v>
       </c>
       <c r="E437" s="23">
-        <v>-2.3690000000000002</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="F437" s="23">
         <v>0.32</v>
@@ -26371,7 +26371,7 @@
         <v>1987</v>
       </c>
       <c r="E438" s="23">
-        <v>-2.3690000000000002</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="F438" s="23">
         <v>0.32</v>
@@ -26427,7 +26427,7 @@
         <v>1988</v>
       </c>
       <c r="E439" s="23">
-        <v>-2.3690000000000002</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="F439" s="23">
         <v>0.32</v>
@@ -26483,7 +26483,7 @@
         <v>1989</v>
       </c>
       <c r="E440" s="23">
-        <v>-2.3690000000000002</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="F440" s="23">
         <v>0.32</v>
@@ -26539,7 +26539,7 @@
         <v>1990</v>
       </c>
       <c r="E441" s="23">
-        <v>1.4330000000000001</v>
+        <v>3.0840000000000001</v>
       </c>
       <c r="F441" s="23">
         <v>0.63900000000000001</v>
@@ -26595,7 +26595,7 @@
         <v>1991</v>
       </c>
       <c r="E442" s="44">
-        <v>1.4330000000000001</v>
+        <v>3.0840000000000001</v>
       </c>
       <c r="F442" s="44">
         <v>0.59399999999999997</v>
@@ -26651,7 +26651,7 @@
         <v>1992</v>
       </c>
       <c r="E443" s="23">
-        <v>1.4330000000000001</v>
+        <v>3.0840000000000001</v>
       </c>
       <c r="F443" s="23">
         <v>0.59399999999999997</v>
@@ -26709,7 +26709,7 @@
         <v>1993</v>
       </c>
       <c r="E444" s="23">
-        <v>1.4330000000000001</v>
+        <v>3.0840000000000001</v>
       </c>
       <c r="F444" s="23">
         <v>0.59399999999999997</v>
@@ -26767,7 +26767,7 @@
         <v>1994</v>
       </c>
       <c r="E445" s="23">
-        <v>1.655</v>
+        <v>3.234</v>
       </c>
       <c r="F445" s="23">
         <v>0.60199999999999998</v>
@@ -26825,7 +26825,7 @@
         <v>1995</v>
       </c>
       <c r="E446" s="23">
-        <v>1.655</v>
+        <v>3.234</v>
       </c>
       <c r="F446" s="23">
         <v>0.60199999999999998</v>
@@ -26883,7 +26883,7 @@
         <v>1996</v>
       </c>
       <c r="E447" s="23">
-        <v>1.655</v>
+        <v>3.234</v>
       </c>
       <c r="F447" s="23">
         <v>0.60199999999999998</v>
@@ -26941,7 +26941,7 @@
         <v>1997</v>
       </c>
       <c r="E448" s="23">
-        <v>1.655</v>
+        <v>3.234</v>
       </c>
       <c r="F448" s="23">
         <v>0.60199999999999998</v>
@@ -27001,7 +27001,7 @@
         <v>1998</v>
       </c>
       <c r="E449" s="23">
-        <v>1.655</v>
+        <v>3.234</v>
       </c>
       <c r="F449" s="23">
         <v>0.60199999999999998</v>
@@ -27061,7 +27061,7 @@
         <v>1999</v>
       </c>
       <c r="E450" s="23">
-        <v>1.655</v>
+        <v>3.234</v>
       </c>
       <c r="F450" s="23">
         <v>0.60199999999999998</v>
@@ -27121,7 +27121,7 @@
         <v>2000</v>
       </c>
       <c r="E451" s="23">
-        <v>1.655</v>
+        <v>3.234</v>
       </c>
       <c r="F451" s="23">
         <v>0.60199999999999998</v>
@@ -27181,7 +27181,7 @@
         <v>2001</v>
       </c>
       <c r="E452" s="23">
-        <v>1.655</v>
+        <v>3.234</v>
       </c>
       <c r="F452" s="23">
         <v>0.60199999999999998</v>
@@ -27241,7 +27241,7 @@
         <v>2002</v>
       </c>
       <c r="E453" s="23">
-        <v>1.655</v>
+        <v>3.234</v>
       </c>
       <c r="F453" s="23">
         <v>0.60199999999999998</v>
@@ -27301,7 +27301,7 @@
         <v>2003</v>
       </c>
       <c r="E454" s="23">
-        <v>1.655</v>
+        <v>3.234</v>
       </c>
       <c r="F454" s="23">
         <v>0.60199999999999998</v>
@@ -27361,7 +27361,7 @@
         <v>2004</v>
       </c>
       <c r="E455" s="23">
-        <v>1.655</v>
+        <v>3.234</v>
       </c>
       <c r="F455" s="23">
         <v>0.60199999999999998</v>
@@ -27421,7 +27421,7 @@
         <v>2005</v>
       </c>
       <c r="E456" s="23">
-        <v>1.655</v>
+        <v>3.234</v>
       </c>
       <c r="F456" s="23">
         <v>0.55900000000000005</v>
@@ -27481,7 +27481,7 @@
         <v>2006</v>
       </c>
       <c r="E457" s="23">
-        <v>1.655</v>
+        <v>3.234</v>
       </c>
       <c r="F457" s="23">
         <v>0.55600000000000005</v>
@@ -27541,7 +27541,7 @@
         <v>2007</v>
       </c>
       <c r="E458" s="23">
-        <v>1.655</v>
+        <v>3.234</v>
       </c>
       <c r="F458" s="23">
         <v>0.55600000000000005</v>
@@ -27601,7 +27601,7 @@
         <v>2008</v>
       </c>
       <c r="E459" s="23">
-        <v>1.655</v>
+        <v>3.234</v>
       </c>
       <c r="F459" s="23">
         <v>0.55600000000000005</v>
@@ -27659,7 +27659,7 @@
         <v>2009</v>
       </c>
       <c r="E460" s="23">
-        <v>1.113</v>
+        <v>2.843</v>
       </c>
       <c r="F460" s="23">
         <v>0.55600000000000005</v>
@@ -27719,7 +27719,7 @@
         <v>2010</v>
       </c>
       <c r="E461" s="23">
-        <v>1.1060000000000001</v>
+        <v>2.8330000000000002</v>
       </c>
       <c r="F461" s="23">
         <v>0.55600000000000005</v>
@@ -27779,7 +27779,7 @@
         <v>2011</v>
       </c>
       <c r="E462" s="23">
-        <v>1.1060000000000001</v>
+        <v>2.8330000000000002</v>
       </c>
       <c r="F462" s="23">
         <v>0.55600000000000005</v>
@@ -27839,7 +27839,7 @@
         <v>2012</v>
       </c>
       <c r="E463" s="23">
-        <v>1.1060000000000001</v>
+        <v>2.8330000000000002</v>
       </c>
       <c r="F463" s="23">
         <v>0.55600000000000005</v>
@@ -27899,7 +27899,7 @@
         <v>2013</v>
       </c>
       <c r="E464" s="23">
-        <v>1.1140000000000001</v>
+        <v>2.84</v>
       </c>
       <c r="F464" s="23">
         <v>0.47499999999999998</v>
@@ -27959,7 +27959,7 @@
         <v>2014</v>
       </c>
       <c r="E465" s="23">
-        <v>1.1140000000000001</v>
+        <v>2.84</v>
       </c>
       <c r="F465" s="23">
         <v>0.47499999999999998</v>
@@ -28017,7 +28017,7 @@
         <v>2015</v>
       </c>
       <c r="E466" s="23">
-        <v>1.6559999999999999</v>
+        <v>3.2360000000000002</v>
       </c>
       <c r="F466" s="23">
         <v>0.47499999999999998</v>
@@ -28077,7 +28077,7 @@
         <v>2016</v>
       </c>
       <c r="E467" s="23">
-        <v>1.6639999999999999</v>
+        <v>3.242</v>
       </c>
       <c r="F467" s="23">
         <v>0.47499999999999998</v>
@@ -28135,7 +28135,7 @@
         <v>2017</v>
       </c>
       <c r="E468" s="23">
-        <v>0.96399999999999997</v>
+        <v>2.7160000000000002</v>
       </c>
       <c r="F468" s="23">
         <v>0.55800000000000005</v>
@@ -28193,7 +28193,7 @@
         <v>2018</v>
       </c>
       <c r="E469" s="25">
-        <v>0.96399999999999997</v>
+        <v>2.7160000000000002</v>
       </c>
       <c r="F469" s="25">
         <v>0.58899999999999997</v>
@@ -28247,7 +28247,7 @@
         <v>1980</v>
       </c>
       <c r="E470" s="23">
-        <v>-2.149</v>
+        <v>0.151</v>
       </c>
       <c r="F470" s="23">
         <v>0.14399999999999999</v>
@@ -28303,7 +28303,7 @@
         <v>1981</v>
       </c>
       <c r="E471" s="23">
-        <v>-2.149</v>
+        <v>0.151</v>
       </c>
       <c r="F471" s="23">
         <v>0.14399999999999999</v>
@@ -28357,7 +28357,7 @@
         <v>1982</v>
       </c>
       <c r="E472" s="23">
-        <v>-2.149</v>
+        <v>0.151</v>
       </c>
       <c r="F472" s="23">
         <v>0.14399999999999999</v>
@@ -28413,7 +28413,7 @@
         <v>1983</v>
       </c>
       <c r="E473" s="23">
-        <v>-2.149</v>
+        <v>0.151</v>
       </c>
       <c r="F473" s="23">
         <v>0.14399999999999999</v>
@@ -28469,7 +28469,7 @@
         <v>1984</v>
       </c>
       <c r="E474" s="23">
-        <v>-2.149</v>
+        <v>0.151</v>
       </c>
       <c r="F474" s="23">
         <v>0.14399999999999999</v>
@@ -28525,7 +28525,7 @@
         <v>1985</v>
       </c>
       <c r="E475" s="23">
-        <v>-2.149</v>
+        <v>0.151</v>
       </c>
       <c r="F475" s="23">
         <v>0.14399999999999999</v>
@@ -28581,7 +28581,7 @@
         <v>1986</v>
       </c>
       <c r="E476" s="23">
-        <v>-2.149</v>
+        <v>0.151</v>
       </c>
       <c r="F476" s="23">
         <v>0.18099999999999999</v>
@@ -28637,7 +28637,7 @@
         <v>1987</v>
       </c>
       <c r="E477" s="23">
-        <v>-2.149</v>
+        <v>0.151</v>
       </c>
       <c r="F477" s="23">
         <v>0.158</v>
@@ -28693,7 +28693,7 @@
         <v>1988</v>
       </c>
       <c r="E478" s="23">
-        <v>-2.149</v>
+        <v>0.151</v>
       </c>
       <c r="F478" s="23">
         <v>0.158</v>
@@ -28749,7 +28749,7 @@
         <v>1989</v>
       </c>
       <c r="E479" s="23">
-        <v>-2.149</v>
+        <v>0.151</v>
       </c>
       <c r="F479" s="23">
         <v>0.20100000000000001</v>
@@ -28805,7 +28805,7 @@
         <v>1990</v>
       </c>
       <c r="E480" s="23">
-        <v>0.45700000000000002</v>
+        <v>2.2509999999999999</v>
       </c>
       <c r="F480" s="23">
         <v>0.24399999999999999</v>
@@ -28861,7 +28861,7 @@
         <v>1991</v>
       </c>
       <c r="E481" s="44">
-        <v>0.45700000000000002</v>
+        <v>2.2509999999999999</v>
       </c>
       <c r="F481" s="44">
         <v>0.24399999999999999</v>
@@ -28919,7 +28919,7 @@
         <v>1992</v>
       </c>
       <c r="E482" s="23">
-        <v>0.45700000000000002</v>
+        <v>2.2509999999999999</v>
       </c>
       <c r="F482" s="23">
         <v>0.64400000000000002</v>
@@ -28977,7 +28977,7 @@
         <v>1993</v>
       </c>
       <c r="E483" s="23">
-        <v>0.89300000000000002</v>
+        <v>2.6549999999999998</v>
       </c>
       <c r="F483" s="23">
         <v>0.59099999999999997</v>
@@ -29035,7 +29035,7 @@
         <v>1994</v>
       </c>
       <c r="E484" s="23">
-        <v>0.89300000000000002</v>
+        <v>2.6549999999999998</v>
       </c>
       <c r="F484" s="23">
         <v>0.59099999999999997</v>
@@ -29095,7 +29095,7 @@
         <v>1995</v>
       </c>
       <c r="E485" s="23">
-        <v>0.89300000000000002</v>
+        <v>2.6549999999999998</v>
       </c>
       <c r="F485" s="23">
         <v>0.59099999999999997</v>
@@ -29155,7 +29155,7 @@
         <v>1996</v>
       </c>
       <c r="E486" s="23">
-        <v>0.89300000000000002</v>
+        <v>2.6549999999999998</v>
       </c>
       <c r="F486" s="23">
         <v>0.59099999999999997</v>
@@ -29215,7 +29215,7 @@
         <v>1997</v>
       </c>
       <c r="E487" s="23">
-        <v>0.89300000000000002</v>
+        <v>2.6549999999999998</v>
       </c>
       <c r="F487" s="23">
         <v>0.59099999999999997</v>
@@ -29275,7 +29275,7 @@
         <v>1998</v>
       </c>
       <c r="E488" s="23">
-        <v>0.89300000000000002</v>
+        <v>2.6549999999999998</v>
       </c>
       <c r="F488" s="23">
         <v>0.59099999999999997</v>
@@ -29333,7 +29333,7 @@
         <v>1999</v>
       </c>
       <c r="E489" s="23">
-        <v>0.89300000000000002</v>
+        <v>2.6549999999999998</v>
       </c>
       <c r="F489" s="23">
         <v>0.56399999999999995</v>
@@ -29393,7 +29393,7 @@
         <v>2000</v>
       </c>
       <c r="E490" s="23">
-        <v>0.89300000000000002</v>
+        <v>2.6549999999999998</v>
       </c>
       <c r="F490" s="23">
         <v>0.61899999999999999</v>
@@ -29453,7 +29453,7 @@
         <v>2001</v>
       </c>
       <c r="E491" s="23">
-        <v>0.89300000000000002</v>
+        <v>2.6549999999999998</v>
       </c>
       <c r="F491" s="23">
         <v>0.61899999999999999</v>
@@ -29511,7 +29511,7 @@
         <v>2002</v>
       </c>
       <c r="E492" s="23">
-        <v>0.89300000000000002</v>
+        <v>2.6549999999999998</v>
       </c>
       <c r="F492" s="23">
         <v>0.61899999999999999</v>
@@ -29571,7 +29571,7 @@
         <v>2003</v>
       </c>
       <c r="E493" s="23">
-        <v>0.89300000000000002</v>
+        <v>2.6549999999999998</v>
       </c>
       <c r="F493" s="23">
         <v>0.61899999999999999</v>
@@ -29631,7 +29631,7 @@
         <v>2004</v>
       </c>
       <c r="E494" s="23">
-        <v>1.3080000000000001</v>
+        <v>2.99</v>
       </c>
       <c r="F494" s="23">
         <v>0.61899999999999999</v>
@@ -29691,7 +29691,7 @@
         <v>2005</v>
       </c>
       <c r="E495" s="23">
-        <v>1.3080000000000001</v>
+        <v>2.99</v>
       </c>
       <c r="F495" s="23">
         <v>0.61899999999999999</v>
@@ -29751,7 +29751,7 @@
         <v>2006</v>
       </c>
       <c r="E496" s="23">
-        <v>1.3080000000000001</v>
+        <v>2.99</v>
       </c>
       <c r="F496" s="23">
         <v>0.63100000000000001</v>
@@ -29811,7 +29811,7 @@
         <v>2007</v>
       </c>
       <c r="E497" s="23">
-        <v>1.3080000000000001</v>
+        <v>2.99</v>
       </c>
       <c r="F497" s="23">
         <v>0.69899999999999995</v>
@@ -29871,7 +29871,7 @@
         <v>2008</v>
       </c>
       <c r="E498" s="23">
-        <v>1.6379999999999999</v>
+        <v>3.2229999999999999</v>
       </c>
       <c r="F498" s="23">
         <v>0.79200000000000004</v>
@@ -29931,7 +29931,7 @@
         <v>2009</v>
       </c>
       <c r="E499" s="23">
-        <v>1.966</v>
+        <v>3.4249999999999998</v>
       </c>
       <c r="F499" s="23">
         <v>0.79200000000000004</v>
@@ -29991,7 +29991,7 @@
         <v>2010</v>
       </c>
       <c r="E500" s="23">
-        <v>1.966</v>
+        <v>3.4249999999999998</v>
       </c>
       <c r="F500" s="23">
         <v>0.75</v>
@@ -30051,7 +30051,7 @@
         <v>2011</v>
       </c>
       <c r="E501" s="23">
-        <v>1.966</v>
+        <v>3.4249999999999998</v>
       </c>
       <c r="F501" s="23">
         <v>0.75</v>
@@ -30111,7 +30111,7 @@
         <v>2012</v>
       </c>
       <c r="E502" s="23">
-        <v>1.663</v>
+        <v>3.238</v>
       </c>
       <c r="F502" s="23">
         <v>0.75</v>
@@ -30171,7 +30171,7 @@
         <v>2013</v>
       </c>
       <c r="E503" s="23">
-        <v>1.498</v>
+        <v>3.1280000000000001</v>
       </c>
       <c r="F503" s="23">
         <v>0.63600000000000001</v>
@@ -30231,7 +30231,7 @@
         <v>2014</v>
       </c>
       <c r="E504" s="23">
-        <v>1.498</v>
+        <v>3.1280000000000001</v>
       </c>
       <c r="F504" s="23">
         <v>0.63600000000000001</v>
@@ -30291,7 +30291,7 @@
         <v>2015</v>
       </c>
       <c r="E505" s="23">
-        <v>1.498</v>
+        <v>3.1280000000000001</v>
       </c>
       <c r="F505" s="23">
         <v>0.64800000000000002</v>
@@ -30351,7 +30351,7 @@
         <v>2016</v>
       </c>
       <c r="E506" s="23">
-        <v>1.498</v>
+        <v>3.1280000000000001</v>
       </c>
       <c r="F506" s="23">
         <v>0.60699999999999998</v>
@@ -30411,7 +30411,7 @@
         <v>2017</v>
       </c>
       <c r="E507" s="23">
-        <v>1.498</v>
+        <v>3.1280000000000001</v>
       </c>
       <c r="F507" s="23">
         <v>0.57899999999999996</v>
@@ -30471,7 +30471,7 @@
         <v>2018</v>
       </c>
       <c r="E508" s="25">
-        <v>1.3720000000000001</v>
+        <v>3.0390000000000001</v>
       </c>
       <c r="F508" s="25">
         <v>0.625</v>
@@ -30531,7 +30531,7 @@
         <v>1980</v>
       </c>
       <c r="E509" s="23">
-        <v>1.7549999999999999</v>
+        <v>3.302</v>
       </c>
       <c r="F509" s="23">
         <v>0.16700000000000001</v>
@@ -30587,7 +30587,7 @@
         <v>1981</v>
       </c>
       <c r="E510" s="23">
-        <v>1.7549999999999999</v>
+        <v>3.302</v>
       </c>
       <c r="F510" s="23">
         <v>0.71899999999999997</v>
@@ -30643,7 +30643,7 @@
         <v>1982</v>
       </c>
       <c r="E511" s="23">
-        <v>1.7549999999999999</v>
+        <v>3.302</v>
       </c>
       <c r="F511" s="23">
         <v>0.71899999999999997</v>
@@ -30699,7 +30699,7 @@
         <v>1983</v>
       </c>
       <c r="E512" s="23">
-        <v>1.7549999999999999</v>
+        <v>3.302</v>
       </c>
       <c r="F512" s="23">
         <v>0.74099999999999999</v>
@@ -30755,7 +30755,7 @@
         <v>1984</v>
       </c>
       <c r="E513" s="23">
-        <v>1.7549999999999999</v>
+        <v>3.302</v>
       </c>
       <c r="F513" s="23">
         <v>0.74099999999999999</v>
@@ -30811,7 +30811,7 @@
         <v>1985</v>
       </c>
       <c r="E514" s="23">
-        <v>1.2270000000000001</v>
+        <v>2.93</v>
       </c>
       <c r="F514" s="23">
         <v>0.69599999999999995</v>
@@ -30867,7 +30867,7 @@
         <v>1986</v>
       </c>
       <c r="E515" s="23">
-        <v>1.2270000000000001</v>
+        <v>2.93</v>
       </c>
       <c r="F515" s="23">
         <v>0.65800000000000003</v>
@@ -30923,7 +30923,7 @@
         <v>1987</v>
       </c>
       <c r="E516" s="23">
-        <v>1.2270000000000001</v>
+        <v>2.93</v>
       </c>
       <c r="F516" s="23">
         <v>0.65800000000000003</v>
@@ -30979,7 +30979,7 @@
         <v>1988</v>
       </c>
       <c r="E517" s="23">
-        <v>1.2270000000000001</v>
+        <v>2.93</v>
       </c>
       <c r="F517" s="23">
         <v>0.65800000000000003</v>
@@ -31033,7 +31033,7 @@
         <v>1989</v>
       </c>
       <c r="E518" s="23">
-        <v>1.2270000000000001</v>
+        <v>2.93</v>
       </c>
       <c r="F518" s="23">
         <v>0.65800000000000003</v>
@@ -31089,7 +31089,7 @@
         <v>1990</v>
       </c>
       <c r="E519" s="23">
-        <v>-0.48299999999999998</v>
+        <v>1.2769999999999999</v>
       </c>
       <c r="F519" s="23">
         <v>0.42799999999999999</v>
@@ -31145,7 +31145,7 @@
         <v>1991</v>
       </c>
       <c r="E520" s="44">
-        <v>-0.48299999999999998</v>
+        <v>1.2769999999999999</v>
       </c>
       <c r="F520" s="44">
         <v>0.48599999999999999</v>
@@ -31201,7 +31201,7 @@
         <v>1992</v>
       </c>
       <c r="E521" s="23">
-        <v>-1.8049999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F521" s="23">
         <v>0.39800000000000002</v>
@@ -31259,7 +31259,7 @@
         <v>1993</v>
       </c>
       <c r="E522" s="23">
-        <v>-1.8049999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F522" s="23">
         <v>5.1999999999999998E-2</v>
@@ -31319,7 +31319,7 @@
         <v>1994</v>
       </c>
       <c r="E523" s="23">
-        <v>-1.8049999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F523" s="23">
         <v>5.1999999999999998E-2</v>
@@ -31375,7 +31375,7 @@
         <v>1995</v>
       </c>
       <c r="E524" s="23">
-        <v>-1.8049999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F524" s="23">
         <v>5.1999999999999998E-2</v>
@@ -31433,7 +31433,7 @@
         <v>1996</v>
       </c>
       <c r="E525" s="23">
-        <v>-1.8049999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F525" s="23">
         <v>6.0999999999999999E-2</v>
@@ -31491,7 +31491,7 @@
         <v>1997</v>
       </c>
       <c r="E526" s="23">
-        <v>-1.8049999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F526" s="23">
         <v>6.0999999999999999E-2</v>
@@ -31551,7 +31551,7 @@
         <v>1998</v>
       </c>
       <c r="E527" s="23">
-        <v>-1.8049999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F527" s="23">
         <v>5.5E-2</v>
@@ -31611,7 +31611,7 @@
         <v>1999</v>
       </c>
       <c r="E528" s="23">
-        <v>-1.8049999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F528" s="23">
         <v>5.5E-2</v>
@@ -31671,7 +31671,7 @@
         <v>2000</v>
       </c>
       <c r="E529" s="23">
-        <v>1.6579999999999999</v>
+        <v>3.238</v>
       </c>
       <c r="F529" s="23">
         <v>6.5000000000000002E-2</v>
@@ -31731,7 +31731,7 @@
         <v>2001</v>
       </c>
       <c r="E530" s="23">
-        <v>2.4159999999999999</v>
+        <v>3.6469999999999998</v>
       </c>
       <c r="F530" s="23">
         <v>0.13800000000000001</v>
@@ -31791,7 +31791,7 @@
         <v>2002</v>
       </c>
       <c r="E531" s="23">
-        <v>2.4159999999999999</v>
+        <v>3.6469999999999998</v>
       </c>
       <c r="F531" s="23">
         <v>0.83099999999999996</v>
@@ -31851,7 +31851,7 @@
         <v>2003</v>
       </c>
       <c r="E532" s="23">
-        <v>2.4159999999999999</v>
+        <v>3.6469999999999998</v>
       </c>
       <c r="F532" s="23">
         <v>0.83099999999999996</v>
@@ -31911,7 +31911,7 @@
         <v>2004</v>
       </c>
       <c r="E533" s="23">
-        <v>2.4159999999999999</v>
+        <v>3.6469999999999998</v>
       </c>
       <c r="F533" s="23">
         <v>0.83099999999999996</v>
@@ -31971,7 +31971,7 @@
         <v>2005</v>
       </c>
       <c r="E534" s="23">
-        <v>2.4159999999999999</v>
+        <v>3.6469999999999998</v>
       </c>
       <c r="F534" s="23">
         <v>0.81699999999999995</v>
@@ -32031,7 +32031,7 @@
         <v>2006</v>
       </c>
       <c r="E535" s="23">
-        <v>2.129</v>
+        <v>3.5179999999999998</v>
       </c>
       <c r="F535" s="23">
         <v>0.755</v>
@@ -32091,7 +32091,7 @@
         <v>2007</v>
       </c>
       <c r="E536" s="23">
-        <v>2.129</v>
+        <v>3.5179999999999998</v>
       </c>
       <c r="F536" s="23">
         <v>0.73799999999999999</v>
@@ -32151,7 +32151,7 @@
         <v>2008</v>
       </c>
       <c r="E537" s="23">
-        <v>2.129</v>
+        <v>3.5179999999999998</v>
       </c>
       <c r="F537" s="23">
         <v>0.73799999999999999</v>
@@ -32211,7 +32211,7 @@
         <v>2009</v>
       </c>
       <c r="E538" s="23">
-        <v>2.129</v>
+        <v>3.5179999999999998</v>
       </c>
       <c r="F538" s="23">
         <v>0.72799999999999998</v>
@@ -32271,7 +32271,7 @@
         <v>2010</v>
       </c>
       <c r="E539" s="23">
-        <v>2.129</v>
+        <v>3.5179999999999998</v>
       </c>
       <c r="F539" s="23">
         <v>0.78100000000000003</v>
@@ -32331,7 +32331,7 @@
         <v>2011</v>
       </c>
       <c r="E540" s="23">
-        <v>2.1389999999999998</v>
+        <v>3.524</v>
       </c>
       <c r="F540" s="23">
         <v>0.79500000000000004</v>
@@ -32391,7 +32391,7 @@
         <v>2012</v>
       </c>
       <c r="E541" s="23">
-        <v>2.1389999999999998</v>
+        <v>3.524</v>
       </c>
       <c r="F541" s="23">
         <v>0.77400000000000002</v>
@@ -32449,7 +32449,7 @@
         <v>2013</v>
       </c>
       <c r="E542" s="23">
-        <v>2.117</v>
+        <v>3.5059999999999998</v>
       </c>
       <c r="F542" s="23">
         <v>0.83699999999999997</v>
@@ -32509,7 +32509,7 @@
         <v>2014</v>
       </c>
       <c r="E543" s="23">
-        <v>2.117</v>
+        <v>3.5059999999999998</v>
       </c>
       <c r="F543" s="23">
         <v>0.83699999999999997</v>
@@ -32569,7 +32569,7 @@
         <v>2015</v>
       </c>
       <c r="E544" s="23">
-        <v>2.0630000000000002</v>
+        <v>3.4780000000000002</v>
       </c>
       <c r="F544" s="23">
         <v>0.82299999999999995</v>
@@ -32629,7 +32629,7 @@
         <v>2016</v>
       </c>
       <c r="E545" s="23">
-        <v>2.081</v>
+        <v>3.49</v>
       </c>
       <c r="F545" s="23">
         <v>0.82299999999999995</v>
@@ -32687,7 +32687,7 @@
         <v>2017</v>
       </c>
       <c r="E546" s="23">
-        <v>2.2589999999999999</v>
+        <v>3.5779999999999998</v>
       </c>
       <c r="F546" s="23">
         <v>0.83299999999999996</v>
@@ -32747,7 +32747,7 @@
         <v>2018</v>
       </c>
       <c r="E547" s="25">
-        <v>2.0179999999999998</v>
+        <v>3.452</v>
       </c>
       <c r="F547" s="25">
         <v>0.83099999999999996</v>
@@ -32807,7 +32807,7 @@
         <v>1980</v>
       </c>
       <c r="E548" s="23">
-        <v>-2.4340000000000002</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F548" s="23">
         <v>0.21299999999999999</v>
@@ -32863,7 +32863,7 @@
         <v>1981</v>
       </c>
       <c r="E549" s="23">
-        <v>-2.4340000000000002</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F549" s="23">
         <v>0.21299999999999999</v>
@@ -32919,7 +32919,7 @@
         <v>1982</v>
       </c>
       <c r="E550" s="23">
-        <v>-2.4340000000000002</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F550" s="23">
         <v>0.21299999999999999</v>
@@ -32975,7 +32975,7 @@
         <v>1983</v>
       </c>
       <c r="E551" s="23">
-        <v>-2.4340000000000002</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F551" s="23">
         <v>0.27</v>
@@ -33029,7 +33029,7 @@
         <v>1984</v>
       </c>
       <c r="E552" s="23">
-        <v>-2.4340000000000002</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F552" s="23">
         <v>0.248</v>
@@ -33085,7 +33085,7 @@
         <v>1985</v>
       </c>
       <c r="E553" s="23">
-        <v>0.746</v>
+        <v>2.5270000000000001</v>
       </c>
       <c r="F553" s="23">
         <v>0.748</v>
@@ -33139,7 +33139,7 @@
         <v>1986</v>
       </c>
       <c r="E554" s="23">
-        <v>1.0589999999999999</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="F554" s="23">
         <v>0.73599999999999999</v>
@@ -33195,7 +33195,7 @@
         <v>1987</v>
       </c>
       <c r="E555" s="23">
-        <v>1.0589999999999999</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="F555" s="23">
         <v>0.83799999999999997</v>
@@ -33251,7 +33251,7 @@
         <v>1988</v>
       </c>
       <c r="E556" s="23">
-        <v>1.0589999999999999</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="F556" s="23">
         <v>0.83799999999999997</v>
@@ -33305,7 +33305,7 @@
         <v>1989</v>
       </c>
       <c r="E557" s="23">
-        <v>1.0589999999999999</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="F557" s="23">
         <v>0.83799999999999997</v>
@@ -33359,7 +33359,7 @@
         <v>1990</v>
       </c>
       <c r="E558" s="23">
-        <v>1.0589999999999999</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="F558" s="23">
         <v>0.90300000000000002</v>
@@ -33415,7 +33415,7 @@
         <v>1991</v>
       </c>
       <c r="E559" s="44">
-        <v>1.278</v>
+        <v>2.968</v>
       </c>
       <c r="F559" s="44">
         <v>0.90300000000000002</v>
@@ -33471,7 +33471,7 @@
         <v>1992</v>
       </c>
       <c r="E560" s="23">
-        <v>1.278</v>
+        <v>2.968</v>
       </c>
       <c r="F560" s="23">
         <v>0.90300000000000002</v>
@@ -33531,7 +33531,7 @@
         <v>1993</v>
       </c>
       <c r="E561" s="23">
-        <v>1.278</v>
+        <v>2.968</v>
       </c>
       <c r="F561" s="23">
         <v>0.90300000000000002</v>
@@ -33589,7 +33589,7 @@
         <v>1994</v>
       </c>
       <c r="E562" s="23">
-        <v>1.278</v>
+        <v>2.968</v>
       </c>
       <c r="F562" s="23">
         <v>0.90300000000000002</v>
@@ -33647,7 +33647,7 @@
         <v>1995</v>
       </c>
       <c r="E563" s="23">
-        <v>1.278</v>
+        <v>2.968</v>
       </c>
       <c r="F563" s="23">
         <v>0.90300000000000002</v>
@@ -33707,7 +33707,7 @@
         <v>1996</v>
       </c>
       <c r="E564" s="23">
-        <v>1.278</v>
+        <v>2.968</v>
       </c>
       <c r="F564" s="23">
         <v>0.90300000000000002</v>
@@ -33767,7 +33767,7 @@
         <v>1997</v>
       </c>
       <c r="E565" s="23">
-        <v>1.278</v>
+        <v>2.968</v>
       </c>
       <c r="F565" s="23">
         <v>0.89100000000000001</v>
@@ -33827,7 +33827,7 @@
         <v>1998</v>
       </c>
       <c r="E566" s="23">
-        <v>1.6040000000000001</v>
+        <v>3.2029999999999998</v>
       </c>
       <c r="F566" s="23">
         <v>0.89400000000000002</v>
@@ -33887,7 +33887,7 @@
         <v>1999</v>
       </c>
       <c r="E567" s="23">
-        <v>1.6040000000000001</v>
+        <v>3.2029999999999998</v>
       </c>
       <c r="F567" s="23">
         <v>0.89900000000000002</v>
@@ -33947,7 +33947,7 @@
         <v>2000</v>
       </c>
       <c r="E568" s="23">
-        <v>1.857</v>
+        <v>3.3620000000000001</v>
       </c>
       <c r="F568" s="23">
         <v>0.88800000000000001</v>
@@ -34007,7 +34007,7 @@
         <v>2001</v>
       </c>
       <c r="E569" s="23">
-        <v>1.857</v>
+        <v>3.3620000000000001</v>
       </c>
       <c r="F569" s="23">
         <v>0.90800000000000003</v>
@@ -34067,7 +34067,7 @@
         <v>2002</v>
       </c>
       <c r="E570" s="23">
-        <v>1.857</v>
+        <v>3.3620000000000001</v>
       </c>
       <c r="F570" s="23">
         <v>0.90800000000000003</v>
@@ -34127,7 +34127,7 @@
         <v>2003</v>
       </c>
       <c r="E571" s="23">
-        <v>1.857</v>
+        <v>3.3620000000000001</v>
       </c>
       <c r="F571" s="23">
         <v>0.82799999999999996</v>
@@ -34185,7 +34185,7 @@
         <v>2004</v>
       </c>
       <c r="E572" s="23">
-        <v>1.857</v>
+        <v>3.3620000000000001</v>
       </c>
       <c r="F572" s="23">
         <v>0.90300000000000002</v>
@@ -34245,7 +34245,7 @@
         <v>2005</v>
       </c>
       <c r="E573" s="23">
-        <v>2.7410000000000001</v>
+        <v>3.7730000000000001</v>
       </c>
       <c r="F573" s="23">
         <v>0.91200000000000003</v>
@@ -34305,7 +34305,7 @@
         <v>2006</v>
       </c>
       <c r="E574" s="23">
-        <v>2.7410000000000001</v>
+        <v>3.7730000000000001</v>
       </c>
       <c r="F574" s="23">
         <v>0.93200000000000005</v>
@@ -34365,7 +34365,7 @@
         <v>2007</v>
       </c>
       <c r="E575" s="23">
-        <v>2.7410000000000001</v>
+        <v>3.7730000000000001</v>
       </c>
       <c r="F575" s="23">
         <v>0.93200000000000005</v>
@@ -34425,7 +34425,7 @@
         <v>2008</v>
       </c>
       <c r="E576" s="23">
-        <v>2.7410000000000001</v>
+        <v>3.7730000000000001</v>
       </c>
       <c r="F576" s="23">
         <v>0.91800000000000004</v>
@@ -34485,7 +34485,7 @@
         <v>2009</v>
       </c>
       <c r="E577" s="23">
-        <v>2.7410000000000001</v>
+        <v>3.7730000000000001</v>
       </c>
       <c r="F577" s="23">
         <v>0.91800000000000004</v>
@@ -34545,7 +34545,7 @@
         <v>2010</v>
       </c>
       <c r="E578" s="23">
-        <v>2.7410000000000001</v>
+        <v>3.7730000000000001</v>
       </c>
       <c r="F578" s="23">
         <v>0.91100000000000003</v>
@@ -34605,7 +34605,7 @@
         <v>2011</v>
       </c>
       <c r="E579" s="23">
-        <v>2.7410000000000001</v>
+        <v>3.7730000000000001</v>
       </c>
       <c r="F579" s="23">
         <v>0.91100000000000003</v>
@@ -34665,7 +34665,7 @@
         <v>2012</v>
       </c>
       <c r="E580" s="23">
-        <v>2.7410000000000001</v>
+        <v>3.7730000000000001</v>
       </c>
       <c r="F580" s="23">
         <v>0.91100000000000003</v>
@@ -34725,7 +34725,7 @@
         <v>2013</v>
       </c>
       <c r="E581" s="23">
-        <v>2.7410000000000001</v>
+        <v>3.7730000000000001</v>
       </c>
       <c r="F581" s="23">
         <v>0.9</v>
@@ -34785,7 +34785,7 @@
         <v>2014</v>
       </c>
       <c r="E582" s="23">
-        <v>2.7410000000000001</v>
+        <v>3.7730000000000001</v>
       </c>
       <c r="F582" s="23">
         <v>0.9</v>
@@ -34845,7 +34845,7 @@
         <v>2015</v>
       </c>
       <c r="E583" s="23">
-        <v>2.464</v>
+        <v>3.6709999999999998</v>
       </c>
       <c r="F583" s="23">
         <v>0.9</v>
@@ -34905,7 +34905,7 @@
         <v>2016</v>
       </c>
       <c r="E584" s="23">
-        <v>2.464</v>
+        <v>3.6709999999999998</v>
       </c>
       <c r="F584" s="23">
         <v>0.9</v>
@@ -34965,7 +34965,7 @@
         <v>2017</v>
       </c>
       <c r="E585" s="23">
-        <v>2.2400000000000002</v>
+        <v>3.569</v>
       </c>
       <c r="F585" s="23">
         <v>0.90600000000000003</v>
@@ -35025,7 +35025,7 @@
         <v>2018</v>
       </c>
       <c r="E586" s="25">
-        <v>2.073</v>
+        <v>3.4809999999999999</v>
       </c>
       <c r="F586" s="25">
         <v>0.90400000000000003</v>
@@ -35085,7 +35085,7 @@
         <v>1980</v>
       </c>
       <c r="E587" s="23">
-        <v>1.03</v>
+        <v>2.7709999999999999</v>
       </c>
       <c r="F587" s="23">
         <v>0.73199999999999998</v>
@@ -35141,7 +35141,7 @@
         <v>1981</v>
       </c>
       <c r="E588" s="23">
-        <v>1.03</v>
+        <v>2.7709999999999999</v>
       </c>
       <c r="F588" s="23">
         <v>0.73199999999999998</v>
@@ -35197,7 +35197,7 @@
         <v>1982</v>
       </c>
       <c r="E589" s="23">
-        <v>1.03</v>
+        <v>2.7709999999999999</v>
       </c>
       <c r="F589" s="23">
         <v>0.73199999999999998</v>
@@ -35253,7 +35253,7 @@
         <v>1983</v>
       </c>
       <c r="E590" s="23">
-        <v>1.03</v>
+        <v>2.7709999999999999</v>
       </c>
       <c r="F590" s="23">
         <v>0.73199999999999998</v>
@@ -35309,7 +35309,7 @@
         <v>1984</v>
       </c>
       <c r="E591" s="23">
-        <v>1.03</v>
+        <v>2.7709999999999999</v>
       </c>
       <c r="F591" s="23">
         <v>0.73199999999999998</v>
@@ -35365,7 +35365,7 @@
         <v>1985</v>
       </c>
       <c r="E592" s="23">
-        <v>1.0429999999999999</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="F592" s="23">
         <v>0.73199999999999998</v>
@@ -35421,7 +35421,7 @@
         <v>1986</v>
       </c>
       <c r="E593" s="23">
-        <v>0.85</v>
+        <v>2.6160000000000001</v>
       </c>
       <c r="F593" s="23">
         <v>0.73199999999999998</v>
@@ -35477,7 +35477,7 @@
         <v>1987</v>
       </c>
       <c r="E594" s="23">
-        <v>0.85</v>
+        <v>2.6160000000000001</v>
       </c>
       <c r="F594" s="23">
         <v>0.73199999999999998</v>
@@ -35533,7 +35533,7 @@
         <v>1988</v>
       </c>
       <c r="E595" s="23">
-        <v>1.0429999999999999</v>
+        <v>2.7829999999999999</v>
       </c>
       <c r="F595" s="23">
         <v>0.70799999999999996</v>
@@ -35589,7 +35589,7 @@
         <v>1989</v>
       </c>
       <c r="E596" s="23">
-        <v>1.0669999999999999</v>
+        <v>2.8010000000000002</v>
       </c>
       <c r="F596" s="23">
         <v>0.66</v>
@@ -35645,7 +35645,7 @@
         <v>1990</v>
       </c>
       <c r="E597" s="23">
-        <v>1.288</v>
+        <v>2.9769999999999999</v>
       </c>
       <c r="F597" s="23">
         <v>0.65100000000000002</v>
@@ -35701,7 +35701,7 @@
         <v>1991</v>
       </c>
       <c r="E598" s="44">
-        <v>1.288</v>
+        <v>2.9769999999999999</v>
       </c>
       <c r="F598" s="44">
         <v>0.74</v>
@@ -35755,7 +35755,7 @@
         <v>1992</v>
       </c>
       <c r="E599" s="23">
-        <v>1.08</v>
+        <v>2.8119999999999998</v>
       </c>
       <c r="F599" s="23">
         <v>0.74</v>
@@ -35813,7 +35813,7 @@
         <v>1993</v>
       </c>
       <c r="E600" s="23">
-        <v>1.2729999999999999</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="F600" s="23">
         <v>0.74</v>
@@ -35869,7 +35869,7 @@
         <v>1994</v>
       </c>
       <c r="E601" s="23">
-        <v>1.2729999999999999</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="F601" s="23">
         <v>0.68</v>
@@ -35927,7 +35927,7 @@
         <v>1995</v>
       </c>
       <c r="E602" s="23">
-        <v>1.2729999999999999</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="F602" s="23">
         <v>0.69</v>
@@ -35987,7 +35987,7 @@
         <v>1996</v>
       </c>
       <c r="E603" s="23">
-        <v>1.2729999999999999</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="F603" s="23">
         <v>0.69</v>
@@ -36045,7 +36045,7 @@
         <v>1997</v>
       </c>
       <c r="E604" s="23">
-        <v>1.2729999999999999</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="F604" s="23">
         <v>0.69</v>
@@ -36103,7 +36103,7 @@
         <v>1998</v>
       </c>
       <c r="E605" s="23">
-        <v>1.2729999999999999</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="F605" s="23">
         <v>0.625</v>
@@ -36161,7 +36161,7 @@
         <v>1999</v>
       </c>
       <c r="E606" s="23">
-        <v>0.34399999999999997</v>
+        <v>2.1349999999999998</v>
       </c>
       <c r="F606" s="23">
         <v>0.52700000000000002</v>
@@ -36219,7 +36219,7 @@
         <v>2000</v>
       </c>
       <c r="E607" s="23">
-        <v>0.16200000000000001</v>
+        <v>1.948</v>
       </c>
       <c r="F607" s="23">
         <v>0.30399999999999999</v>
@@ -36277,7 +36277,7 @@
         <v>2001</v>
       </c>
       <c r="E608" s="23">
-        <v>-2.4E-2</v>
+        <v>1.76</v>
       </c>
       <c r="F608" s="23">
         <v>0.30399999999999999</v>
@@ -36337,7 +36337,7 @@
         <v>2002</v>
       </c>
       <c r="E609" s="23">
-        <v>-0.04</v>
+        <v>1.7370000000000001</v>
       </c>
       <c r="F609" s="23">
         <v>0.30399999999999999</v>
@@ -36397,7 +36397,7 @@
         <v>2003</v>
       </c>
       <c r="E610" s="23">
-        <v>-0.13900000000000001</v>
+        <v>1.631</v>
       </c>
       <c r="F610" s="23">
         <v>0.32100000000000001</v>
@@ -36457,7 +36457,7 @@
         <v>2004</v>
       </c>
       <c r="E611" s="23">
-        <v>-0.18</v>
+        <v>1.591</v>
       </c>
       <c r="F611" s="23">
         <v>0.20300000000000001</v>
@@ -36515,7 +36515,7 @@
         <v>2005</v>
       </c>
       <c r="E612" s="23">
-        <v>-0.18</v>
+        <v>1.591</v>
       </c>
       <c r="F612" s="23">
         <v>7.9000000000000001E-2</v>
@@ -36575,7 +36575,7 @@
         <v>2006</v>
       </c>
       <c r="E613" s="23">
-        <v>-0.22800000000000001</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="F613" s="23">
         <v>7.4999999999999997E-2</v>
@@ -36635,7 +36635,7 @@
         <v>2007</v>
       </c>
       <c r="E614" s="23">
-        <v>-0.43</v>
+        <v>1.3340000000000001</v>
       </c>
       <c r="F614" s="23">
         <v>7.4999999999999997E-2</v>
@@ -36695,7 +36695,7 @@
         <v>2008</v>
       </c>
       <c r="E615" s="23">
-        <v>-0.45900000000000002</v>
+        <v>1.298</v>
       </c>
       <c r="F615" s="23">
         <v>7.4999999999999997E-2</v>
@@ -36755,7 +36755,7 @@
         <v>2009</v>
       </c>
       <c r="E616" s="23">
-        <v>-0.56999999999999995</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="F616" s="23">
         <v>5.6000000000000001E-2</v>
@@ -36815,7 +36815,7 @@
         <v>2010</v>
       </c>
       <c r="E617" s="23">
-        <v>-0.45100000000000001</v>
+        <v>1.3089999999999999</v>
       </c>
       <c r="F617" s="23">
         <v>6.6000000000000003E-2</v>
@@ -36875,7 +36875,7 @@
         <v>2011</v>
       </c>
       <c r="E618" s="23">
-        <v>-0.44900000000000001</v>
+        <v>1.3129999999999999</v>
       </c>
       <c r="F618" s="23">
         <v>6.6000000000000003E-2</v>
@@ -36935,7 +36935,7 @@
         <v>2012</v>
       </c>
       <c r="E619" s="23">
-        <v>-0.51700000000000002</v>
+        <v>1.2370000000000001</v>
       </c>
       <c r="F619" s="23">
         <v>6.6000000000000003E-2</v>
@@ -36995,7 +36995,7 @@
         <v>2013</v>
       </c>
       <c r="E620" s="23">
-        <v>-1.1240000000000001</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="F620" s="23">
         <v>0.04</v>
@@ -37053,7 +37053,7 @@
         <v>2014</v>
       </c>
       <c r="E621" s="23">
-        <v>-1.2509999999999999</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="F621" s="23">
         <v>3.1E-2</v>
@@ -37111,7 +37111,7 @@
         <v>2015</v>
       </c>
       <c r="E622" s="23">
-        <v>-1.554</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="F622" s="23">
         <v>0.03</v>
@@ -37161,7 +37161,7 @@
         <v>2016</v>
       </c>
       <c r="E623" s="23">
-        <v>-1.546</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="F623" s="23">
         <v>2.4E-2</v>
@@ -37211,7 +37211,7 @@
         <v>2017</v>
       </c>
       <c r="E624" s="23">
-        <v>-1.8420000000000001</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="F624" s="23">
         <v>3.4000000000000002E-2</v>
@@ -37261,7 +37261,7 @@
         <v>2018</v>
       </c>
       <c r="E625" s="25">
-        <v>-2.379</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F625" s="25">
         <v>2.3E-2</v>

--- a/Populism Index/data.xlsx
+++ b/Populism Index/data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1398" documentId="8_{FB72FBC9-BFA1-43D6-AEE1-7E35D9B366DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B0541A54-D0E9-4425-8793-CB8D452076CF}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1200" windowWidth="45000" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15810" yWindow="1080" windowWidth="45000" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STATA" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,12 +232,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -975,10 +969,10 @@
   <dimension ref="A1:Y391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E299" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E371" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A367" sqref="A367:XFD367"/>
+      <selection pane="bottomRight" activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25737,7 +25731,7 @@
   <dimension ref="A1:Y547"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E479" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E224" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G547" sqref="G547"/>

--- a/Populism Index/data.xlsx
+++ b/Populism Index/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/Working Papers/Paper - An Index of Latin American Populism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1398" documentId="8_{FB72FBC9-BFA1-43D6-AEE1-7E35D9B366DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B0541A54-D0E9-4425-8793-CB8D452076CF}"/>
+  <xr:revisionPtr revIDLastSave="2435" documentId="8_{FB72FBC9-BFA1-43D6-AEE1-7E35D9B366DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9D7BBD28-8D22-4CF8-B03C-E38A863AE2FA}"/>
   <bookViews>
-    <workbookView xWindow="-15810" yWindow="1080" windowWidth="45000" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11010" yWindow="2235" windowWidth="45000" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STATA" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,8 +233,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,8 +294,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -501,12 +512,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -655,9 +676,16 @@
     <xf numFmtId="2" fontId="1" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="10" borderId="20" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{9DBEA3C5-CC8F-4A37-A23F-F8F9DB5E1DEC}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -969,10 +997,10 @@
   <dimension ref="A1:Y391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E371" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E194" sqref="E194"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1170,7 @@
         <v>4.5</v>
       </c>
       <c r="N3" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="36">
         <v>0</v>
@@ -1931,7 +1959,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1996,7 +2024,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2060,8 +2088,11 @@
       <c r="U18" s="38">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W18" s="50">
+        <v>4.3419303894042969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2125,8 +2156,11 @@
       <c r="U19" s="38">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="50">
+        <v>4.5110511779785156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2190,8 +2224,11 @@
       <c r="U20" s="38">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W20" s="50">
+        <v>4.6801714897155762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2255,8 +2292,11 @@
       <c r="U21" s="38">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="50">
+        <v>4.7085094451904297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2320,8 +2360,11 @@
       <c r="U22" s="38">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W22" s="50">
+        <v>4.5368471145629883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2385,8 +2428,11 @@
       <c r="U23" s="38">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W23" s="50">
+        <v>4.8974595069885254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2450,8 +2496,11 @@
       <c r="U24" s="38">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W24" s="50">
+        <v>5.2080717086791992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2515,8 +2564,11 @@
       <c r="U25" s="38">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W25" s="50">
+        <v>5.0763626098632813</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2557,7 +2609,7 @@
         <v>13.5221004486084</v>
       </c>
       <c r="N26" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="36">
         <v>0</v>
@@ -2580,8 +2632,11 @@
       <c r="U26" s="38">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W26" s="50">
+        <v>5.2101612091064453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2622,7 +2677,7 @@
         <v>11.5059003829956</v>
       </c>
       <c r="N27" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="36">
         <v>0</v>
@@ -2645,8 +2700,11 @@
       <c r="U27" s="38">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W27" s="50">
+        <v>5.2118077278137207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2687,7 +2745,7 @@
         <v>10.0775003433228</v>
       </c>
       <c r="N28" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="36">
         <v>0</v>
@@ -2710,8 +2768,11 @@
       <c r="U28" s="38">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W28" s="50">
+        <v>5.2283806800842285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2775,8 +2836,11 @@
       <c r="U29" s="38">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W29" s="50">
+        <v>5.1666374206542969</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2840,8 +2904,11 @@
       <c r="U30" s="38">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W30" s="50">
+        <v>5.3516445159912109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2905,8 +2972,11 @@
       <c r="U31" s="38">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W31" s="50">
+        <v>5.3952131271362305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2970,8 +3040,11 @@
       <c r="U32" s="38">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W32" s="50">
+        <v>5.3201446533203125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -3035,8 +3108,11 @@
       <c r="U33" s="38">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W33" s="50">
+        <v>5.2910547256469727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -3100,8 +3176,11 @@
       <c r="U34" s="38">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W34" s="50">
+        <v>5.4638056755065918</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -3165,8 +3244,11 @@
       <c r="U35" s="38">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W35" s="50">
+        <v>5.4564847946166992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -3230,8 +3312,11 @@
       <c r="U36" s="38">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W36" s="50">
+        <v>5.566166877746582</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -3293,8 +3378,11 @@
       <c r="U37" s="38">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W37" s="50">
+        <v>5.4530520439147949</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -3356,8 +3444,11 @@
       <c r="U38" s="38">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W38" s="51">
+        <v>4.9925618171691895</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -3422,7 +3513,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -3485,7 +3576,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>1</v>
       </c>
@@ -3523,7 +3614,7 @@
         <v>6.0999999046325701</v>
       </c>
       <c r="N41" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="36">
         <v>0</v>
@@ -3545,7 +3636,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>2</v>
       </c>
@@ -3583,7 +3674,7 @@
         <v>10.1599998474121</v>
       </c>
       <c r="N42" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="36">
         <v>0</v>
@@ -3605,7 +3696,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>3</v>
       </c>
@@ -3643,7 +3734,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="N43" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="36">
         <v>0</v>
@@ -3665,7 +3756,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>4</v>
       </c>
@@ -3703,7 +3794,7 @@
         <v>14.189999580383301</v>
       </c>
       <c r="N44" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" s="36">
         <v>0</v>
@@ -3725,7 +3816,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>5</v>
       </c>
@@ -3763,7 +3854,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="N45" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" s="36">
         <v>0</v>
@@ -3785,7 +3876,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>6</v>
       </c>
@@ -3823,7 +3914,7 @@
         <v>19.280000686645501</v>
       </c>
       <c r="N46" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="36">
         <v>0</v>
@@ -3845,7 +3936,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>7</v>
       </c>
@@ -3905,7 +3996,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>8</v>
       </c>
@@ -6067,7 +6158,7 @@
         <v>3.9900000095367401</v>
       </c>
       <c r="N81" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" s="36">
         <v>0</v>
@@ -6127,7 +6218,7 @@
         <v>4.8299999237060502</v>
       </c>
       <c r="N82" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82" s="36">
         <v>0</v>
@@ -6925,7 +7016,7 @@
         <v>6.4204998016357404</v>
       </c>
       <c r="N95" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95" s="36">
         <v>0</v>
@@ -6991,7 +7082,7 @@
         <v>7.2533998489379901</v>
       </c>
       <c r="N96" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O96" s="36">
         <v>0</v>
@@ -11157,7 +11248,7 @@
       <c r="L161" s="33"/>
       <c r="M161" s="36"/>
       <c r="N161" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O161" s="36">
         <v>0</v>
@@ -11215,7 +11306,7 @@
       <c r="L162" s="33"/>
       <c r="M162" s="36"/>
       <c r="N162" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O162" s="36">
         <v>0</v>
@@ -11273,7 +11364,7 @@
       <c r="L163" s="33"/>
       <c r="M163" s="36"/>
       <c r="N163" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O163" s="36">
         <v>0</v>
@@ -11331,7 +11422,7 @@
       <c r="L164" s="33"/>
       <c r="M164" s="36"/>
       <c r="N164" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O164" s="36">
         <v>0</v>
@@ -13267,7 +13358,7 @@
         <v>4.5970001220703098</v>
       </c>
       <c r="N194" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O194" s="36">
         <v>0</v>
@@ -13333,7 +13424,7 @@
         <v>3.8361999988555899</v>
       </c>
       <c r="N195" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O195" s="36">
         <v>0</v>
@@ -13397,7 +13488,7 @@
         <v>3.5295999050140399</v>
       </c>
       <c r="N196" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O196" s="37">
         <v>0</v>
@@ -13573,7 +13664,7 @@
       <c r="L199" s="33"/>
       <c r="M199" s="36"/>
       <c r="N199" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O199" s="36">
         <v>0</v>
@@ -16339,7 +16430,7 @@
         <v>5.8000001907348597</v>
       </c>
       <c r="N243" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O243" s="36">
         <v>0</v>
@@ -16399,7 +16490,7 @@
         <v>6</v>
       </c>
       <c r="N244" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O244" s="36">
         <v>0</v>
@@ -16459,7 +16550,7 @@
         <v>8.6599998474121094</v>
       </c>
       <c r="N245" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O245" s="36">
         <v>0</v>
@@ -16517,7 +16608,7 @@
       <c r="L246" s="33"/>
       <c r="M246" s="36"/>
       <c r="N246" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O246" s="36">
         <v>0</v>
@@ -16575,7 +16666,7 @@
       <c r="L247" s="47"/>
       <c r="M247" s="48"/>
       <c r="N247" s="48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O247" s="48">
         <v>0</v>
@@ -16633,7 +16724,7 @@
       <c r="L248" s="33"/>
       <c r="M248" s="36"/>
       <c r="N248" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O248" s="36">
         <v>0</v>
@@ -18309,7 +18400,7 @@
       </c>
       <c r="M274" s="37"/>
       <c r="N274" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O274" s="37">
         <v>0</v>
@@ -18489,7 +18580,7 @@
         <v>5.6100001335143999</v>
       </c>
       <c r="N277" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O277" s="36">
         <v>0</v>
@@ -20977,7 +21068,7 @@
         <v>6.9800000190734899</v>
       </c>
       <c r="N316" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O316" s="36">
         <v>0</v>
@@ -21335,7 +21426,7 @@
       <c r="L322" s="33"/>
       <c r="M322" s="36"/>
       <c r="N322" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O322" s="36">
         <v>0</v>
@@ -21395,7 +21486,7 @@
         <v>7.9200000762939498</v>
       </c>
       <c r="N323" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O323" s="36">
         <v>0</v>
@@ -21763,7 +21854,7 @@
       </c>
       <c r="M329" s="36"/>
       <c r="N329" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O329" s="36">
         <v>0</v>
@@ -21827,7 +21918,7 @@
         <v>7.0700001716613796</v>
       </c>
       <c r="N330" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O330" s="36">
         <v>0</v>
@@ -23335,7 +23426,7 @@
         <v>5.8899998664856001</v>
       </c>
       <c r="N353" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O353" s="36">
         <v>0</v>
@@ -23395,7 +23486,7 @@
         <v>7</v>
       </c>
       <c r="N354" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O354" s="36">
         <v>0</v>
@@ -23455,7 +23546,7 @@
         <v>8.0500001907348597</v>
       </c>
       <c r="N355" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O355" s="36">
         <v>0</v>
@@ -24113,7 +24204,7 @@
       <c r="L366" s="33"/>
       <c r="M366" s="36"/>
       <c r="N366" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O366" s="36">
         <v>0</v>
@@ -24561,7 +24652,7 @@
       </c>
       <c r="M373" s="36"/>
       <c r="N373" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O373" s="36">
         <v>1</v>
@@ -25539,12 +25630,8 @@
       </c>
       <c r="M388" s="36"/>
       <c r="N388" s="36"/>
-      <c r="O388" s="36">
-        <v>0</v>
-      </c>
-      <c r="P388" s="36">
-        <v>0</v>
-      </c>
+      <c r="O388" s="36"/>
+      <c r="P388" s="36"/>
       <c r="Q388" s="36"/>
       <c r="R388" s="36">
         <v>108.279013796242</v>
@@ -25593,12 +25680,8 @@
       </c>
       <c r="M389" s="36"/>
       <c r="N389" s="36"/>
-      <c r="O389" s="36">
-        <v>0</v>
-      </c>
-      <c r="P389" s="36">
-        <v>0</v>
-      </c>
+      <c r="O389" s="36"/>
+      <c r="P389" s="36"/>
       <c r="Q389" s="36"/>
       <c r="R389" s="36">
         <v>100</v>
@@ -25647,12 +25730,8 @@
       </c>
       <c r="M390" s="36"/>
       <c r="N390" s="36"/>
-      <c r="O390" s="36">
-        <v>0</v>
-      </c>
-      <c r="P390" s="36">
-        <v>0</v>
-      </c>
+      <c r="O390" s="36"/>
+      <c r="P390" s="36"/>
       <c r="Q390" s="36"/>
       <c r="R390" s="36">
         <v>113.545491141611</v>
@@ -25701,12 +25780,8 @@
       </c>
       <c r="M391" s="37"/>
       <c r="N391" s="37"/>
-      <c r="O391" s="37">
-        <v>0</v>
-      </c>
-      <c r="P391" s="37">
-        <v>0</v>
-      </c>
+      <c r="O391" s="37"/>
+      <c r="P391" s="37"/>
       <c r="Q391" s="37"/>
       <c r="R391" s="37">
         <v>128.194256887188</v>

--- a/Populism Index/data.xlsx
+++ b/Populism Index/data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/Research/Working Papers/Paper - An Index of Latin American Populism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2793" documentId="8_{FB72FBC9-BFA1-43D6-AEE1-7E35D9B366DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7C5A66C0-3409-4C79-9800-7D5B81B2E702}"/>
+  <xr:revisionPtr revIDLastSave="3130" documentId="8_{FB72FBC9-BFA1-43D6-AEE1-7E35D9B366DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF2B845B-25E5-47ED-A558-DB875E6832E3}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="45000" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35940" yWindow="6810" windowWidth="9405" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STATA" sheetId="1" r:id="rId1"/>
-    <sheet name="STATA (OLD)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="STATA (OLD)" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="63">
   <si>
     <t>N</t>
   </si>
@@ -199,13 +200,95 @@
   <si>
     <t>POPULIST</t>
   </si>
+  <si>
+    <t>Populism index (t-1)</t>
+  </si>
+  <si>
+    <t>Comm. Price index</t>
+  </si>
+  <si>
+    <t>Comm. &amp; Populism</t>
+  </si>
+  <si>
+    <t>Crisis (5 years)</t>
+  </si>
+  <si>
+    <t>Tequila crisis</t>
+  </si>
+  <si>
+    <t>2008 crisis</t>
+  </si>
+  <si>
+    <t>% Chg. In US NGDP</t>
+  </si>
+  <si>
+    <t>% Chg. In US RGDP</t>
+  </si>
+  <si>
+    <t>Unemployment rate</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>PCSE</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>ABBB</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>Model 2</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t>Model 4</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Any crisis</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>St. Dev. Effect</t>
+  </si>
+  <si>
+    <t>Commodity Price Index St. Dev.:</t>
+  </si>
+  <si>
+    <t>POPULATION</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -298,13 +381,13 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="darkDown">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -524,13 +607,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -679,11 +824,97 @@
     <xf numFmtId="2" fontId="1" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="10" borderId="20" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -997,13 +1228,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z391"/>
+  <dimension ref="A1:Y391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E326" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N388" sqref="N388"/>
+      <selection pane="bottomRight" activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1012,10 +1243,11 @@
     <col min="3" max="3" width="12.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
     <col min="5" max="22" width="10.7109375" style="27" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="5"/>
+    <col min="23" max="23" width="11" style="81" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,12 +1311,15 @@
       <c r="U1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="20"/>
-    </row>
-    <row r="2" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W1" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="20"/>
+    </row>
+    <row r="2" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1140,11 +1375,14 @@
       <c r="U2" s="36">
         <v>-0.256751930992138</v>
       </c>
-      <c r="V2" s="38">
+      <c r="V2" s="36">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="78">
+        <v>27896528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1200,11 +1438,14 @@
       <c r="U3" s="36">
         <v>2.5377186978074633</v>
       </c>
-      <c r="V3" s="38">
+      <c r="V3" s="36">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="78">
+        <v>28338515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1260,11 +1501,14 @@
       <c r="U4" s="36">
         <v>-1.8028744527117624</v>
       </c>
-      <c r="V4" s="38">
+      <c r="V4" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="78">
+        <v>28794548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1320,11 +1564,14 @@
       <c r="U5" s="36">
         <v>4.5839273156610147</v>
       </c>
-      <c r="V5" s="38">
+      <c r="V5" s="36">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="78">
+        <v>29262047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1380,11 +1627,14 @@
       <c r="U6" s="36">
         <v>7.2366199935738535</v>
       </c>
-      <c r="V6" s="38">
+      <c r="V6" s="36">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="78">
+        <v>29737093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1440,11 +1690,14 @@
       <c r="U7" s="36">
         <v>4.1696559543024279</v>
       </c>
-      <c r="V7" s="38">
+      <c r="V7" s="36">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="78">
+        <v>30216279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1500,11 +1753,14 @@
       <c r="U8" s="36">
         <v>3.462651712798916</v>
       </c>
-      <c r="V8" s="38">
+      <c r="V8" s="36">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="78">
+        <v>30698964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1562,11 +1818,14 @@
       <c r="U9" s="36">
         <v>3.4595725553488279</v>
       </c>
-      <c r="V9" s="38">
+      <c r="V9" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="78">
+        <v>31184415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1624,11 +1883,14 @@
       <c r="U10" s="36">
         <v>4.1770463844437842</v>
       </c>
-      <c r="V10" s="38">
+      <c r="V10" s="36">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="78">
+        <v>31668949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1686,11 +1948,14 @@
       <c r="U11" s="36">
         <v>3.6726563285104561</v>
       </c>
-      <c r="V11" s="38">
+      <c r="V11" s="36">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="78">
+        <v>32148134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1748,11 +2013,14 @@
       <c r="U12" s="36">
         <v>1.8859603230941815</v>
       </c>
-      <c r="V12" s="38">
+      <c r="V12" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W12" s="78">
+        <v>32618651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>12</v>
       </c>
@@ -1810,11 +2078,14 @@
       <c r="U13" s="48">
         <v>-0.10825910527866256</v>
       </c>
-      <c r="V13" s="49">
+      <c r="V13" s="48">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="79">
+        <v>33079000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1876,11 +2147,14 @@
       <c r="U14" s="36">
         <v>3.5224424938664356</v>
       </c>
-      <c r="V14" s="38">
+      <c r="V14" s="36">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W14" s="78">
+        <v>33529326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1942,11 +2216,14 @@
       <c r="U15" s="36">
         <v>2.7528443268801226</v>
       </c>
-      <c r="V15" s="38">
+      <c r="V15" s="36">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W15" s="78">
+        <v>33970111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>15</v>
       </c>
@@ -2006,11 +2283,14 @@
       <c r="U16" s="48">
         <v>4.0288390635428044</v>
       </c>
-      <c r="V16" s="49">
+      <c r="V16" s="48">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W16" s="79">
+        <v>34402672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -2074,11 +2354,14 @@
       <c r="U17" s="36">
         <v>2.6842871324197688</v>
       </c>
-      <c r="V17" s="38">
+      <c r="V17" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="78">
+        <v>34828170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2142,14 +2425,14 @@
       <c r="U18" s="36">
         <v>3.7725013192651886</v>
       </c>
-      <c r="V18" s="38">
+      <c r="V18" s="36">
         <v>5.7</v>
       </c>
-      <c r="X18" s="50">
-        <v>4.3419303894042969</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W18" s="78">
+        <v>35246374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2213,14 +2496,14 @@
       <c r="U19" s="36">
         <v>4.4472163427340803</v>
       </c>
-      <c r="V19" s="38">
+      <c r="V19" s="36">
         <v>6.2</v>
       </c>
-      <c r="X19" s="50">
-        <v>4.5110511779785156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="78">
+        <v>35657429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2284,14 +2567,14 @@
       <c r="U20" s="36">
         <v>4.4814075545120744</v>
       </c>
-      <c r="V20" s="38">
+      <c r="V20" s="36">
         <v>5.7</v>
       </c>
-      <c r="X20" s="50">
-        <v>4.6801714897155762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W20" s="78">
+        <v>36063459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2355,14 +2638,14 @@
       <c r="U21" s="36">
         <v>4.7532359887971722</v>
       </c>
-      <c r="V21" s="38">
+      <c r="V21" s="36">
         <v>6.3</v>
       </c>
-      <c r="X21" s="50">
-        <v>4.7085094451904297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="78">
+        <v>36467218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2426,14 +2709,14 @@
       <c r="U22" s="36">
         <v>4.1274840135585293</v>
       </c>
-      <c r="V22" s="38">
+      <c r="V22" s="36">
         <v>6.5</v>
       </c>
-      <c r="X22" s="50">
-        <v>4.5368471145629883</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W22" s="78">
+        <v>36870787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2497,14 +2780,14 @@
       <c r="U23" s="36">
         <v>0.9983407946564995</v>
       </c>
-      <c r="V23" s="38">
+      <c r="V23" s="36">
         <v>3.2</v>
       </c>
-      <c r="X23" s="50">
-        <v>4.8974595069885254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W23" s="78">
+        <v>37275652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2568,14 +2851,14 @@
       <c r="U24" s="36">
         <v>1.7416952497298013</v>
       </c>
-      <c r="V24" s="38">
+      <c r="V24" s="36">
         <v>3.4</v>
       </c>
-      <c r="X24" s="50">
-        <v>5.2080717086791992</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W24" s="78">
+        <v>37681749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2639,14 +2922,14 @@
       <c r="U25" s="36">
         <v>2.8612107674102418</v>
       </c>
-      <c r="V25" s="38">
+      <c r="V25" s="36">
         <v>4.8</v>
       </c>
-      <c r="X25" s="50">
-        <v>5.0763626098632813</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W25" s="78">
+        <v>38087868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2710,14 +2993,14 @@
       <c r="U26" s="36">
         <v>3.7988911266239285</v>
       </c>
-      <c r="V26" s="38">
+      <c r="V26" s="36">
         <v>6.6</v>
       </c>
-      <c r="X26" s="50">
-        <v>5.2101612091064453</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W26" s="78">
+        <v>38491972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2781,14 +3064,14 @@
       <c r="U27" s="36">
         <v>3.5132137966530195</v>
       </c>
-      <c r="V27" s="38">
+      <c r="V27" s="36">
         <v>6.7</v>
       </c>
-      <c r="X27" s="50">
-        <v>5.2118077278137207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W27" s="78">
+        <v>38892931</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2852,14 +3135,14 @@
       <c r="U28" s="36">
         <v>2.8549722917001503</v>
       </c>
-      <c r="V28" s="38">
+      <c r="V28" s="36">
         <v>6</v>
       </c>
-      <c r="X28" s="50">
-        <v>5.2283806800842285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W28" s="78">
+        <v>39289878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2923,14 +3206,14 @@
       <c r="U29" s="36">
         <v>1.8761714584669278</v>
       </c>
-      <c r="V29" s="38">
+      <c r="V29" s="36">
         <v>4.5999999999999996</v>
       </c>
-      <c r="X29" s="50">
-        <v>5.1666374206542969</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W29" s="78">
+        <v>39684295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2994,14 +3277,14 @@
       <c r="U30" s="36">
         <v>-0.136579805460741</v>
       </c>
-      <c r="V30" s="38">
+      <c r="V30" s="36">
         <v>1.8</v>
       </c>
-      <c r="X30" s="50">
-        <v>5.3516445159912109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W30" s="78">
+        <v>40080160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -3065,14 +3348,14 @@
       <c r="U31" s="36">
         <v>-2.5367570658566478</v>
       </c>
-      <c r="V31" s="38">
+      <c r="V31" s="36">
         <v>-1.8</v>
       </c>
-      <c r="X31" s="50">
-        <v>5.3952131271362305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W31" s="78">
+        <v>40482788</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -3136,14 +3419,14 @@
       <c r="U32" s="36">
         <v>2.5637665587658063</v>
       </c>
-      <c r="V32" s="38">
+      <c r="V32" s="36">
         <v>3.8</v>
       </c>
-      <c r="X32" s="50">
-        <v>5.3201446533203125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W32" s="78">
+        <v>40788453</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -3207,14 +3490,14 @@
       <c r="U33" s="36">
         <v>1.5508355056815617</v>
       </c>
-      <c r="V33" s="38">
+      <c r="V33" s="36">
         <v>3.7</v>
       </c>
-      <c r="X33" s="50">
-        <v>5.2910547256469727</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W33" s="78">
+        <v>41261490</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -3278,14 +3561,14 @@
       <c r="U34" s="36">
         <v>2.2495458523699199</v>
       </c>
-      <c r="V34" s="38">
+      <c r="V34" s="36">
         <v>4.2</v>
       </c>
-      <c r="X34" s="50">
-        <v>5.4638056755065918</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W34" s="78">
+        <v>41733271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -3349,14 +3632,14 @@
       <c r="U35" s="36">
         <v>1.8420810710110231</v>
       </c>
-      <c r="V35" s="38">
+      <c r="V35" s="36">
         <v>3.6</v>
       </c>
-      <c r="X35" s="50">
-        <v>5.4564847946166992</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W35" s="78">
+        <v>42202935</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -3420,14 +3703,14 @@
       <c r="U36" s="36">
         <v>2.4519730353603393</v>
       </c>
-      <c r="V36" s="38">
+      <c r="V36" s="36">
         <v>4.4000000000000004</v>
       </c>
-      <c r="X36" s="50">
-        <v>5.566166877746582</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W36" s="78">
+        <v>42669500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -3489,14 +3772,14 @@
       <c r="U37" s="36">
         <v>2.8809104660521854</v>
       </c>
-      <c r="V37" s="38">
+      <c r="V37" s="36">
         <v>4</v>
       </c>
-      <c r="X37" s="50">
-        <v>5.4530520439147949</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W37" s="78">
+        <v>43131966</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -3558,14 +3841,14 @@
       <c r="U38" s="36">
         <v>1.5672151699786383</v>
       </c>
-      <c r="V38" s="38">
+      <c r="V38" s="36">
         <v>2.7</v>
       </c>
-      <c r="X38" s="51">
-        <v>4.9925618171691895</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W38" s="78">
+        <v>43590368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -3629,11 +3912,14 @@
       <c r="U39" s="36">
         <v>2.2170103303188426</v>
       </c>
-      <c r="V39" s="38">
+      <c r="V39" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W39" s="78">
+        <v>44044811</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -3695,11 +3981,14 @@
       <c r="U40" s="37">
         <v>2.9273227282108536</v>
       </c>
-      <c r="V40" s="39">
+      <c r="V40" s="37">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W40" s="80">
+        <v>44494502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>1</v>
       </c>
@@ -3758,11 +4047,14 @@
       <c r="U41" s="36">
         <v>-0.256751930992138</v>
       </c>
-      <c r="V41" s="38">
+      <c r="V41" s="36">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W41" s="78">
+        <v>5579935</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>2</v>
       </c>
@@ -3821,11 +4113,14 @@
       <c r="U42" s="36">
         <v>2.5377186978074633</v>
       </c>
-      <c r="V42" s="38">
+      <c r="V42" s="36">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W42" s="78">
+        <v>5697096</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>3</v>
       </c>
@@ -3884,11 +4179,14 @@
       <c r="U43" s="36">
         <v>-1.8028744527117624</v>
       </c>
-      <c r="V43" s="38">
+      <c r="V43" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W43" s="78">
+        <v>5814345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>4</v>
       </c>
@@ -3947,11 +4245,14 @@
       <c r="U44" s="36">
         <v>4.5839273156610147</v>
       </c>
-      <c r="V44" s="38">
+      <c r="V44" s="36">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W44" s="78">
+        <v>5932810</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>5</v>
       </c>
@@ -4010,11 +4311,14 @@
       <c r="U45" s="36">
         <v>7.2366199935738535</v>
       </c>
-      <c r="V45" s="38">
+      <c r="V45" s="36">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W45" s="78">
+        <v>6054123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>6</v>
       </c>
@@ -4073,11 +4377,14 @@
       <c r="U46" s="36">
         <v>4.1696559543024279</v>
       </c>
-      <c r="V46" s="38">
+      <c r="V46" s="36">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W46" s="78">
+        <v>6179460</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>7</v>
       </c>
@@ -4136,11 +4443,14 @@
       <c r="U47" s="36">
         <v>3.462651712798916</v>
       </c>
-      <c r="V47" s="38">
+      <c r="V47" s="36">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W47" s="78">
+        <v>6309130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>8</v>
       </c>
@@ -4199,11 +4509,14 @@
       <c r="U48" s="36">
         <v>3.4595725553488279</v>
       </c>
-      <c r="V48" s="38">
+      <c r="V48" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W48" s="78">
+        <v>6442831</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>9</v>
       </c>
@@ -4262,11 +4575,14 @@
       <c r="U49" s="36">
         <v>4.1770463844437842</v>
       </c>
-      <c r="V49" s="38">
+      <c r="V49" s="36">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W49" s="78">
+        <v>6580312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>10</v>
       </c>
@@ -4325,11 +4641,14 @@
       <c r="U50" s="36">
         <v>3.6726563285104561</v>
       </c>
-      <c r="V50" s="38">
+      <c r="V50" s="36">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W50" s="78">
+        <v>6721115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>11</v>
       </c>
@@ -4388,11 +4707,14 @@
       <c r="U51" s="36">
         <v>1.8859603230941815</v>
       </c>
-      <c r="V51" s="38">
+      <c r="V51" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W51" s="78">
+        <v>6864842</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>12</v>
       </c>
@@ -4451,11 +4773,14 @@
       <c r="U52" s="48">
         <v>-0.10825910527866256</v>
       </c>
-      <c r="V52" s="49">
+      <c r="V52" s="48">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W52" s="79">
+        <v>7011453</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>13</v>
       </c>
@@ -4516,11 +4841,14 @@
       <c r="U53" s="36">
         <v>3.5224424938664356</v>
       </c>
-      <c r="V53" s="38">
+      <c r="V53" s="36">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W53" s="78">
+        <v>7160920</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>14</v>
       </c>
@@ -4583,11 +4911,14 @@
       <c r="U54" s="36">
         <v>2.7528443268801226</v>
       </c>
-      <c r="V54" s="38">
+      <c r="V54" s="36">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W54" s="78">
+        <v>7312850</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>15</v>
       </c>
@@ -4650,11 +4981,14 @@
       <c r="U55" s="48">
         <v>4.0288390635428044</v>
       </c>
-      <c r="V55" s="49">
+      <c r="V55" s="48">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W55" s="79">
+        <v>7466793</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>16</v>
       </c>
@@ -4719,11 +5053,14 @@
       <c r="U56" s="36">
         <v>2.6842871324197688</v>
       </c>
-      <c r="V56" s="38">
+      <c r="V56" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W56" s="78">
+        <v>7622338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>17</v>
       </c>
@@ -4788,11 +5125,14 @@
       <c r="U57" s="36">
         <v>3.7725013192651886</v>
       </c>
-      <c r="V57" s="38">
+      <c r="V57" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W57" s="78">
+        <v>7779267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>18</v>
       </c>
@@ -4857,11 +5197,14 @@
       <c r="U58" s="36">
         <v>4.4472163427340803</v>
       </c>
-      <c r="V58" s="38">
+      <c r="V58" s="36">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W58" s="78">
+        <v>7937458</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>19</v>
       </c>
@@ -4924,11 +5267,14 @@
       <c r="U59" s="36">
         <v>4.4814075545120744</v>
       </c>
-      <c r="V59" s="38">
+      <c r="V59" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W59" s="78">
+        <v>8096761</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>20</v>
       </c>
@@ -4993,11 +5339,14 @@
       <c r="U60" s="36">
         <v>4.7532359887971722</v>
       </c>
-      <c r="V60" s="38">
+      <c r="V60" s="36">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W60" s="78">
+        <v>8257066</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>21</v>
       </c>
@@ -5062,11 +5411,14 @@
       <c r="U61" s="36">
         <v>4.1274840135585293</v>
       </c>
-      <c r="V61" s="38">
+      <c r="V61" s="36">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W61" s="78">
+        <v>8418264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>22</v>
       </c>
@@ -5131,11 +5483,14 @@
       <c r="U62" s="36">
         <v>0.9983407946564995</v>
       </c>
-      <c r="V62" s="38">
+      <c r="V62" s="36">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W62" s="78">
+        <v>8580235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>23</v>
       </c>
@@ -5200,11 +5555,14 @@
       <c r="U63" s="36">
         <v>1.7416952497298013</v>
       </c>
-      <c r="V63" s="38">
+      <c r="V63" s="36">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W63" s="78">
+        <v>8742814</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>24</v>
       </c>
@@ -5267,11 +5625,14 @@
       <c r="U64" s="36">
         <v>2.8612107674102418</v>
       </c>
-      <c r="V64" s="38">
+      <c r="V64" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W64" s="78">
+        <v>8905823</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>25</v>
       </c>
@@ -5336,11 +5697,14 @@
       <c r="U65" s="36">
         <v>3.7988911266239285</v>
       </c>
-      <c r="V65" s="38">
+      <c r="V65" s="36">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W65" s="78">
+        <v>9069039</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>26</v>
       </c>
@@ -5405,11 +5769,14 @@
       <c r="U66" s="36">
         <v>3.5132137966530195</v>
       </c>
-      <c r="V66" s="38">
+      <c r="V66" s="36">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W66" s="78">
+        <v>9232306</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>27</v>
       </c>
@@ -5474,11 +5841,14 @@
       <c r="U67" s="36">
         <v>2.8549722917001503</v>
       </c>
-      <c r="V67" s="38">
+      <c r="V67" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W67" s="78">
+        <v>9395446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>28</v>
       </c>
@@ -5543,11 +5913,14 @@
       <c r="U68" s="36">
         <v>1.8761714584669278</v>
       </c>
-      <c r="V68" s="38">
+      <c r="V68" s="36">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W68" s="78">
+        <v>9558439</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>29</v>
       </c>
@@ -5612,11 +5985,14 @@
       <c r="U69" s="36">
         <v>-0.136579805460741</v>
       </c>
-      <c r="V69" s="38">
+      <c r="V69" s="36">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W69" s="78">
+        <v>9721454</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>30</v>
       </c>
@@ -5681,11 +6057,14 @@
       <c r="U70" s="36">
         <v>-2.5367570658566478</v>
       </c>
-      <c r="V70" s="38">
+      <c r="V70" s="36">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W70" s="78">
+        <v>9884781</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>31</v>
       </c>
@@ -5748,11 +6127,14 @@
       <c r="U71" s="36">
         <v>2.5637665587658063</v>
       </c>
-      <c r="V71" s="38">
+      <c r="V71" s="36">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W71" s="78">
+        <v>10048590</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>32</v>
       </c>
@@ -5817,11 +6199,14 @@
       <c r="U72" s="36">
         <v>1.5508355056815617</v>
       </c>
-      <c r="V72" s="38">
+      <c r="V72" s="36">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W72" s="78">
+        <v>10212954</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>33</v>
       </c>
@@ -5886,11 +6271,14 @@
       <c r="U73" s="36">
         <v>2.2495458523699199</v>
       </c>
-      <c r="V73" s="38">
+      <c r="V73" s="36">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W73" s="78">
+        <v>10377676</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>34</v>
       </c>
@@ -5955,11 +6343,14 @@
       <c r="U74" s="36">
         <v>1.8420810710110231</v>
       </c>
-      <c r="V74" s="38">
+      <c r="V74" s="36">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W74" s="78">
+        <v>10542376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>35</v>
       </c>
@@ -6024,11 +6415,14 @@
       <c r="U75" s="36">
         <v>2.4519730353603393</v>
       </c>
-      <c r="V75" s="38">
+      <c r="V75" s="36">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W75" s="78">
+        <v>10706517</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>36</v>
       </c>
@@ -6093,11 +6487,14 @@
       <c r="U76" s="36">
         <v>2.8809104660521854</v>
       </c>
-      <c r="V76" s="38">
+      <c r="V76" s="36">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W76" s="78">
+        <v>10869730</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>37</v>
       </c>
@@ -6162,11 +6559,14 @@
       <c r="U77" s="36">
         <v>1.5672151699786383</v>
       </c>
-      <c r="V77" s="38">
+      <c r="V77" s="36">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W77" s="78">
+        <v>11031813</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>38</v>
       </c>
@@ -6231,11 +6631,14 @@
       <c r="U78" s="36">
         <v>2.2170103303188426</v>
       </c>
-      <c r="V78" s="38">
+      <c r="V78" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W78" s="78">
+        <v>11192854</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>39</v>
       </c>
@@ -6298,11 +6701,14 @@
       <c r="U79" s="37">
         <v>2.9273227282108536</v>
       </c>
-      <c r="V79" s="39">
+      <c r="V79" s="37">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W79" s="80">
+        <v>11353142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>1</v>
       </c>
@@ -6359,11 +6765,14 @@
       <c r="U80" s="36">
         <v>-0.256751930992138</v>
       </c>
-      <c r="V80" s="38">
+      <c r="V80" s="36">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W80" s="78">
+        <v>120694009</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>2</v>
       </c>
@@ -6422,11 +6831,14 @@
       <c r="U81" s="36">
         <v>2.5377186978074633</v>
       </c>
-      <c r="V81" s="38">
+      <c r="V81" s="36">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W81" s="78">
+        <v>123570327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>3</v>
       </c>
@@ -6485,11 +6897,14 @@
       <c r="U82" s="36">
         <v>-1.8028744527117624</v>
       </c>
-      <c r="V82" s="38">
+      <c r="V82" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W82" s="78">
+        <v>126498314</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>4</v>
       </c>
@@ -6548,11 +6963,14 @@
       <c r="U83" s="36">
         <v>4.5839273156610147</v>
       </c>
-      <c r="V83" s="38">
+      <c r="V83" s="36">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W83" s="78">
+        <v>129448819</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>5</v>
       </c>
@@ -6611,11 +7029,14 @@
       <c r="U84" s="36">
         <v>7.2366199935738535</v>
       </c>
-      <c r="V84" s="38">
+      <c r="V84" s="36">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W84" s="78">
+        <v>132383568</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>6</v>
       </c>
@@ -6674,11 +7095,14 @@
       <c r="U85" s="36">
         <v>4.1696559543024279</v>
       </c>
-      <c r="V85" s="38">
+      <c r="V85" s="36">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W85" s="78">
+        <v>135274080</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>7</v>
       </c>
@@ -6737,11 +7161,14 @@
       <c r="U86" s="36">
         <v>3.462651712798916</v>
       </c>
-      <c r="V86" s="38">
+      <c r="V86" s="36">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W86" s="78">
+        <v>138108912</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>8</v>
       </c>
@@ -6800,11 +7227,14 @@
       <c r="U87" s="36">
         <v>3.4595725553488279</v>
       </c>
-      <c r="V87" s="38">
+      <c r="V87" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W87" s="78">
+        <v>140891602</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>9</v>
       </c>
@@ -6863,11 +7293,14 @@
       <c r="U88" s="36">
         <v>4.1770463844437842</v>
       </c>
-      <c r="V88" s="38">
+      <c r="V88" s="36">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W88" s="78">
+        <v>143627503</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>10</v>
       </c>
@@ -6928,11 +7361,14 @@
       <c r="U89" s="36">
         <v>3.6726563285104561</v>
       </c>
-      <c r="V89" s="38">
+      <c r="V89" s="36">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W89" s="78">
+        <v>146328304</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>11</v>
       </c>
@@ -6993,11 +7429,14 @@
       <c r="U90" s="36">
         <v>1.8859603230941815</v>
       </c>
-      <c r="V90" s="38">
+      <c r="V90" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W90" s="78">
+        <v>149003223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>12</v>
       </c>
@@ -7056,11 +7495,14 @@
       <c r="U91" s="48">
         <v>-0.10825910527866256</v>
       </c>
-      <c r="V91" s="49">
+      <c r="V91" s="48">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W91" s="79">
+        <v>151648011</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>13</v>
       </c>
@@ -7123,11 +7565,14 @@
       <c r="U92" s="36">
         <v>3.5224424938664356</v>
       </c>
-      <c r="V92" s="38">
+      <c r="V92" s="36">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W92" s="78">
+        <v>154259380</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>14</v>
       </c>
@@ -7190,11 +7635,14 @@
       <c r="U93" s="36">
         <v>2.7528443268801226</v>
       </c>
-      <c r="V93" s="38">
+      <c r="V93" s="36">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W93" s="78">
+        <v>156849078</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>15</v>
       </c>
@@ -7255,11 +7703,14 @@
       <c r="U94" s="48">
         <v>4.0288390635428044</v>
       </c>
-      <c r="V94" s="49">
+      <c r="V94" s="48">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W94" s="79">
+        <v>159432716</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>16</v>
       </c>
@@ -7324,11 +7775,14 @@
       <c r="U95" s="36">
         <v>2.6842871324197688</v>
       </c>
-      <c r="V95" s="38">
+      <c r="V95" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W95" s="78">
+        <v>162019896</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>17</v>
       </c>
@@ -7393,11 +7847,14 @@
       <c r="U96" s="36">
         <v>3.7725013192651886</v>
       </c>
-      <c r="V96" s="38">
+      <c r="V96" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W96" s="78">
+        <v>164614688</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>18</v>
       </c>
@@ -7462,11 +7919,14 @@
       <c r="U97" s="36">
         <v>4.4472163427340803</v>
       </c>
-      <c r="V97" s="38">
+      <c r="V97" s="36">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W97" s="78">
+        <v>167209040</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>19</v>
       </c>
@@ -7531,11 +7991,14 @@
       <c r="U98" s="36">
         <v>4.4814075545120744</v>
       </c>
-      <c r="V98" s="38">
+      <c r="V98" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W98" s="78">
+        <v>169785250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>20</v>
       </c>
@@ -7600,11 +8063,14 @@
       <c r="U99" s="36">
         <v>4.7532359887971722</v>
       </c>
-      <c r="V99" s="38">
+      <c r="V99" s="36">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W99" s="78">
+        <v>172318675</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>21</v>
       </c>
@@ -7667,11 +8133,14 @@
       <c r="U100" s="36">
         <v>4.1274840135585293</v>
       </c>
-      <c r="V100" s="38">
+      <c r="V100" s="36">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W100" s="78">
+        <v>174790340</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>22</v>
       </c>
@@ -7736,11 +8205,14 @@
       <c r="U101" s="36">
         <v>0.9983407946564995</v>
       </c>
-      <c r="V101" s="38">
+      <c r="V101" s="36">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W101" s="78">
+        <v>177196054</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>23</v>
       </c>
@@ -7805,11 +8277,14 @@
       <c r="U102" s="36">
         <v>1.7416952497298013</v>
       </c>
-      <c r="V102" s="38">
+      <c r="V102" s="36">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W102" s="78">
+        <v>179537520</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>24</v>
       </c>
@@ -7874,11 +8349,14 @@
       <c r="U103" s="36">
         <v>2.8612107674102418</v>
       </c>
-      <c r="V103" s="38">
+      <c r="V103" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W103" s="78">
+        <v>181809246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>25</v>
       </c>
@@ -7943,11 +8421,14 @@
       <c r="U104" s="36">
         <v>3.7988911266239285</v>
       </c>
-      <c r="V104" s="38">
+      <c r="V104" s="36">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W104" s="78">
+        <v>184006481</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>26</v>
       </c>
@@ -8012,11 +8493,14 @@
       <c r="U105" s="36">
         <v>3.5132137966530195</v>
       </c>
-      <c r="V105" s="38">
+      <c r="V105" s="36">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W105" s="78">
+        <v>186127103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>27</v>
       </c>
@@ -8081,11 +8565,14 @@
       <c r="U106" s="36">
         <v>2.8549722917001503</v>
       </c>
-      <c r="V106" s="38">
+      <c r="V106" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W106" s="78">
+        <v>188167356</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>28</v>
       </c>
@@ -8150,11 +8637,14 @@
       <c r="U107" s="36">
         <v>1.8761714584669278</v>
       </c>
-      <c r="V107" s="38">
+      <c r="V107" s="36">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W107" s="78">
+        <v>190130443</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>29</v>
       </c>
@@ -8219,11 +8709,14 @@
       <c r="U108" s="36">
         <v>-0.136579805460741</v>
       </c>
-      <c r="V108" s="38">
+      <c r="V108" s="36">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W108" s="78">
+        <v>192030362</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>30</v>
       </c>
@@ -8288,11 +8781,14 @@
       <c r="U109" s="36">
         <v>-2.5367570658566478</v>
       </c>
-      <c r="V109" s="38">
+      <c r="V109" s="36">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W109" s="78">
+        <v>193886508</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>31</v>
       </c>
@@ -8355,11 +8851,14 @@
       <c r="U110" s="36">
         <v>2.5637665587658063</v>
       </c>
-      <c r="V110" s="38">
+      <c r="V110" s="36">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W110" s="78">
+        <v>195713635</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>32</v>
       </c>
@@ -8424,11 +8923,14 @@
       <c r="U111" s="36">
         <v>1.5508355056815617</v>
       </c>
-      <c r="V111" s="38">
+      <c r="V111" s="36">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W111" s="78">
+        <v>197514534</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>33</v>
       </c>
@@ -8493,11 +8995,14 @@
       <c r="U112" s="36">
         <v>2.2495458523699199</v>
       </c>
-      <c r="V112" s="38">
+      <c r="V112" s="36">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W112" s="78">
+        <v>199287296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>34</v>
       </c>
@@ -8562,11 +9067,14 @@
       <c r="U113" s="36">
         <v>1.8420810710110231</v>
       </c>
-      <c r="V113" s="38">
+      <c r="V113" s="36">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W113" s="78">
+        <v>201035903</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>35</v>
       </c>
@@ -8631,11 +9139,14 @@
       <c r="U114" s="36">
         <v>2.4519730353603393</v>
       </c>
-      <c r="V114" s="38">
+      <c r="V114" s="36">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W114" s="78">
+        <v>202763735</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>36</v>
       </c>
@@ -8700,11 +9211,14 @@
       <c r="U115" s="36">
         <v>2.8809104660521854</v>
       </c>
-      <c r="V115" s="38">
+      <c r="V115" s="36">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W115" s="78">
+        <v>204471769</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>37</v>
       </c>
@@ -8769,11 +9283,14 @@
       <c r="U116" s="36">
         <v>1.5672151699786383</v>
       </c>
-      <c r="V116" s="38">
+      <c r="V116" s="36">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W116" s="78">
+        <v>206163058</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>38</v>
       </c>
@@ -8838,11 +9355,14 @@
       <c r="U117" s="36">
         <v>2.2170103303188426</v>
       </c>
-      <c r="V117" s="38">
+      <c r="V117" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W117" s="78">
+        <v>207833831</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="16">
         <v>39</v>
       </c>
@@ -8905,11 +9425,14 @@
       <c r="U118" s="37">
         <v>2.9273227282108536</v>
       </c>
-      <c r="V118" s="39">
+      <c r="V118" s="37">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W118" s="80">
+        <v>209469333</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>1</v>
       </c>
@@ -8968,11 +9491,14 @@
       <c r="U119" s="36">
         <v>-0.256751930992138</v>
       </c>
-      <c r="V119" s="38">
+      <c r="V119" s="36">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W119" s="78">
+        <v>26900508</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>2</v>
       </c>
@@ -9031,11 +9557,14 @@
       <c r="U120" s="36">
         <v>2.5377186978074633</v>
       </c>
-      <c r="V120" s="38">
+      <c r="V120" s="36">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W120" s="78">
+        <v>27496608</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>3</v>
       </c>
@@ -9094,11 +9623,14 @@
       <c r="U121" s="36">
         <v>-1.8028744527117624</v>
       </c>
-      <c r="V121" s="38">
+      <c r="V121" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W121" s="78">
+        <v>28101824</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>4</v>
       </c>
@@ -9157,11 +9689,14 @@
       <c r="U122" s="36">
         <v>4.5839273156610147</v>
       </c>
-      <c r="V122" s="38">
+      <c r="V122" s="36">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W122" s="78">
+        <v>28714183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>5</v>
       </c>
@@ -9220,11 +9755,14 @@
       <c r="U123" s="36">
         <v>7.2366199935738535</v>
       </c>
-      <c r="V123" s="38">
+      <c r="V123" s="36">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W123" s="78">
+        <v>29331230</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>6</v>
       </c>
@@ -9283,11 +9821,14 @@
       <c r="U124" s="36">
         <v>4.1696559543024279</v>
       </c>
-      <c r="V124" s="38">
+      <c r="V124" s="36">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W124" s="78">
+        <v>29951194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>7</v>
       </c>
@@ -9346,11 +9887,14 @@
       <c r="U125" s="36">
         <v>3.462651712798916</v>
       </c>
-      <c r="V125" s="38">
+      <c r="V125" s="36">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W125" s="78">
+        <v>30572479</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>8</v>
       </c>
@@ -9409,11 +9953,14 @@
       <c r="U126" s="36">
         <v>3.4595725553488279</v>
       </c>
-      <c r="V126" s="38">
+      <c r="V126" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W126" s="78">
+        <v>31195417</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>9</v>
       </c>
@@ -9470,11 +10017,14 @@
       <c r="U127" s="36">
         <v>4.1770463844437842</v>
       </c>
-      <c r="V127" s="38">
+      <c r="V127" s="36">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W127" s="78">
+        <v>31822527</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>10</v>
       </c>
@@ -9531,11 +10081,14 @@
       <c r="U128" s="36">
         <v>3.6726563285104561</v>
       </c>
-      <c r="V128" s="38">
+      <c r="V128" s="36">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W128" s="78">
+        <v>32457497</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>11</v>
       </c>
@@ -9592,11 +10145,14 @@
       <c r="U129" s="36">
         <v>1.8859603230941815</v>
       </c>
-      <c r="V129" s="38">
+      <c r="V129" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W129" s="78">
+        <v>33102569</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>12</v>
       </c>
@@ -9657,11 +10213,14 @@
       <c r="U130" s="48">
         <v>-0.10825910527866256</v>
       </c>
-      <c r="V130" s="49">
+      <c r="V130" s="48">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W130" s="79">
+        <v>33758328</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>13</v>
       </c>
@@ -9724,11 +10283,14 @@
       <c r="U131" s="36">
         <v>3.5224424938664356</v>
       </c>
-      <c r="V131" s="38">
+      <c r="V131" s="36">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W131" s="78">
+        <v>34422568</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>14</v>
       </c>
@@ -9789,11 +10351,14 @@
       <c r="U132" s="36">
         <v>2.7528443268801226</v>
       </c>
-      <c r="V132" s="38">
+      <c r="V132" s="36">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W132" s="78">
+        <v>35091272</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>15</v>
       </c>
@@ -9856,11 +10421,14 @@
       <c r="U133" s="48">
         <v>4.0288390635428044</v>
       </c>
-      <c r="V133" s="49">
+      <c r="V133" s="48">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="134" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W133" s="79">
+        <v>35758978</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>16</v>
       </c>
@@ -9925,11 +10493,14 @@
       <c r="U134" s="36">
         <v>2.6842871324197688</v>
       </c>
-      <c r="V134" s="38">
+      <c r="V134" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W134" s="78">
+        <v>36421438</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>17</v>
       </c>
@@ -9994,11 +10565,14 @@
       <c r="U135" s="36">
         <v>3.7725013192651886</v>
       </c>
-      <c r="V135" s="38">
+      <c r="V135" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W135" s="78">
+        <v>37076387</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>18</v>
       </c>
@@ -10063,11 +10637,14 @@
       <c r="U136" s="36">
         <v>4.4472163427340803</v>
       </c>
-      <c r="V136" s="38">
+      <c r="V136" s="36">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W136" s="78">
+        <v>37723803</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>19</v>
       </c>
@@ -10132,11 +10709,14 @@
       <c r="U137" s="36">
         <v>4.4814075545120744</v>
       </c>
-      <c r="V137" s="38">
+      <c r="V137" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W137" s="78">
+        <v>38364307</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>20</v>
       </c>
@@ -10201,11 +10781,14 @@
       <c r="U138" s="36">
         <v>4.7532359887971722</v>
       </c>
-      <c r="V138" s="38">
+      <c r="V138" s="36">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W138" s="78">
+        <v>38999468</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>21</v>
       </c>
@@ -10270,11 +10853,14 @@
       <c r="U139" s="36">
         <v>4.1274840135585293</v>
       </c>
-      <c r="V139" s="38">
+      <c r="V139" s="36">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="140" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W139" s="78">
+        <v>39629965</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>22</v>
       </c>
@@ -10339,11 +10925,14 @@
       <c r="U140" s="36">
         <v>0.9983407946564995</v>
       </c>
-      <c r="V140" s="38">
+      <c r="V140" s="36">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W140" s="78">
+        <v>40255956</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>23</v>
       </c>
@@ -10408,11 +10997,14 @@
       <c r="U141" s="36">
         <v>1.7416952497298013</v>
       </c>
-      <c r="V141" s="38">
+      <c r="V141" s="36">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W141" s="78">
+        <v>40875363</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>24</v>
       </c>
@@ -10477,11 +11069,14 @@
       <c r="U142" s="36">
         <v>2.8612107674102418</v>
       </c>
-      <c r="V142" s="38">
+      <c r="V142" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W142" s="78">
+        <v>41483872</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>25</v>
       </c>
@@ -10546,11 +11141,14 @@
       <c r="U143" s="36">
         <v>3.7988911266239285</v>
       </c>
-      <c r="V143" s="38">
+      <c r="V143" s="36">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W143" s="78">
+        <v>42075953</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>26</v>
       </c>
@@ -10615,11 +11213,14 @@
       <c r="U144" s="36">
         <v>3.5132137966530195</v>
       </c>
-      <c r="V144" s="38">
+      <c r="V144" s="36">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W144" s="78">
+        <v>42647731</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>27</v>
       </c>
@@ -10682,11 +11283,14 @@
       <c r="U145" s="36">
         <v>2.8549722917001503</v>
       </c>
-      <c r="V145" s="38">
+      <c r="V145" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W145" s="78">
+        <v>43200901</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>28</v>
       </c>
@@ -10751,11 +11355,14 @@
       <c r="U146" s="36">
         <v>1.8761714584669278</v>
       </c>
-      <c r="V146" s="38">
+      <c r="V146" s="36">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W146" s="78">
+        <v>43737512</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>29</v>
       </c>
@@ -10820,11 +11427,14 @@
       <c r="U147" s="36">
         <v>-0.136579805460741</v>
       </c>
-      <c r="V147" s="38">
+      <c r="V147" s="36">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W147" s="78">
+        <v>44254972</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>30</v>
       </c>
@@ -10889,11 +11499,14 @@
       <c r="U148" s="36">
         <v>-2.5367570658566478</v>
       </c>
-      <c r="V148" s="38">
+      <c r="V148" s="36">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W148" s="78">
+        <v>44750054</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>31</v>
       </c>
@@ -10958,11 +11571,14 @@
       <c r="U149" s="36">
         <v>2.5637665587658063</v>
       </c>
-      <c r="V149" s="38">
+      <c r="V149" s="36">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="150" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W149" s="78">
+        <v>45222699</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>32</v>
       </c>
@@ -11027,11 +11643,14 @@
       <c r="U150" s="36">
         <v>1.5508355056815617</v>
       </c>
-      <c r="V150" s="38">
+      <c r="V150" s="36">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="151" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W150" s="78">
+        <v>45662747</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>33</v>
       </c>
@@ -11096,11 +11715,14 @@
       <c r="U151" s="36">
         <v>2.2495458523699199</v>
       </c>
-      <c r="V151" s="38">
+      <c r="V151" s="36">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W151" s="78">
+        <v>46075721</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>34</v>
       </c>
@@ -11165,11 +11787,14 @@
       <c r="U152" s="36">
         <v>1.8420810710110231</v>
       </c>
-      <c r="V152" s="38">
+      <c r="V152" s="36">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W152" s="78">
+        <v>46495492</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>35</v>
       </c>
@@ -11234,11 +11859,14 @@
       <c r="U153" s="36">
         <v>2.4519730353603393</v>
       </c>
-      <c r="V153" s="38">
+      <c r="V153" s="36">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="154" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W153" s="78">
+        <v>46967706</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>36</v>
       </c>
@@ -11303,11 +11931,14 @@
       <c r="U154" s="36">
         <v>2.8809104660521854</v>
       </c>
-      <c r="V154" s="38">
+      <c r="V154" s="36">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W154" s="78">
+        <v>47520667</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>37</v>
       </c>
@@ -11372,11 +12003,14 @@
       <c r="U155" s="36">
         <v>1.5672151699786383</v>
       </c>
-      <c r="V155" s="38">
+      <c r="V155" s="36">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="156" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W155" s="78">
+        <v>48175048</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>38</v>
       </c>
@@ -11441,11 +12075,14 @@
       <c r="U156" s="36">
         <v>2.2170103303188426</v>
       </c>
-      <c r="V156" s="38">
+      <c r="V156" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="157" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W156" s="78">
+        <v>48909844</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>39</v>
       </c>
@@ -11508,11 +12145,14 @@
       <c r="U157" s="37">
         <v>2.9273227282108536</v>
       </c>
-      <c r="V157" s="39">
+      <c r="V157" s="37">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="158" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W157" s="80">
+        <v>49661056</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>1</v>
       </c>
@@ -11569,11 +12209,14 @@
       <c r="U158" s="36">
         <v>-0.256751930992138</v>
       </c>
-      <c r="V158" s="38">
+      <c r="V158" s="36">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="159" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W158" s="78">
+        <v>7989186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>2</v>
       </c>
@@ -11630,11 +12273,14 @@
       <c r="U159" s="36">
         <v>2.5377186978074633</v>
       </c>
-      <c r="V159" s="38">
+      <c r="V159" s="36">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="160" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W159" s="78">
+        <v>8197652</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>3</v>
       </c>
@@ -11691,11 +12337,14 @@
       <c r="U160" s="36">
         <v>-1.8028744527117624</v>
       </c>
-      <c r="V160" s="38">
+      <c r="V160" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="161" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W160" s="78">
+        <v>8409397</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>4</v>
       </c>
@@ -11752,11 +12401,14 @@
       <c r="U161" s="36">
         <v>4.5839273156610147</v>
       </c>
-      <c r="V161" s="38">
+      <c r="V161" s="36">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="162" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W161" s="78">
+        <v>8624594</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>5</v>
       </c>
@@ -11813,11 +12465,14 @@
       <c r="U162" s="36">
         <v>7.2366199935738535</v>
       </c>
-      <c r="V162" s="38">
+      <c r="V162" s="36">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="163" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W162" s="78">
+        <v>8843462</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>6</v>
       </c>
@@ -11874,11 +12529,14 @@
       <c r="U163" s="36">
         <v>4.1696559543024279</v>
       </c>
-      <c r="V163" s="38">
+      <c r="V163" s="36">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W163" s="78">
+        <v>9066109</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>7</v>
       </c>
@@ -11935,11 +12593,14 @@
       <c r="U164" s="36">
         <v>3.462651712798916</v>
       </c>
-      <c r="V164" s="38">
+      <c r="V164" s="36">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="165" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W164" s="78">
+        <v>9292474</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>8</v>
       </c>
@@ -11998,11 +12659,14 @@
       <c r="U165" s="36">
         <v>3.4595725553488279</v>
       </c>
-      <c r="V165" s="38">
+      <c r="V165" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="166" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W165" s="78">
+        <v>9522360</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>9</v>
       </c>
@@ -12061,11 +12725,14 @@
       <c r="U166" s="36">
         <v>4.1770463844437842</v>
       </c>
-      <c r="V166" s="38">
+      <c r="V166" s="36">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="167" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W166" s="78">
+        <v>9755579</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>10</v>
       </c>
@@ -12124,11 +12791,14 @@
       <c r="U167" s="36">
         <v>3.6726563285104561</v>
       </c>
-      <c r="V167" s="38">
+      <c r="V167" s="36">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="168" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W167" s="78">
+        <v>9991870</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>11</v>
       </c>
@@ -12187,11 +12857,14 @@
       <c r="U168" s="36">
         <v>1.8859603230941815</v>
       </c>
-      <c r="V168" s="38">
+      <c r="V168" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="169" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W168" s="78">
+        <v>10230934</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>12</v>
       </c>
@@ -12250,11 +12923,14 @@
       <c r="U169" s="48">
         <v>-0.10825910527866256</v>
       </c>
-      <c r="V169" s="49">
+      <c r="V169" s="48">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="170" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W169" s="79">
+        <v>10472475</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>13</v>
       </c>
@@ -12315,11 +12991,14 @@
       <c r="U170" s="36">
         <v>3.5224424938664356</v>
       </c>
-      <c r="V170" s="38">
+      <c r="V170" s="36">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="171" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W170" s="78">
+        <v>10716129</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>14</v>
       </c>
@@ -12382,11 +13061,14 @@
       <c r="U171" s="36">
         <v>2.7528443268801226</v>
       </c>
-      <c r="V171" s="38">
+      <c r="V171" s="36">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="172" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W171" s="78">
+        <v>10961466</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>15</v>
       </c>
@@ -12449,11 +13131,14 @@
       <c r="U172" s="48">
         <v>4.0288390635428044</v>
       </c>
-      <c r="V172" s="49">
+      <c r="V172" s="48">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="173" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W172" s="79">
+        <v>11208001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>16</v>
       </c>
@@ -12518,11 +13203,14 @@
       <c r="U173" s="36">
         <v>2.6842871324197688</v>
       </c>
-      <c r="V173" s="38">
+      <c r="V173" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="174" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W173" s="78">
+        <v>11455204</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>17</v>
       </c>
@@ -12587,11 +13275,14 @@
       <c r="U174" s="36">
         <v>3.7725013192651886</v>
       </c>
-      <c r="V174" s="38">
+      <c r="V174" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="175" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W174" s="78">
+        <v>11703174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>18</v>
       </c>
@@ -12656,11 +13347,14 @@
       <c r="U175" s="36">
         <v>4.4472163427340803</v>
       </c>
-      <c r="V175" s="38">
+      <c r="V175" s="36">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="176" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W175" s="78">
+        <v>11951452</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>19</v>
       </c>
@@ -12725,11 +13419,14 @@
       <c r="U176" s="36">
         <v>4.4814075545120744</v>
       </c>
-      <c r="V176" s="38">
+      <c r="V176" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="177" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W176" s="78">
+        <v>12198449</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>20</v>
       </c>
@@ -12794,11 +13491,14 @@
       <c r="U177" s="36">
         <v>4.7532359887971722</v>
       </c>
-      <c r="V177" s="38">
+      <c r="V177" s="36">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="178" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W177" s="78">
+        <v>12442115</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>21</v>
       </c>
@@ -12863,11 +13563,14 @@
       <c r="U178" s="36">
         <v>4.1274840135585293</v>
       </c>
-      <c r="V178" s="38">
+      <c r="V178" s="36">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="179" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W178" s="78">
+        <v>12681123</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>22</v>
       </c>
@@ -12932,11 +13635,14 @@
       <c r="U179" s="36">
         <v>0.9983407946564995</v>
       </c>
-      <c r="V179" s="38">
+      <c r="V179" s="36">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="180" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W179" s="78">
+        <v>12914667</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>23</v>
       </c>
@@ -12999,11 +13705,14 @@
       <c r="U180" s="36">
         <v>1.7416952497298013</v>
       </c>
-      <c r="V180" s="38">
+      <c r="V180" s="36">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="181" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W180" s="78">
+        <v>13143465</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>24</v>
       </c>
@@ -13068,11 +13777,14 @@
       <c r="U181" s="36">
         <v>2.8612107674102418</v>
       </c>
-      <c r="V181" s="38">
+      <c r="V181" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="182" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W181" s="78">
+        <v>13369678</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>25</v>
       </c>
@@ -13137,11 +13849,14 @@
       <c r="U182" s="36">
         <v>3.7988911266239285</v>
       </c>
-      <c r="V182" s="38">
+      <c r="V182" s="36">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="183" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W182" s="78">
+        <v>13596388</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>26</v>
       </c>
@@ -13206,11 +13921,14 @@
       <c r="U183" s="36">
         <v>3.5132137966530195</v>
       </c>
-      <c r="V183" s="38">
+      <c r="V183" s="36">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="184" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W183" s="78">
+        <v>13825847</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>27</v>
       </c>
@@ -13275,11 +13993,14 @@
       <c r="U184" s="36">
         <v>2.8549722917001503</v>
       </c>
-      <c r="V184" s="38">
+      <c r="V184" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W184" s="78">
+        <v>14059384</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>28</v>
       </c>
@@ -13344,11 +14065,14 @@
       <c r="U185" s="36">
         <v>1.8761714584669278</v>
       </c>
-      <c r="V185" s="38">
+      <c r="V185" s="36">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="186" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W185" s="78">
+        <v>14296557</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>29</v>
       </c>
@@ -13413,11 +14137,14 @@
       <c r="U186" s="36">
         <v>-0.136579805460741</v>
       </c>
-      <c r="V186" s="38">
+      <c r="V186" s="36">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="187" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W186" s="78">
+        <v>14535739</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>30</v>
       </c>
@@ -13482,11 +14209,14 @@
       <c r="U187" s="36">
         <v>-2.5367570658566478</v>
       </c>
-      <c r="V187" s="38">
+      <c r="V187" s="36">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="188" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W187" s="78">
+        <v>14774424</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>31</v>
       </c>
@@ -13551,11 +14281,14 @@
       <c r="U188" s="36">
         <v>2.5637665587658063</v>
       </c>
-      <c r="V188" s="38">
+      <c r="V188" s="36">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="189" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W188" s="78">
+        <v>15011117</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>32</v>
       </c>
@@ -13620,11 +14353,14 @@
       <c r="U189" s="36">
         <v>1.5508355056815617</v>
       </c>
-      <c r="V189" s="38">
+      <c r="V189" s="36">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="190" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W189" s="78">
+        <v>15243883</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>33</v>
       </c>
@@ -13689,11 +14425,14 @@
       <c r="U190" s="36">
         <v>2.2495458523699199</v>
       </c>
-      <c r="V190" s="38">
+      <c r="V190" s="36">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="191" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W190" s="78">
+        <v>15474102</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>34</v>
       </c>
@@ -13756,11 +14495,14 @@
       <c r="U191" s="36">
         <v>1.8420810710110231</v>
       </c>
-      <c r="V191" s="38">
+      <c r="V191" s="36">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="192" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W191" s="78">
+        <v>15707474</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>35</v>
       </c>
@@ -13825,11 +14567,14 @@
       <c r="U192" s="36">
         <v>2.4519730353603393</v>
       </c>
-      <c r="V192" s="38">
+      <c r="V192" s="36">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="193" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W192" s="78">
+        <v>15951838</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>36</v>
       </c>
@@ -13894,11 +14639,14 @@
       <c r="U193" s="36">
         <v>2.8809104660521854</v>
       </c>
-      <c r="V193" s="38">
+      <c r="V193" s="36">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W193" s="78">
+        <v>16212020</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>37</v>
       </c>
@@ -13963,11 +14711,14 @@
       <c r="U194" s="36">
         <v>1.5672151699786383</v>
       </c>
-      <c r="V194" s="38">
+      <c r="V194" s="36">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="195" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W194" s="78">
+        <v>16491115</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>38</v>
       </c>
@@ -14032,11 +14783,14 @@
       <c r="U195" s="36">
         <v>2.2170103303188426</v>
       </c>
-      <c r="V195" s="38">
+      <c r="V195" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="196" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W195" s="78">
+        <v>16785361</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="16">
         <v>39</v>
       </c>
@@ -14099,11 +14853,14 @@
       <c r="U196" s="37">
         <v>2.9273227282108536</v>
       </c>
-      <c r="V196" s="39">
+      <c r="V196" s="37">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="197" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W196" s="80">
+        <v>17084357</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12">
         <v>1</v>
       </c>
@@ -14160,11 +14917,14 @@
       <c r="U197" s="36">
         <v>-0.256751930992138</v>
       </c>
-      <c r="V197" s="38">
+      <c r="V197" s="36">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="198" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W197" s="78">
+        <v>67761372</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>2</v>
       </c>
@@ -14221,11 +14981,14 @@
       <c r="U198" s="36">
         <v>2.5377186978074633</v>
       </c>
-      <c r="V198" s="38">
+      <c r="V198" s="36">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="199" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W198" s="78">
+        <v>69407624</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>3</v>
       </c>
@@ -14282,11 +15045,14 @@
       <c r="U199" s="36">
         <v>-1.8028744527117624</v>
       </c>
-      <c r="V199" s="38">
+      <c r="V199" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="200" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W199" s="78">
+        <v>71058654</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>4</v>
       </c>
@@ -14343,11 +15109,14 @@
       <c r="U200" s="36">
         <v>4.5839273156610147</v>
       </c>
-      <c r="V200" s="38">
+      <c r="V200" s="36">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="201" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W200" s="78">
+        <v>72709299</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>5</v>
       </c>
@@ -14404,11 +15173,14 @@
       <c r="U201" s="36">
         <v>7.2366199935738535</v>
       </c>
-      <c r="V201" s="38">
+      <c r="V201" s="36">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="202" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W201" s="78">
+        <v>74352631</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>6</v>
       </c>
@@ -14465,11 +15237,14 @@
       <c r="U202" s="36">
         <v>4.1696559543024279</v>
       </c>
-      <c r="V202" s="38">
+      <c r="V202" s="36">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="203" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W202" s="78">
+        <v>75983485</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>7</v>
       </c>
@@ -14526,11 +15301,14 @@
       <c r="U203" s="36">
         <v>3.462651712798916</v>
       </c>
-      <c r="V203" s="38">
+      <c r="V203" s="36">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="204" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W203" s="78">
+        <v>77599098</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>8</v>
       </c>
@@ -14587,11 +15365,14 @@
       <c r="U204" s="36">
         <v>3.4595725553488279</v>
       </c>
-      <c r="V204" s="38">
+      <c r="V204" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="205" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W204" s="78">
+        <v>79200081</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>9</v>
       </c>
@@ -14650,11 +15431,14 @@
       <c r="U205" s="36">
         <v>4.1770463844437842</v>
       </c>
-      <c r="V205" s="38">
+      <c r="V205" s="36">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="206" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W205" s="78">
+        <v>80788721</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>10</v>
       </c>
@@ -14711,11 +15495,14 @@
       <c r="U206" s="36">
         <v>3.6726563285104561</v>
       </c>
-      <c r="V206" s="38">
+      <c r="V206" s="36">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="207" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W206" s="78">
+        <v>82368931</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
         <v>11</v>
       </c>
@@ -14772,11 +15559,14 @@
       <c r="U207" s="36">
         <v>1.8859603230941815</v>
       </c>
-      <c r="V207" s="38">
+      <c r="V207" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="208" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W207" s="78">
+        <v>83943132</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>12</v>
       </c>
@@ -14837,11 +15627,14 @@
       <c r="U208" s="48">
         <v>-0.10825910527866256</v>
       </c>
-      <c r="V208" s="49">
+      <c r="V208" s="48">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="209" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W208" s="79">
+        <v>85512623</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
         <v>13</v>
       </c>
@@ -14902,11 +15695,14 @@
       <c r="U209" s="36">
         <v>3.5224424938664356</v>
       </c>
-      <c r="V209" s="38">
+      <c r="V209" s="36">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="210" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W209" s="78">
+        <v>87075138</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>14</v>
       </c>
@@ -14967,11 +15763,14 @@
       <c r="U210" s="36">
         <v>2.7528443268801226</v>
       </c>
-      <c r="V210" s="38">
+      <c r="V210" s="36">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="211" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W210" s="78">
+        <v>88625440</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>15</v>
       </c>
@@ -15032,11 +15831,14 @@
       <c r="U211" s="48">
         <v>4.0288390635428044</v>
       </c>
-      <c r="V211" s="49">
+      <c r="V211" s="48">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="212" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W211" s="79">
+        <v>90156400</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>16</v>
       </c>
@@ -15101,11 +15903,14 @@
       <c r="U212" s="36">
         <v>2.6842871324197688</v>
       </c>
-      <c r="V212" s="38">
+      <c r="V212" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="213" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W212" s="78">
+        <v>91663285</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>17</v>
       </c>
@@ -15170,11 +15975,14 @@
       <c r="U213" s="36">
         <v>3.7725013192651886</v>
       </c>
-      <c r="V213" s="38">
+      <c r="V213" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="214" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W213" s="78">
+        <v>93147044</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
         <v>18</v>
       </c>
@@ -15239,11 +16047,14 @@
       <c r="U214" s="36">
         <v>4.4472163427340803</v>
       </c>
-      <c r="V214" s="38">
+      <c r="V214" s="36">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="215" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W214" s="78">
+        <v>94611002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>19</v>
       </c>
@@ -15308,11 +16119,14 @@
       <c r="U215" s="36">
         <v>4.4814075545120744</v>
       </c>
-      <c r="V215" s="38">
+      <c r="V215" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="216" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W215" s="78">
+        <v>96056321</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>20</v>
       </c>
@@ -15377,11 +16191,14 @@
       <c r="U216" s="36">
         <v>4.7532359887971722</v>
       </c>
-      <c r="V216" s="38">
+      <c r="V216" s="36">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="217" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W216" s="78">
+        <v>97484832</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>21</v>
       </c>
@@ -15446,11 +16263,14 @@
       <c r="U217" s="36">
         <v>4.1274840135585293</v>
       </c>
-      <c r="V217" s="38">
+      <c r="V217" s="36">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="218" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W217" s="78">
+        <v>98899845</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>22</v>
       </c>
@@ -15515,11 +16335,14 @@
       <c r="U218" s="36">
         <v>0.9983407946564995</v>
       </c>
-      <c r="V218" s="38">
+      <c r="V218" s="36">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="219" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W218" s="78">
+        <v>100298153</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>23</v>
       </c>
@@ -15584,11 +16407,14 @@
       <c r="U219" s="36">
         <v>1.7416952497298013</v>
       </c>
-      <c r="V219" s="38">
+      <c r="V219" s="36">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="220" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W219" s="78">
+        <v>101684758</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
         <v>24</v>
       </c>
@@ -15653,11 +16479,14 @@
       <c r="U220" s="36">
         <v>2.8612107674102418</v>
       </c>
-      <c r="V220" s="38">
+      <c r="V220" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="221" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W220" s="78">
+        <v>103081020</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
         <v>25</v>
       </c>
@@ -15722,11 +16551,14 @@
       <c r="U221" s="36">
         <v>3.7988911266239285</v>
       </c>
-      <c r="V221" s="38">
+      <c r="V221" s="36">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="222" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W221" s="78">
+        <v>104514932</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
         <v>26</v>
       </c>
@@ -15791,11 +16623,14 @@
       <c r="U222" s="36">
         <v>3.5132137966530195</v>
       </c>
-      <c r="V222" s="38">
+      <c r="V222" s="36">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="223" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W222" s="78">
+        <v>106005203</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
         <v>27</v>
       </c>
@@ -15860,11 +16695,14 @@
       <c r="U223" s="36">
         <v>2.8549722917001503</v>
       </c>
-      <c r="V223" s="38">
+      <c r="V223" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="224" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W223" s="78">
+        <v>107560153</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
         <v>28</v>
       </c>
@@ -15929,11 +16767,14 @@
       <c r="U224" s="36">
         <v>1.8761714584669278</v>
       </c>
-      <c r="V224" s="38">
+      <c r="V224" s="36">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="225" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W224" s="78">
+        <v>109170502</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
         <v>29</v>
       </c>
@@ -15998,11 +16839,14 @@
       <c r="U225" s="36">
         <v>-0.136579805460741</v>
       </c>
-      <c r="V225" s="38">
+      <c r="V225" s="36">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="226" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W225" s="78">
+        <v>110815271</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>30</v>
       </c>
@@ -16067,11 +16911,14 @@
       <c r="U226" s="36">
         <v>-2.5367570658566478</v>
       </c>
-      <c r="V226" s="38">
+      <c r="V226" s="36">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="227" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W226" s="78">
+        <v>112463887</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>31</v>
       </c>
@@ -16136,11 +16983,14 @@
       <c r="U227" s="36">
         <v>2.5637665587658063</v>
       </c>
-      <c r="V227" s="38">
+      <c r="V227" s="36">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="228" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W227" s="78">
+        <v>114092963</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>32</v>
       </c>
@@ -16205,11 +17055,14 @@
       <c r="U228" s="36">
         <v>1.5508355056815617</v>
       </c>
-      <c r="V228" s="38">
+      <c r="V228" s="36">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="229" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W228" s="78">
+        <v>115695473</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
         <v>33</v>
       </c>
@@ -16274,11 +17127,14 @@
       <c r="U229" s="36">
         <v>2.2495458523699199</v>
       </c>
-      <c r="V229" s="38">
+      <c r="V229" s="36">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="230" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W229" s="78">
+        <v>117274155</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
         <v>34</v>
       </c>
@@ -16343,11 +17199,14 @@
       <c r="U230" s="36">
         <v>1.8420810710110231</v>
       </c>
-      <c r="V230" s="38">
+      <c r="V230" s="36">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="231" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W230" s="78">
+        <v>118827161</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
         <v>35</v>
       </c>
@@ -16412,11 +17271,14 @@
       <c r="U231" s="36">
         <v>2.4519730353603393</v>
       </c>
-      <c r="V231" s="38">
+      <c r="V231" s="36">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="232" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W231" s="78">
+        <v>120355128</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
         <v>36</v>
       </c>
@@ -16481,11 +17343,14 @@
       <c r="U232" s="36">
         <v>2.8809104660521854</v>
       </c>
-      <c r="V232" s="38">
+      <c r="V232" s="36">
         <v>4</v>
       </c>
-    </row>
-    <row r="233" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W232" s="78">
+        <v>121858258</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
         <v>37</v>
       </c>
@@ -16550,11 +17415,14 @@
       <c r="U233" s="36">
         <v>1.5672151699786383</v>
       </c>
-      <c r="V233" s="38">
+      <c r="V233" s="36">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="234" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W233" s="78">
+        <v>123333376</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
         <v>38</v>
       </c>
@@ -16619,11 +17487,14 @@
       <c r="U234" s="36">
         <v>2.2170103303188426</v>
       </c>
-      <c r="V234" s="38">
+      <c r="V234" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="235" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W234" s="78">
+        <v>124777324</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
         <v>39</v>
       </c>
@@ -16686,11 +17557,14 @@
       <c r="U235" s="37">
         <v>2.9273227282108536</v>
       </c>
-      <c r="V235" s="39">
+      <c r="V235" s="37">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="236" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W235" s="80">
+        <v>126190788</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="12">
         <v>1</v>
       </c>
@@ -16747,11 +17621,14 @@
       <c r="U236" s="36">
         <v>-0.256751930992138</v>
       </c>
-      <c r="V236" s="38">
+      <c r="V236" s="36">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="237" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W236" s="78">
+        <v>3265519</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
         <v>2</v>
       </c>
@@ -16808,11 +17685,14 @@
       <c r="U237" s="36">
         <v>2.5377186978074633</v>
       </c>
-      <c r="V237" s="38">
+      <c r="V237" s="36">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="238" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W237" s="78">
+        <v>3360140</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
         <v>3</v>
       </c>
@@ -16869,11 +17749,14 @@
       <c r="U238" s="36">
         <v>-1.8028744527117624</v>
       </c>
-      <c r="V238" s="38">
+      <c r="V238" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="239" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W238" s="78">
+        <v>3455123</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
         <v>4</v>
       </c>
@@ -16930,11 +17813,14 @@
       <c r="U239" s="36">
         <v>4.5839273156610147</v>
       </c>
-      <c r="V239" s="38">
+      <c r="V239" s="36">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="240" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W239" s="78">
+        <v>3549711</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
         <v>5</v>
       </c>
@@ -16991,11 +17877,14 @@
       <c r="U240" s="36">
         <v>7.2366199935738535</v>
       </c>
-      <c r="V240" s="38">
+      <c r="V240" s="36">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="241" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W240" s="78">
+        <v>3642976</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
         <v>6</v>
       </c>
@@ -17054,11 +17943,14 @@
       <c r="U241" s="36">
         <v>4.1696559543024279</v>
       </c>
-      <c r="V241" s="38">
+      <c r="V241" s="36">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="242" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W241" s="78">
+        <v>3734341</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>7</v>
       </c>
@@ -17117,11 +18009,14 @@
       <c r="U242" s="36">
         <v>3.462651712798916</v>
       </c>
-      <c r="V242" s="38">
+      <c r="V242" s="36">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="243" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W242" s="78">
+        <v>3823130</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
         <v>8</v>
       </c>
@@ -17180,11 +18075,14 @@
       <c r="U243" s="36">
         <v>3.4595725553488279</v>
       </c>
-      <c r="V243" s="38">
+      <c r="V243" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="244" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W243" s="78">
+        <v>3909671</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
         <v>9</v>
       </c>
@@ -17243,11 +18141,14 @@
       <c r="U244" s="36">
         <v>4.1770463844437842</v>
       </c>
-      <c r="V244" s="38">
+      <c r="V244" s="36">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="245" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W244" s="78">
+        <v>3995533</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>10</v>
       </c>
@@ -17306,11 +18207,14 @@
       <c r="U245" s="36">
         <v>3.6726563285104561</v>
       </c>
-      <c r="V245" s="38">
+      <c r="V245" s="36">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="246" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W245" s="78">
+        <v>4082958</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
         <v>11</v>
       </c>
@@ -17367,11 +18271,14 @@
       <c r="U246" s="36">
         <v>1.8859603230941815</v>
       </c>
-      <c r="V246" s="38">
+      <c r="V246" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="247" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W246" s="78">
+        <v>4173434</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>12</v>
       </c>
@@ -17428,11 +18335,14 @@
       <c r="U247" s="48">
         <v>-0.10825910527866256</v>
       </c>
-      <c r="V247" s="49">
+      <c r="V247" s="48">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="248" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W247" s="79">
+        <v>4267568</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
         <v>13</v>
       </c>
@@ -17491,11 +18401,14 @@
       <c r="U248" s="36">
         <v>3.5224424938664356</v>
       </c>
-      <c r="V248" s="38">
+      <c r="V248" s="36">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="249" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W248" s="78">
+        <v>4364512</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
         <v>14</v>
       </c>
@@ -17554,11 +18467,14 @@
       <c r="U249" s="36">
         <v>2.7528443268801226</v>
       </c>
-      <c r="V249" s="38">
+      <c r="V249" s="36">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="250" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W249" s="78">
+        <v>4462497</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>15</v>
       </c>
@@ -17617,11 +18533,14 @@
       <c r="U250" s="48">
         <v>4.0288390635428044</v>
       </c>
-      <c r="V250" s="49">
+      <c r="V250" s="48">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="251" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W250" s="79">
+        <v>4559006</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
         <v>16</v>
       </c>
@@ -17684,11 +18603,14 @@
       <c r="U251" s="36">
         <v>2.6842871324197688</v>
       </c>
-      <c r="V251" s="38">
+      <c r="V251" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="252" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W251" s="78">
+        <v>4652185</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
         <v>17</v>
       </c>
@@ -17751,11 +18673,14 @@
       <c r="U252" s="36">
         <v>3.7725013192651886</v>
       </c>
-      <c r="V252" s="38">
+      <c r="V252" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="253" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W252" s="78">
+        <v>4741578</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
         <v>18</v>
       </c>
@@ -17818,11 +18743,14 @@
       <c r="U253" s="36">
         <v>4.4472163427340803</v>
       </c>
-      <c r="V253" s="38">
+      <c r="V253" s="36">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="254" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W253" s="78">
+        <v>4827661</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
         <v>19</v>
       </c>
@@ -17885,11 +18813,14 @@
       <c r="U254" s="36">
         <v>4.4814075545120744</v>
       </c>
-      <c r="V254" s="38">
+      <c r="V254" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="255" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W254" s="78">
+        <v>4910647</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
         <v>20</v>
       </c>
@@ -17952,11 +18883,14 @@
       <c r="U255" s="36">
         <v>4.7532359887971722</v>
       </c>
-      <c r="V255" s="38">
+      <c r="V255" s="36">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="256" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W255" s="78">
+        <v>4991040</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
         <v>21</v>
       </c>
@@ -18019,11 +18953,14 @@
       <c r="U256" s="36">
         <v>4.1274840135585293</v>
       </c>
-      <c r="V256" s="38">
+      <c r="V256" s="36">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="257" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W256" s="78">
+        <v>5069302</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
         <v>22</v>
       </c>
@@ -18086,11 +19023,14 @@
       <c r="U257" s="36">
         <v>0.9983407946564995</v>
       </c>
-      <c r="V257" s="38">
+      <c r="V257" s="36">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="258" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W257" s="78">
+        <v>5145366</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
         <v>23</v>
       </c>
@@ -18153,11 +19093,14 @@
       <c r="U258" s="36">
         <v>1.7416952497298013</v>
       </c>
-      <c r="V258" s="38">
+      <c r="V258" s="36">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="259" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W258" s="78">
+        <v>5219328</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
         <v>24</v>
       </c>
@@ -18222,11 +19165,14 @@
       <c r="U259" s="36">
         <v>2.8612107674102418</v>
       </c>
-      <c r="V259" s="38">
+      <c r="V259" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="260" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W259" s="78">
+        <v>5292118</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
         <v>25</v>
       </c>
@@ -18291,11 +19237,14 @@
       <c r="U260" s="36">
         <v>3.7988911266239285</v>
       </c>
-      <c r="V260" s="38">
+      <c r="V260" s="36">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="261" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W260" s="78">
+        <v>5364935</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
         <v>26</v>
       </c>
@@ -18360,11 +19309,14 @@
       <c r="U261" s="36">
         <v>3.5132137966530195</v>
       </c>
-      <c r="V261" s="38">
+      <c r="V261" s="36">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="262" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W261" s="78">
+        <v>5438690</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
         <v>27</v>
       </c>
@@ -18429,11 +19381,14 @@
       <c r="U262" s="36">
         <v>2.8549722917001503</v>
       </c>
-      <c r="V262" s="38">
+      <c r="V262" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="263" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W262" s="78">
+        <v>5513763</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
         <v>28</v>
       </c>
@@ -18498,11 +19453,14 @@
       <c r="U263" s="36">
         <v>1.8761714584669278</v>
       </c>
-      <c r="V263" s="38">
+      <c r="V263" s="36">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="264" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W263" s="78">
+        <v>5590055</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
         <v>29</v>
       </c>
@@ -18567,11 +19525,14 @@
       <c r="U264" s="36">
         <v>-0.136579805460741</v>
       </c>
-      <c r="V264" s="38">
+      <c r="V264" s="36">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="265" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W264" s="78">
+        <v>5667432</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
         <v>30</v>
       </c>
@@ -18636,11 +19597,14 @@
       <c r="U265" s="36">
         <v>-2.5367570658566478</v>
       </c>
-      <c r="V265" s="38">
+      <c r="V265" s="36">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="266" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W265" s="78">
+        <v>5745526</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
         <v>31</v>
       </c>
@@ -18705,11 +19669,14 @@
       <c r="U266" s="36">
         <v>2.5637665587658063</v>
       </c>
-      <c r="V266" s="38">
+      <c r="V266" s="36">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="267" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W266" s="78">
+        <v>5824065</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
         <v>32</v>
       </c>
@@ -18772,11 +19739,14 @@
       <c r="U267" s="36">
         <v>1.5508355056815617</v>
       </c>
-      <c r="V267" s="38">
+      <c r="V267" s="36">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="268" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W267" s="78">
+        <v>5903039</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
         <v>33</v>
       </c>
@@ -18841,11 +19811,14 @@
       <c r="U268" s="36">
         <v>2.2495458523699199</v>
       </c>
-      <c r="V268" s="38">
+      <c r="V268" s="36">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="269" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W268" s="78">
+        <v>5982526</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
         <v>34</v>
       </c>
@@ -18910,11 +19883,14 @@
       <c r="U269" s="36">
         <v>1.8420810710110231</v>
       </c>
-      <c r="V269" s="38">
+      <c r="V269" s="36">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="270" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W269" s="78">
+        <v>6062454</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
         <v>35</v>
       </c>
@@ -18979,11 +19955,14 @@
       <c r="U270" s="36">
         <v>2.4519730353603393</v>
       </c>
-      <c r="V270" s="38">
+      <c r="V270" s="36">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="271" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W270" s="78">
+        <v>6142733</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
         <v>36</v>
       </c>
@@ -19046,11 +20025,14 @@
       <c r="U271" s="36">
         <v>2.8809104660521854</v>
       </c>
-      <c r="V271" s="38">
+      <c r="V271" s="36">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W271" s="78">
+        <v>6223240</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
         <v>37</v>
       </c>
@@ -19113,11 +20095,14 @@
       <c r="U272" s="36">
         <v>1.5672151699786383</v>
       </c>
-      <c r="V272" s="38">
+      <c r="V272" s="36">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="273" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W272" s="78">
+        <v>6303974</v>
+      </c>
+    </row>
+    <row r="273" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>38</v>
       </c>
@@ -19180,11 +20165,14 @@
       <c r="U273" s="36">
         <v>2.2170103303188426</v>
       </c>
-      <c r="V273" s="38">
+      <c r="V273" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="274" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W273" s="78">
+        <v>6384855</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="16">
         <v>39</v>
       </c>
@@ -19245,11 +20233,14 @@
       <c r="U274" s="37">
         <v>2.9273227282108536</v>
       </c>
-      <c r="V274" s="39">
+      <c r="V274" s="37">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="275" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W274" s="80">
+        <v>6465513</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="12">
         <v>1</v>
       </c>
@@ -19308,11 +20299,14 @@
       <c r="U275" s="36">
         <v>-0.256751930992138</v>
       </c>
-      <c r="V275" s="38">
+      <c r="V275" s="36">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="276" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W275" s="78">
+        <v>3181625</v>
+      </c>
+    </row>
+    <row r="276" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
         <v>2</v>
       </c>
@@ -19369,11 +20363,14 @@
       <c r="U276" s="36">
         <v>2.5377186978074633</v>
       </c>
-      <c r="V276" s="38">
+      <c r="V276" s="36">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="277" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W276" s="78">
+        <v>3272912</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
         <v>3</v>
       </c>
@@ -19432,11 +20429,14 @@
       <c r="U277" s="36">
         <v>-1.8028744527117624</v>
       </c>
-      <c r="V277" s="38">
+      <c r="V277" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="278" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W277" s="78">
+        <v>3368773</v>
+      </c>
+    </row>
+    <row r="278" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
         <v>4</v>
       </c>
@@ -19495,11 +20495,14 @@
       <c r="U278" s="36">
         <v>4.5839273156610147</v>
       </c>
-      <c r="V278" s="38">
+      <c r="V278" s="36">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="279" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W278" s="78">
+        <v>3468535</v>
+      </c>
+    </row>
+    <row r="279" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
         <v>5</v>
       </c>
@@ -19558,11 +20561,14 @@
       <c r="U279" s="36">
         <v>7.2366199935738535</v>
       </c>
-      <c r="V279" s="38">
+      <c r="V279" s="36">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="280" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W279" s="78">
+        <v>3571272</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
         <v>6</v>
       </c>
@@ -19621,11 +20627,14 @@
       <c r="U280" s="36">
         <v>4.1696559543024279</v>
       </c>
-      <c r="V280" s="38">
+      <c r="V280" s="36">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="281" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W280" s="78">
+        <v>3676210</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>7</v>
       </c>
@@ -19684,11 +20693,14 @@
       <c r="U281" s="36">
         <v>3.462651712798916</v>
       </c>
-      <c r="V281" s="38">
+      <c r="V281" s="36">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="282" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W281" s="78">
+        <v>3783074</v>
+      </c>
+    </row>
+    <row r="282" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
         <v>8</v>
       </c>
@@ -19747,11 +20759,14 @@
       <c r="U282" s="36">
         <v>3.4595725553488279</v>
       </c>
-      <c r="V282" s="38">
+      <c r="V282" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="283" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W282" s="78">
+        <v>3891734</v>
+      </c>
+    </row>
+    <row r="283" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
         <v>9</v>
       </c>
@@ -19810,11 +20825,14 @@
       <c r="U283" s="36">
         <v>4.1770463844437842</v>
       </c>
-      <c r="V283" s="38">
+      <c r="V283" s="36">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="284" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W283" s="78">
+        <v>4001681</v>
+      </c>
+    </row>
+    <row r="284" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
         <v>10</v>
       </c>
@@ -19873,11 +20891,14 @@
       <c r="U284" s="36">
         <v>3.6726563285104561</v>
       </c>
-      <c r="V284" s="38">
+      <c r="V284" s="36">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="285" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W284" s="78">
+        <v>4112386</v>
+      </c>
+    </row>
+    <row r="285" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
         <v>11</v>
       </c>
@@ -19936,11 +20957,14 @@
       <c r="U285" s="36">
         <v>1.8859603230941815</v>
       </c>
-      <c r="V285" s="38">
+      <c r="V285" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="286" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W285" s="78">
+        <v>4223415</v>
+      </c>
+    </row>
+    <row r="286" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>12</v>
       </c>
@@ -20001,11 +21025,14 @@
       <c r="U286" s="48">
         <v>-0.10825910527866256</v>
       </c>
-      <c r="V286" s="49">
+      <c r="V286" s="48">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="287" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W286" s="79">
+        <v>4334345</v>
+      </c>
+    </row>
+    <row r="287" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>13</v>
       </c>
@@ -20066,11 +21093,14 @@
       <c r="U287" s="36">
         <v>3.5224424938664356</v>
       </c>
-      <c r="V287" s="38">
+      <c r="V287" s="36">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="288" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W287" s="78">
+        <v>4445016</v>
+      </c>
+    </row>
+    <row r="288" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
         <v>14</v>
       </c>
@@ -20131,11 +21161,14 @@
       <c r="U288" s="36">
         <v>2.7528443268801226</v>
       </c>
-      <c r="V288" s="38">
+      <c r="V288" s="36">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="289" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W288" s="78">
+        <v>4555521</v>
+      </c>
+    </row>
+    <row r="289" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>15</v>
       </c>
@@ -20198,11 +21231,14 @@
       <c r="U289" s="48">
         <v>4.0288390635428044</v>
       </c>
-      <c r="V289" s="49">
+      <c r="V289" s="48">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="290" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W289" s="79">
+        <v>4666094</v>
+      </c>
+    </row>
+    <row r="290" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
         <v>16</v>
       </c>
@@ -20267,11 +21303,14 @@
       <c r="U290" s="36">
         <v>2.6842871324197688</v>
       </c>
-      <c r="V290" s="38">
+      <c r="V290" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="291" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W290" s="78">
+        <v>4776843</v>
+      </c>
+    </row>
+    <row r="291" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="8">
         <v>17</v>
       </c>
@@ -20336,11 +21375,14 @@
       <c r="U291" s="36">
         <v>3.7725013192651886</v>
       </c>
-      <c r="V291" s="38">
+      <c r="V291" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="292" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W291" s="78">
+        <v>4887632</v>
+      </c>
+    </row>
+    <row r="292" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
         <v>18</v>
       </c>
@@ -20405,11 +21447,14 @@
       <c r="U292" s="36">
         <v>4.4472163427340803</v>
       </c>
-      <c r="V292" s="38">
+      <c r="V292" s="36">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="293" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W292" s="78">
+        <v>4998100</v>
+      </c>
+    </row>
+    <row r="293" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
         <v>19</v>
       </c>
@@ -20472,11 +21517,14 @@
       <c r="U293" s="36">
         <v>4.4814075545120744</v>
       </c>
-      <c r="V293" s="38">
+      <c r="V293" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="294" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W293" s="78">
+        <v>5107839</v>
+      </c>
+    </row>
+    <row r="294" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
         <v>20</v>
       </c>
@@ -20541,11 +21589,14 @@
       <c r="U294" s="36">
         <v>4.7532359887971722</v>
       </c>
-      <c r="V294" s="38">
+      <c r="V294" s="36">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="295" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W294" s="78">
+        <v>5216349</v>
+      </c>
+    </row>
+    <row r="295" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>21</v>
       </c>
@@ -20610,11 +21661,14 @@
       <c r="U295" s="36">
         <v>4.1274840135585293</v>
       </c>
-      <c r="V295" s="38">
+      <c r="V295" s="36">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="296" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W295" s="78">
+        <v>5323201</v>
+      </c>
+    </row>
+    <row r="296" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
         <v>22</v>
       </c>
@@ -20677,11 +21731,14 @@
       <c r="U296" s="36">
         <v>0.9983407946564995</v>
       </c>
-      <c r="V296" s="38">
+      <c r="V296" s="36">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="297" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W296" s="78">
+        <v>5428444</v>
+      </c>
+    </row>
+    <row r="297" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
         <v>23</v>
       </c>
@@ -20746,11 +21803,14 @@
       <c r="U297" s="36">
         <v>1.7416952497298013</v>
       </c>
-      <c r="V297" s="38">
+      <c r="V297" s="36">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="298" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W297" s="78">
+        <v>5531962</v>
+      </c>
+    </row>
+    <row r="298" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
         <v>24</v>
       </c>
@@ -20815,11 +21875,14 @@
       <c r="U298" s="36">
         <v>2.8612107674102418</v>
       </c>
-      <c r="V298" s="38">
+      <c r="V298" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="299" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W298" s="78">
+        <v>5632983</v>
+      </c>
+    </row>
+    <row r="299" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
         <v>25</v>
       </c>
@@ -20884,11 +21947,14 @@
       <c r="U299" s="36">
         <v>3.7988911266239285</v>
       </c>
-      <c r="V299" s="38">
+      <c r="V299" s="36">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="300" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W299" s="78">
+        <v>5730549</v>
+      </c>
+    </row>
+    <row r="300" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
         <v>26</v>
       </c>
@@ -20953,11 +22019,14 @@
       <c r="U300" s="36">
         <v>3.5132137966530195</v>
       </c>
-      <c r="V300" s="38">
+      <c r="V300" s="36">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="301" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W300" s="78">
+        <v>5824096</v>
+      </c>
+    </row>
+    <row r="301" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
         <v>27</v>
       </c>
@@ -21022,11 +22091,14 @@
       <c r="U301" s="36">
         <v>2.8549722917001503</v>
       </c>
-      <c r="V301" s="38">
+      <c r="V301" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="302" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W301" s="78">
+        <v>5913209</v>
+      </c>
+    </row>
+    <row r="302" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
         <v>28</v>
       </c>
@@ -21091,11 +22163,14 @@
       <c r="U302" s="36">
         <v>1.8761714584669278</v>
       </c>
-      <c r="V302" s="38">
+      <c r="V302" s="36">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="303" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W302" s="78">
+        <v>5998427</v>
+      </c>
+    </row>
+    <row r="303" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
         <v>29</v>
       </c>
@@ -21160,11 +22235,14 @@
       <c r="U303" s="36">
         <v>-0.136579805460741</v>
       </c>
-      <c r="V303" s="38">
+      <c r="V303" s="36">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="304" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W303" s="78">
+        <v>6081296</v>
+      </c>
+    </row>
+    <row r="304" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
         <v>30</v>
       </c>
@@ -21229,11 +22307,14 @@
       <c r="U304" s="36">
         <v>-2.5367570658566478</v>
       </c>
-      <c r="V304" s="38">
+      <c r="V304" s="36">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="305" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W304" s="78">
+        <v>6163972</v>
+      </c>
+    </row>
+    <row r="305" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
         <v>31</v>
       </c>
@@ -21298,11 +22379,14 @@
       <c r="U305" s="36">
         <v>2.5637665587658063</v>
       </c>
-      <c r="V305" s="38">
+      <c r="V305" s="36">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="306" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W305" s="78">
+        <v>6248020</v>
+      </c>
+    </row>
+    <row r="306" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="8">
         <v>32</v>
       </c>
@@ -21367,11 +22451,14 @@
       <c r="U306" s="36">
         <v>1.5508355056815617</v>
       </c>
-      <c r="V306" s="38">
+      <c r="V306" s="36">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="307" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W306" s="78">
+        <v>6333976</v>
+      </c>
+    </row>
+    <row r="307" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="8">
         <v>33</v>
       </c>
@@ -21436,11 +22523,14 @@
       <c r="U307" s="36">
         <v>2.2495458523699199</v>
       </c>
-      <c r="V307" s="38">
+      <c r="V307" s="36">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="308" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W307" s="78">
+        <v>6421512</v>
+      </c>
+    </row>
+    <row r="308" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="8">
         <v>34</v>
       </c>
@@ -21505,11 +22595,14 @@
       <c r="U308" s="36">
         <v>1.8420810710110231</v>
       </c>
-      <c r="V308" s="38">
+      <c r="V308" s="36">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="309" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W308" s="78">
+        <v>6510276</v>
+      </c>
+    </row>
+    <row r="309" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="8">
         <v>35</v>
       </c>
@@ -21574,11 +22667,14 @@
       <c r="U309" s="36">
         <v>2.4519730353603393</v>
       </c>
-      <c r="V309" s="38">
+      <c r="V309" s="36">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="310" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W309" s="78">
+        <v>6599526</v>
+      </c>
+    </row>
+    <row r="310" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
         <v>36</v>
       </c>
@@ -21643,11 +22739,14 @@
       <c r="U310" s="36">
         <v>2.8809104660521854</v>
       </c>
-      <c r="V310" s="38">
+      <c r="V310" s="36">
         <v>4</v>
       </c>
-    </row>
-    <row r="311" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W310" s="78">
+        <v>6688746</v>
+      </c>
+    </row>
+    <row r="311" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
         <v>37</v>
       </c>
@@ -21712,11 +22811,14 @@
       <c r="U311" s="36">
         <v>1.5672151699786383</v>
       </c>
-      <c r="V311" s="38">
+      <c r="V311" s="36">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="312" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W311" s="78">
+        <v>6777872</v>
+      </c>
+    </row>
+    <row r="312" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
         <v>38</v>
       </c>
@@ -21781,11 +22883,14 @@
       <c r="U312" s="36">
         <v>2.2170103303188426</v>
       </c>
-      <c r="V312" s="38">
+      <c r="V312" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="313" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W312" s="78">
+        <v>6867062</v>
+      </c>
+    </row>
+    <row r="313" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="16">
         <v>39</v>
       </c>
@@ -21848,11 +22953,14 @@
       <c r="U313" s="37">
         <v>2.9273227282108536</v>
       </c>
-      <c r="V313" s="39">
+      <c r="V313" s="37">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="314" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W313" s="80">
+        <v>6956071</v>
+      </c>
+    </row>
+    <row r="314" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="12">
         <v>1</v>
       </c>
@@ -21911,11 +23019,14 @@
       <c r="U314" s="36">
         <v>-0.256751930992138</v>
       </c>
-      <c r="V314" s="38">
+      <c r="V314" s="36">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="315" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W314" s="78">
+        <v>17547610</v>
+      </c>
+    </row>
+    <row r="315" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="8">
         <v>2</v>
       </c>
@@ -21974,11 +23085,14 @@
       <c r="U315" s="36">
         <v>2.5377186978074633</v>
       </c>
-      <c r="V315" s="38">
+      <c r="V315" s="36">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="316" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W315" s="78">
+        <v>17985393</v>
+      </c>
+    </row>
+    <row r="316" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
         <v>3</v>
       </c>
@@ -22037,11 +23151,14 @@
       <c r="U316" s="36">
         <v>-1.8028744527117624</v>
       </c>
-      <c r="V316" s="38">
+      <c r="V316" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="317" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W316" s="78">
+        <v>18426415</v>
+      </c>
+    </row>
+    <row r="317" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="8">
         <v>4</v>
       </c>
@@ -22100,11 +23217,14 @@
       <c r="U317" s="36">
         <v>4.5839273156610147</v>
       </c>
-      <c r="V317" s="38">
+      <c r="V317" s="36">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="318" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W317" s="78">
+        <v>18870993</v>
+      </c>
+    </row>
+    <row r="318" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
         <v>5</v>
       </c>
@@ -22163,11 +23283,14 @@
       <c r="U318" s="36">
         <v>7.2366199935738535</v>
       </c>
-      <c r="V318" s="38">
+      <c r="V318" s="36">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="319" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W318" s="78">
+        <v>19319746</v>
+      </c>
+    </row>
+    <row r="319" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="8">
         <v>6</v>
       </c>
@@ -22226,11 +23349,14 @@
       <c r="U319" s="36">
         <v>4.1696559543024279</v>
       </c>
-      <c r="V319" s="38">
+      <c r="V319" s="36">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="320" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W319" s="78">
+        <v>19772872</v>
+      </c>
+    </row>
+    <row r="320" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="8">
         <v>7</v>
       </c>
@@ -22289,11 +23415,14 @@
       <c r="U320" s="36">
         <v>3.462651712798916</v>
       </c>
-      <c r="V320" s="38">
+      <c r="V320" s="36">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="321" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W320" s="78">
+        <v>20230384</v>
+      </c>
+    </row>
+    <row r="321" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="8">
         <v>8</v>
       </c>
@@ -22352,11 +23481,14 @@
       <c r="U321" s="36">
         <v>3.4595725553488279</v>
       </c>
-      <c r="V321" s="38">
+      <c r="V321" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="322" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W321" s="78">
+        <v>20691283</v>
+      </c>
+    </row>
+    <row r="322" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
         <v>9</v>
       </c>
@@ -22413,11 +23545,14 @@
       <c r="U322" s="36">
         <v>4.1770463844437842</v>
       </c>
-      <c r="V322" s="38">
+      <c r="V322" s="36">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="323" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W322" s="78">
+        <v>21153459</v>
+      </c>
+    </row>
+    <row r="323" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
         <v>10</v>
       </c>
@@ -22476,11 +23611,14 @@
       <c r="U323" s="36">
         <v>3.6726563285104561</v>
       </c>
-      <c r="V323" s="38">
+      <c r="V323" s="36">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="324" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W323" s="78">
+        <v>21614193</v>
+      </c>
+    </row>
+    <row r="324" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
         <v>11</v>
       </c>
@@ -22539,11 +23677,14 @@
       <c r="U324" s="36">
         <v>1.8859603230941815</v>
       </c>
-      <c r="V324" s="38">
+      <c r="V324" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="325" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W324" s="78">
+        <v>22071433</v>
+      </c>
+    </row>
+    <row r="325" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>12</v>
       </c>
@@ -22602,11 +23743,14 @@
       <c r="U325" s="48">
         <v>-0.10825910527866256</v>
       </c>
-      <c r="V325" s="49">
+      <c r="V325" s="48">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="326" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W325" s="79">
+        <v>22522378</v>
+      </c>
+    </row>
+    <row r="326" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
         <v>13</v>
       </c>
@@ -22667,11 +23811,14 @@
       <c r="U326" s="36">
         <v>3.5224424938664356</v>
       </c>
-      <c r="V326" s="38">
+      <c r="V326" s="36">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="327" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W326" s="78">
+        <v>22966818</v>
+      </c>
+    </row>
+    <row r="327" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
         <v>14</v>
       </c>
@@ -22734,11 +23881,14 @@
       <c r="U327" s="36">
         <v>2.7528443268801226</v>
       </c>
-      <c r="V327" s="38">
+      <c r="V327" s="36">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="328" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W327" s="78">
+        <v>23408131</v>
+      </c>
+    </row>
+    <row r="328" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>15</v>
       </c>
@@ -22797,11 +23947,14 @@
       <c r="U328" s="48">
         <v>4.0288390635428044</v>
       </c>
-      <c r="V328" s="49">
+      <c r="V328" s="48">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="329" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W328" s="79">
+        <v>23851408</v>
+      </c>
+    </row>
+    <row r="329" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
         <v>16</v>
       </c>
@@ -22864,11 +24017,14 @@
       <c r="U329" s="36">
         <v>2.6842871324197688</v>
       </c>
-      <c r="V329" s="38">
+      <c r="V329" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="330" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W329" s="78">
+        <v>24299160</v>
+      </c>
+    </row>
+    <row r="330" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
         <v>17</v>
       </c>
@@ -22931,11 +24087,14 @@
       <c r="U330" s="36">
         <v>3.7725013192651886</v>
       </c>
-      <c r="V330" s="38">
+      <c r="V330" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="331" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W330" s="78">
+        <v>24753824</v>
+      </c>
+    </row>
+    <row r="331" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
         <v>18</v>
       </c>
@@ -23000,11 +24159,14 @@
       <c r="U331" s="36">
         <v>4.4472163427340803</v>
       </c>
-      <c r="V331" s="38">
+      <c r="V331" s="36">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="332" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W331" s="78">
+        <v>25210954</v>
+      </c>
+    </row>
+    <row r="332" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
         <v>19</v>
       </c>
@@ -23069,11 +24231,14 @@
       <c r="U332" s="36">
         <v>4.4814075545120744</v>
       </c>
-      <c r="V332" s="38">
+      <c r="V332" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="333" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W332" s="78">
+        <v>25658062</v>
+      </c>
+    </row>
+    <row r="333" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
         <v>20</v>
       </c>
@@ -23138,11 +24303,14 @@
       <c r="U333" s="36">
         <v>4.7532359887971722</v>
       </c>
-      <c r="V333" s="38">
+      <c r="V333" s="36">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="334" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W333" s="78">
+        <v>26078293</v>
+      </c>
+    </row>
+    <row r="334" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
         <v>21</v>
       </c>
@@ -23207,11 +24375,14 @@
       <c r="U334" s="36">
         <v>4.1274840135585293</v>
       </c>
-      <c r="V334" s="38">
+      <c r="V334" s="36">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="335" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W334" s="78">
+        <v>26459944</v>
+      </c>
+    </row>
+    <row r="335" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
         <v>22</v>
       </c>
@@ -23276,11 +24447,14 @@
       <c r="U335" s="36">
         <v>0.9983407946564995</v>
       </c>
-      <c r="V335" s="38">
+      <c r="V335" s="36">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="336" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W335" s="78">
+        <v>26799285</v>
+      </c>
+    </row>
+    <row r="336" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
         <v>23</v>
       </c>
@@ -23345,11 +24519,14 @@
       <c r="U336" s="36">
         <v>1.7416952497298013</v>
       </c>
-      <c r="V336" s="38">
+      <c r="V336" s="36">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="337" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W336" s="78">
+        <v>27100968</v>
+      </c>
+    </row>
+    <row r="337" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
         <v>24</v>
       </c>
@@ -23414,11 +24591,14 @@
       <c r="U337" s="36">
         <v>2.8612107674102418</v>
       </c>
-      <c r="V337" s="38">
+      <c r="V337" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="338" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W337" s="78">
+        <v>27372226</v>
+      </c>
+    </row>
+    <row r="338" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
         <v>25</v>
       </c>
@@ -23483,11 +24663,14 @@
       <c r="U338" s="36">
         <v>3.7988911266239285</v>
       </c>
-      <c r="V338" s="38">
+      <c r="V338" s="36">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="339" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W338" s="78">
+        <v>27624213</v>
+      </c>
+    </row>
+    <row r="339" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
         <v>26</v>
       </c>
@@ -23552,11 +24735,14 @@
       <c r="U339" s="36">
         <v>3.5132137966530195</v>
       </c>
-      <c r="V339" s="38">
+      <c r="V339" s="36">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="340" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W339" s="78">
+        <v>27866145</v>
+      </c>
+    </row>
+    <row r="340" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
         <v>27</v>
       </c>
@@ -23621,11 +24807,14 @@
       <c r="U340" s="36">
         <v>2.8549722917001503</v>
       </c>
-      <c r="V340" s="38">
+      <c r="V340" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="341" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W340" s="78">
+        <v>28102056</v>
+      </c>
+    </row>
+    <row r="341" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
         <v>28</v>
       </c>
@@ -23690,11 +24879,14 @@
       <c r="U341" s="36">
         <v>1.8761714584669278</v>
       </c>
-      <c r="V341" s="38">
+      <c r="V341" s="36">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="342" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W341" s="78">
+        <v>28333052</v>
+      </c>
+    </row>
+    <row r="342" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
         <v>29</v>
       </c>
@@ -23759,11 +24951,14 @@
       <c r="U342" s="36">
         <v>-0.136579805460741</v>
       </c>
-      <c r="V342" s="38">
+      <c r="V342" s="36">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="343" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W342" s="78">
+        <v>28562317</v>
+      </c>
+    </row>
+    <row r="343" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
         <v>30</v>
       </c>
@@ -23828,11 +25023,14 @@
       <c r="U343" s="36">
         <v>-2.5367570658566478</v>
       </c>
-      <c r="V343" s="38">
+      <c r="V343" s="36">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="344" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W343" s="78">
+        <v>28792655</v>
+      </c>
+    </row>
+    <row r="344" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
         <v>31</v>
       </c>
@@ -23897,11 +25095,14 @@
       <c r="U344" s="36">
         <v>2.5637665587658063</v>
       </c>
-      <c r="V344" s="38">
+      <c r="V344" s="36">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="345" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W344" s="78">
+        <v>29027674</v>
+      </c>
+    </row>
+    <row r="345" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="8">
         <v>32</v>
       </c>
@@ -23966,11 +25167,14 @@
       <c r="U345" s="36">
         <v>1.5508355056815617</v>
       </c>
-      <c r="V345" s="38">
+      <c r="V345" s="36">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="346" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W345" s="78">
+        <v>29264318</v>
+      </c>
+    </row>
+    <row r="346" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
         <v>33</v>
       </c>
@@ -24033,11 +25237,14 @@
       <c r="U346" s="36">
         <v>2.2495458523699199</v>
       </c>
-      <c r="V346" s="38">
+      <c r="V346" s="36">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="347" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W346" s="78">
+        <v>29506788</v>
+      </c>
+    </row>
+    <row r="347" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
         <v>34</v>
       </c>
@@ -24102,11 +25309,14 @@
       <c r="U347" s="36">
         <v>1.8420810710110231</v>
       </c>
-      <c r="V347" s="38">
+      <c r="V347" s="36">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="348" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W347" s="78">
+        <v>29773987</v>
+      </c>
+    </row>
+    <row r="348" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
         <v>35</v>
       </c>
@@ -24171,11 +25381,14 @@
       <c r="U348" s="36">
         <v>2.4519730353603393</v>
       </c>
-      <c r="V348" s="38">
+      <c r="V348" s="36">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="349" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W348" s="78">
+        <v>30090359</v>
+      </c>
+    </row>
+    <row r="349" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="8">
         <v>36</v>
       </c>
@@ -24240,11 +25453,14 @@
       <c r="U349" s="36">
         <v>2.8809104660521854</v>
       </c>
-      <c r="V349" s="38">
+      <c r="V349" s="36">
         <v>4</v>
       </c>
-    </row>
-    <row r="350" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W349" s="78">
+        <v>30470734</v>
+      </c>
+    </row>
+    <row r="350" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
         <v>37</v>
       </c>
@@ -24307,11 +25523,14 @@
       <c r="U350" s="36">
         <v>1.5672151699786383</v>
       </c>
-      <c r="V350" s="38">
+      <c r="V350" s="36">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="351" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W350" s="78">
+        <v>30926032</v>
+      </c>
+    </row>
+    <row r="351" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
         <v>38</v>
       </c>
@@ -24376,11 +25595,14 @@
       <c r="U351" s="36">
         <v>2.2170103303188426</v>
       </c>
-      <c r="V351" s="38">
+      <c r="V351" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="352" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W351" s="78">
+        <v>31444297</v>
+      </c>
+    </row>
+    <row r="352" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="16">
         <v>39</v>
       </c>
@@ -24443,11 +25665,14 @@
       <c r="U352" s="37">
         <v>2.9273227282108536</v>
       </c>
-      <c r="V352" s="39">
+      <c r="V352" s="37">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="353" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W352" s="80">
+        <v>31989256</v>
+      </c>
+    </row>
+    <row r="353" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="12">
         <v>1</v>
       </c>
@@ -24506,11 +25731,14 @@
       <c r="U353" s="36">
         <v>-0.256751930992138</v>
       </c>
-      <c r="V353" s="38">
+      <c r="V353" s="36">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="354" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W353" s="78">
+        <v>15182611</v>
+      </c>
+    </row>
+    <row r="354" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="8">
         <v>2</v>
       </c>
@@ -24569,11 +25797,14 @@
       <c r="U354" s="36">
         <v>2.5377186978074633</v>
       </c>
-      <c r="V354" s="38">
+      <c r="V354" s="36">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="355" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W354" s="78">
+        <v>15597886</v>
+      </c>
+    </row>
+    <row r="355" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="8">
         <v>3</v>
       </c>
@@ -24632,11 +25863,14 @@
       <c r="U355" s="36">
         <v>-1.8028744527117624</v>
       </c>
-      <c r="V355" s="38">
+      <c r="V355" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="356" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W355" s="78">
+        <v>16017573</v>
+      </c>
+    </row>
+    <row r="356" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="8">
         <v>4</v>
       </c>
@@ -24695,11 +25929,14 @@
       <c r="U356" s="36">
         <v>4.5839273156610147</v>
       </c>
-      <c r="V356" s="38">
+      <c r="V356" s="36">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="357" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W356" s="78">
+        <v>16443134</v>
+      </c>
+    </row>
+    <row r="357" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="8">
         <v>5</v>
       </c>
@@ -24758,11 +25995,14 @@
       <c r="U357" s="36">
         <v>7.2366199935738535</v>
       </c>
-      <c r="V357" s="38">
+      <c r="V357" s="36">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="358" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W357" s="78">
+        <v>16876703</v>
+      </c>
+    </row>
+    <row r="358" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="8">
         <v>6</v>
       </c>
@@ -24821,11 +26061,14 @@
       <c r="U358" s="36">
         <v>4.1696559543024279</v>
       </c>
-      <c r="V358" s="38">
+      <c r="V358" s="36">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="359" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W358" s="78">
+        <v>17319520</v>
+      </c>
+    </row>
+    <row r="359" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="8">
         <v>7</v>
       </c>
@@ -24884,11 +26127,14 @@
       <c r="U359" s="36">
         <v>3.462651712798916</v>
       </c>
-      <c r="V359" s="38">
+      <c r="V359" s="36">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="360" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W359" s="78">
+        <v>17772001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="8">
         <v>8</v>
       </c>
@@ -24947,11 +26193,14 @@
       <c r="U360" s="36">
         <v>3.4595725553488279</v>
       </c>
-      <c r="V360" s="38">
+      <c r="V360" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="361" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W360" s="78">
+        <v>18232730</v>
+      </c>
+    </row>
+    <row r="361" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="8">
         <v>9</v>
       </c>
@@ -25010,11 +26259,14 @@
       <c r="U361" s="36">
         <v>4.1770463844437842</v>
       </c>
-      <c r="V361" s="38">
+      <c r="V361" s="36">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="362" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W361" s="78">
+        <v>18698847</v>
+      </c>
+    </row>
+    <row r="362" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="8">
         <v>10</v>
       </c>
@@ -25073,11 +26325,14 @@
       <c r="U362" s="36">
         <v>3.6726563285104561</v>
       </c>
-      <c r="V362" s="38">
+      <c r="V362" s="36">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="363" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W362" s="78">
+        <v>19166471</v>
+      </c>
+    </row>
+    <row r="363" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="8">
         <v>11</v>
       </c>
@@ -25136,11 +26391,14 @@
       <c r="U363" s="36">
         <v>1.8859603230941815</v>
       </c>
-      <c r="V363" s="38">
+      <c r="V363" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="364" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W363" s="78">
+        <v>19632665</v>
+      </c>
+    </row>
+    <row r="364" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>12</v>
       </c>
@@ -25197,11 +26455,14 @@
       <c r="U364" s="48">
         <v>-0.10825910527866256</v>
       </c>
-      <c r="V364" s="49">
+      <c r="V364" s="48">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="365" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W364" s="79">
+        <v>20096317</v>
+      </c>
+    </row>
+    <row r="365" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="8">
         <v>13</v>
       </c>
@@ -25262,11 +26523,14 @@
       <c r="U365" s="36">
         <v>3.5224424938664356</v>
       </c>
-      <c r="V365" s="38">
+      <c r="V365" s="36">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="366" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W365" s="78">
+        <v>20557683</v>
+      </c>
+    </row>
+    <row r="366" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="8">
         <v>14</v>
       </c>
@@ -25325,11 +26589,14 @@
       <c r="U366" s="36">
         <v>2.7528443268801226</v>
       </c>
-      <c r="V366" s="38">
+      <c r="V366" s="36">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="367" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W366" s="78">
+        <v>21016901</v>
+      </c>
+    </row>
+    <row r="367" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>15</v>
       </c>
@@ -25390,11 +26657,14 @@
       <c r="U367" s="48">
         <v>4.0288390635428044</v>
       </c>
-      <c r="V367" s="49">
+      <c r="V367" s="48">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="368" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W367" s="79">
+        <v>21474549</v>
+      </c>
+    </row>
+    <row r="368" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="8">
         <v>16</v>
       </c>
@@ -25459,11 +26729,14 @@
       <c r="U368" s="36">
         <v>2.6842871324197688</v>
       </c>
-      <c r="V368" s="38">
+      <c r="V368" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="369" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W368" s="78">
+        <v>21931084</v>
+      </c>
+    </row>
+    <row r="369" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="8">
         <v>17</v>
       </c>
@@ -25526,11 +26799,14 @@
       <c r="U369" s="36">
         <v>3.7725013192651886</v>
       </c>
-      <c r="V369" s="38">
+      <c r="V369" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="370" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W369" s="78">
+        <v>22385650</v>
+      </c>
+    </row>
+    <row r="370" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="8">
         <v>18</v>
       </c>
@@ -25593,11 +26869,14 @@
       <c r="U370" s="36">
         <v>4.4472163427340803</v>
       </c>
-      <c r="V370" s="38">
+      <c r="V370" s="36">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="371" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W370" s="78">
+        <v>22837743</v>
+      </c>
+    </row>
+    <row r="371" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="8">
         <v>19</v>
       </c>
@@ -25660,11 +26939,14 @@
       <c r="U371" s="36">
         <v>4.4814075545120744</v>
       </c>
-      <c r="V371" s="38">
+      <c r="V371" s="36">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="372" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W371" s="78">
+        <v>23288564</v>
+      </c>
+    </row>
+    <row r="372" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="8">
         <v>20</v>
       </c>
@@ -25727,11 +27009,14 @@
       <c r="U372" s="36">
         <v>4.7532359887971722</v>
       </c>
-      <c r="V372" s="38">
+      <c r="V372" s="36">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="373" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W372" s="78">
+        <v>23739841</v>
+      </c>
+    </row>
+    <row r="373" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="8">
         <v>21</v>
       </c>
@@ -25794,11 +27079,14 @@
       <c r="U373" s="36">
         <v>4.1274840135585293</v>
       </c>
-      <c r="V373" s="38">
+      <c r="V373" s="36">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="374" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W373" s="78">
+        <v>24192446</v>
+      </c>
+    </row>
+    <row r="374" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="8">
         <v>22</v>
       </c>
@@ -25863,11 +27151,14 @@
       <c r="U374" s="36">
         <v>0.9983407946564995</v>
       </c>
-      <c r="V374" s="38">
+      <c r="V374" s="36">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="375" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W374" s="78">
+        <v>24646472</v>
+      </c>
+    </row>
+    <row r="375" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="8">
         <v>23</v>
       </c>
@@ -25932,11 +27223,14 @@
       <c r="U375" s="36">
         <v>1.7416952497298013</v>
       </c>
-      <c r="V375" s="38">
+      <c r="V375" s="36">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="376" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W375" s="78">
+        <v>25100408</v>
+      </c>
+    </row>
+    <row r="376" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="8">
         <v>24</v>
       </c>
@@ -26001,11 +27295,14 @@
       <c r="U376" s="36">
         <v>2.8612107674102418</v>
       </c>
-      <c r="V376" s="38">
+      <c r="V376" s="36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="377" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W376" s="78">
+        <v>25551624</v>
+      </c>
+    </row>
+    <row r="377" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="8">
         <v>25</v>
       </c>
@@ -26068,11 +27365,14 @@
       <c r="U377" s="36">
         <v>3.7988911266239285</v>
       </c>
-      <c r="V377" s="38">
+      <c r="V377" s="36">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="378" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W377" s="78">
+        <v>25996594</v>
+      </c>
+    </row>
+    <row r="378" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="8">
         <v>26</v>
       </c>
@@ -26137,11 +27437,14 @@
       <c r="U378" s="36">
         <v>3.5132137966530195</v>
       </c>
-      <c r="V378" s="38">
+      <c r="V378" s="36">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="379" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W378" s="78">
+        <v>26432447</v>
+      </c>
+    </row>
+    <row r="379" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="8">
         <v>27</v>
       </c>
@@ -26206,11 +27509,14 @@
       <c r="U379" s="36">
         <v>2.8549722917001503</v>
       </c>
-      <c r="V379" s="38">
+      <c r="V379" s="36">
         <v>6</v>
       </c>
-    </row>
-    <row r="380" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W379" s="78">
+        <v>26850194</v>
+      </c>
+    </row>
+    <row r="380" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="8">
         <v>28</v>
       </c>
@@ -26275,11 +27581,14 @@
       <c r="U380" s="36">
         <v>1.8761714584669278</v>
       </c>
-      <c r="V380" s="38">
+      <c r="V380" s="36">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="381" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W380" s="78">
+        <v>27247610</v>
+      </c>
+    </row>
+    <row r="381" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="8">
         <v>29</v>
       </c>
@@ -26344,11 +27653,14 @@
       <c r="U381" s="36">
         <v>-0.136579805460741</v>
       </c>
-      <c r="V381" s="38">
+      <c r="V381" s="36">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="382" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W381" s="78">
+        <v>27635832</v>
+      </c>
+    </row>
+    <row r="382" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="8">
         <v>30</v>
       </c>
@@ -26413,11 +27725,14 @@
       <c r="U382" s="36">
         <v>-2.5367570658566478</v>
       </c>
-      <c r="V382" s="38">
+      <c r="V382" s="36">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="383" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W382" s="78">
+        <v>28031009</v>
+      </c>
+    </row>
+    <row r="383" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="8">
         <v>31</v>
       </c>
@@ -26482,11 +27797,14 @@
       <c r="U383" s="36">
         <v>2.5637665587658063</v>
       </c>
-      <c r="V383" s="38">
+      <c r="V383" s="36">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="384" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W383" s="78">
+        <v>28439940</v>
+      </c>
+    </row>
+    <row r="384" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="8">
         <v>32</v>
       </c>
@@ -26551,11 +27869,14 @@
       <c r="U384" s="36">
         <v>1.5508355056815617</v>
       </c>
-      <c r="V384" s="38">
+      <c r="V384" s="36">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="385" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W384" s="78">
+        <v>28888369</v>
+      </c>
+    </row>
+    <row r="385" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="8">
         <v>33</v>
       </c>
@@ -26620,11 +27941,14 @@
       <c r="U385" s="36">
         <v>2.2495458523699199</v>
       </c>
-      <c r="V385" s="38">
+      <c r="V385" s="36">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="386" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W385" s="78">
+        <v>29362449</v>
+      </c>
+    </row>
+    <row r="386" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="8">
         <v>34</v>
       </c>
@@ -26687,11 +28011,14 @@
       <c r="U386" s="36">
         <v>1.8420810710110231</v>
       </c>
-      <c r="V386" s="38">
+      <c r="V386" s="36">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="387" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W386" s="78">
+        <v>29783571</v>
+      </c>
+    </row>
+    <row r="387" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="8">
         <v>35</v>
       </c>
@@ -26754,11 +28081,14 @@
       <c r="U387" s="36">
         <v>2.4519730353603393</v>
       </c>
-      <c r="V387" s="38">
+      <c r="V387" s="36">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="388" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W387" s="78">
+        <v>30045134</v>
+      </c>
+    </row>
+    <row r="388" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="8">
         <v>36</v>
       </c>
@@ -26805,11 +28135,14 @@
       <c r="U388" s="36">
         <v>2.8809104660521854</v>
       </c>
-      <c r="V388" s="38">
+      <c r="V388" s="36">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W388" s="78">
+        <v>30081829</v>
+      </c>
+    </row>
+    <row r="389" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="8">
         <v>37</v>
       </c>
@@ -26856,11 +28189,14 @@
       <c r="U389" s="36">
         <v>1.5672151699786383</v>
       </c>
-      <c r="V389" s="38">
+      <c r="V389" s="36">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="390" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W389" s="78">
+        <v>29846179</v>
+      </c>
+    </row>
+    <row r="390" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="8">
         <v>38</v>
       </c>
@@ -26907,11 +28243,14 @@
       <c r="U390" s="36">
         <v>2.2170103303188426</v>
       </c>
-      <c r="V390" s="38">
+      <c r="V390" s="36">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="391" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W390" s="78">
+        <v>29390409</v>
+      </c>
+    </row>
+    <row r="391" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="16">
         <v>39</v>
       </c>
@@ -26958,8 +28297,11 @@
       <c r="U391" s="37">
         <v>2.9273227282108536</v>
       </c>
-      <c r="V391" s="39">
+      <c r="V391" s="37">
         <v>5.4</v>
+      </c>
+      <c r="W391" s="80">
+        <v>28870195</v>
       </c>
     </row>
   </sheetData>
@@ -26970,6 +28312,914 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E3B155-C12A-4F85-BDE4-822EB3F3D573}">
+  <dimension ref="C4:S37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="9.140625" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D4" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C5" s="52"/>
+      <c r="D5" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" s="50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" s="50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="S8" s="56"/>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D9" s="60"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="56"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="S10" s="56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D11" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" s="56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D13" s="60"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D15" s="60"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D17" s="60"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="65"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="65"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="65"/>
+      <c r="O18" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" s="65"/>
+      <c r="S18" s="56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D19" s="64"/>
+      <c r="E19" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="65"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="65"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="65"/>
+      <c r="O19" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="R19" s="65"/>
+      <c r="S19" s="56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="64"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="65"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="R20" s="65"/>
+      <c r="S20" s="56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D21" s="64"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="65"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="R21" s="65"/>
+      <c r="S21" s="56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="64"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22" s="65"/>
+      <c r="S22" s="56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D23" s="64"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="R23" s="65"/>
+      <c r="S23" s="56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C25" s="52"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C30" s="70"/>
+      <c r="D30" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="76"/>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C31" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q31" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="R31" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="S31" s="53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="69">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E32" s="71">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F32" s="71">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G32" s="72">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H32" s="69">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I32" s="71">
+        <v>0.01</v>
+      </c>
+      <c r="J32" s="71">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K32" s="72">
+        <v>0.01</v>
+      </c>
+      <c r="L32" s="69">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M32" s="71">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N32" s="71">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O32" s="72">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P32" s="69">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q32" s="71">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R32" s="71">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S32" s="71">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C33" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="73">
+        <f t="shared" ref="D33:S33" si="0">$D$34*D32</f>
+        <v>1.0562500000000001</v>
+      </c>
+      <c r="E33" s="74">
+        <f t="shared" si="0"/>
+        <v>1.0562500000000001</v>
+      </c>
+      <c r="F33" s="74">
+        <f t="shared" si="0"/>
+        <v>1.0562500000000001</v>
+      </c>
+      <c r="G33" s="75">
+        <f t="shared" si="0"/>
+        <v>1.0562500000000001</v>
+      </c>
+      <c r="H33" s="73">
+        <f t="shared" si="0"/>
+        <v>0.38024999999999998</v>
+      </c>
+      <c r="I33" s="74">
+        <f t="shared" si="0"/>
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="J33" s="74">
+        <f t="shared" si="0"/>
+        <v>0.38024999999999998</v>
+      </c>
+      <c r="K33" s="75">
+        <f t="shared" si="0"/>
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="L33" s="73">
+        <f t="shared" si="0"/>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="M33" s="74">
+        <f t="shared" si="0"/>
+        <v>0.12675</v>
+      </c>
+      <c r="N33" s="74">
+        <f t="shared" si="0"/>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="O33" s="75">
+        <f t="shared" si="0"/>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="P33" s="73">
+        <f t="shared" si="0"/>
+        <v>0.21124999999999999</v>
+      </c>
+      <c r="Q33" s="74">
+        <f t="shared" si="0"/>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="R33" s="74">
+        <f t="shared" si="0"/>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="S33" s="74">
+        <f t="shared" si="0"/>
+        <v>0.21124999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="50">
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="P30:S30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897726E8-DFA6-4C96-9C86-4FEE8A3D92A8}">
   <dimension ref="A1:Y547"/>
   <sheetViews>
